--- a/DPS.xlsx
+++ b/DPS.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\寶可夢\Pokemon_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E0BA52-641A-4C99-87CD-53F312216891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26ACE1A7-869E-4ED5-A3B8-1AFF9844D5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
   <si>
     <t>攻/守</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -111,10 +122,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Nega噴火龍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Mega路卡</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -167,6 +174,22 @@
   </si>
   <si>
     <t>Mega沙奈朵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寶可夢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>屬性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mega噴火龍</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -629,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -638,12 +661,15 @@
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="14">
-        <v>22.5</v>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -707,11 +733,14 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="14">
-        <v>19.68</v>
+      <c r="A2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14">
+        <v>22.5</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
@@ -776,10 +805,13 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="14">
-        <v>22.43</v>
+        <v>38</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14">
+        <v>19.68</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -844,10 +876,13 @@
     </row>
     <row r="4" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="14">
-        <v>19.420000000000002</v>
+        <v>21</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14">
+        <v>22.43</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
@@ -912,10 +947,13 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="14">
-        <v>26.05</v>
+        <v>22</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="14">
+        <v>19.420000000000002</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -980,10 +1018,13 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="14">
-        <v>19.97</v>
+        <v>23</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="14">
+        <v>26.05</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
@@ -1048,10 +1089,13 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="14">
-        <v>23.04</v>
+        <v>24</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="14">
+        <v>19.97</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>6</v>
@@ -1116,10 +1160,13 @@
     </row>
     <row r="8" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="14">
-        <v>16.59</v>
+        <v>25</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="14">
+        <v>23.04</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
@@ -1184,10 +1231,13 @@
     </row>
     <row r="9" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="14">
-        <v>17.850000000000001</v>
+        <v>26</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="14">
+        <v>16.59</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
@@ -1252,10 +1302,13 @@
     </row>
     <row r="10" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="14">
-        <v>18.11</v>
+        <v>27</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="14">
+        <v>17.850000000000001</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
@@ -1320,10 +1373,13 @@
     </row>
     <row r="11" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="14">
-        <v>15.38</v>
+        <v>28</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="14">
+        <v>18.11</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
@@ -1388,10 +1444,13 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="14">
-        <v>19.22</v>
+        <v>29</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="14">
+        <v>15.38</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
@@ -1456,10 +1515,13 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="14">
-        <v>15.73</v>
+        <v>30</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="14">
+        <v>19.22</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
@@ -1524,10 +1586,13 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="14">
-        <v>23.04</v>
+        <v>31</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="14">
+        <v>15.73</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>13</v>
@@ -1592,10 +1657,13 @@
     </row>
     <row r="15" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="14">
-        <v>22.16</v>
+        <v>25</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="14">
+        <v>23.04</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>14</v>
@@ -1660,10 +1728,13 @@
     </row>
     <row r="16" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="14">
-        <v>17.88</v>
+        <v>32</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="14">
+        <v>22.16</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>15</v>
@@ -1728,10 +1799,13 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="14">
-        <v>22.27</v>
+        <v>29</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="14">
+        <v>17.88</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>16</v>
@@ -1796,10 +1870,13 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="14">
-        <v>17.25</v>
+        <v>33</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="14">
+        <v>22.27</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>17</v>
@@ -1863,6 +1940,15 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="14">
+        <v>17.25</v>
+      </c>
       <c r="E19" s="9" t="s">
         <v>18</v>
       </c>

--- a/DPS.xlsx
+++ b/DPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\寶可夢\Pokemon_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26ACE1A7-869E-4ED5-A3B8-1AFF9844D5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC2FAA4-0389-4BD6-9C2F-93579B423CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="99">
   <si>
     <t>攻/守</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -122,82 +122,321 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Mega路卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega蓋歐卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega列空坐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Mega蜥蜴王</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Mega雷電獸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mega烈咬陸鯊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mega艾路雷朵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mega班基拉斯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>焰白酋雷姆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mega凱羅斯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奈克洛茲瑪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>劍之王</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mega沙奈朵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寶可夢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>屬性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>無極汰那</t>
-  </si>
-  <si>
-    <t>Mega雷電獸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mega噴火龍Y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mega路卡利歐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mega火焰雞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>萊希拉姆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mega噴火龍X</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>凱路迪歐(覺悟)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mega赫拉克羅斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mega巨沼怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mega水箭龜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mega暴鯉龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈空坐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mega暴飛龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紙御劍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>草</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mega妙蛙花</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mega耿鬼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mega大針鋒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虛吾伊德</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷吉艾勒奇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>電</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>電束木</t>
+  </si>
+  <si>
+    <t>捷克羅姆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷公</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始蓋歐卡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始烈空坐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始固拉多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影固拉多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固拉多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超夢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mega胡地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mega拉帝歐斯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mega蒂安希</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mega化石翼龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mega暴雪王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>象牙豬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蟲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>費洛美螂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Mega烈咬陸鯊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega艾路雷朵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega班基拉斯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>焰白酋雷姆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega凱羅斯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奈克洛茲瑪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>劍之王</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega沙奈朵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>寶可夢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>屬性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DPS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega噴火龍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闇黑酋雷姆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>砰頭小丑</t>
+  </si>
+  <si>
+    <t>幽靈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿鬼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>惡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>達克萊伊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>班基拉斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三首惡龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mega阿勃梭魯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾之王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鋼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mega巨金怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨金怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哲爾尼亞斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖精</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙子伊布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波克基斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>眷戀雲化身形態</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙奈朵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +473,14 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -326,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -367,8 +614,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,26 +903,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:X75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -732,15 +986,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" s="14">
-        <v>22.5</v>
+        <v>26.05</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
@@ -804,14 +1058,14 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>38</v>
+      <c r="A3" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3" s="14">
-        <v>19.68</v>
+        <v>16.41</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -874,15 +1128,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>21</v>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C4" s="14">
-        <v>22.43</v>
+        <v>22.66</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
@@ -946,14 +1200,14 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>22</v>
+      <c r="A5" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C5" s="14">
-        <v>19.420000000000002</v>
+        <v>22.51</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -1017,14 +1271,14 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>23</v>
+      <c r="A6" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" s="14">
-        <v>26.05</v>
+        <v>22.5</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
@@ -1088,14 +1342,14 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>24</v>
+      <c r="A7" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" s="14">
-        <v>19.97</v>
+        <v>22.43</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>6</v>
@@ -1158,15 +1412,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>25</v>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C8" s="14">
-        <v>23.04</v>
+        <v>22.27</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
@@ -1229,15 +1483,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>26</v>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C9" s="14">
-        <v>16.59</v>
+        <v>22.16</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
@@ -1300,15 +1554,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="C10" s="14">
-        <v>17.850000000000001</v>
+        <v>21.87</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
@@ -1371,15 +1625,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>28</v>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C11" s="14">
-        <v>18.11</v>
+        <v>21.71</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
@@ -1443,14 +1697,14 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>29</v>
+      <c r="A12" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="C12" s="14">
-        <v>15.38</v>
+        <v>21.35</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
@@ -1515,13 +1769,13 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="C13" s="14">
-        <v>19.22</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
@@ -1585,14 +1839,14 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>31</v>
+      <c r="A14" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C14" s="14">
-        <v>15.73</v>
+        <v>20.12</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>13</v>
@@ -1655,15 +1909,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>25</v>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C15" s="14">
-        <v>23.04</v>
+        <v>19.97</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>14</v>
@@ -1726,15 +1980,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="C16" s="14">
-        <v>22.16</v>
+        <v>19.809999999999999</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>15</v>
@@ -1799,13 +2053,13 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C17" s="14">
-        <v>17.88</v>
+        <v>19.809999999999999</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>16</v>
@@ -1869,14 +2123,14 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>33</v>
+      <c r="A18" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C18" s="14">
-        <v>22.27</v>
+        <v>19.68</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>17</v>
@@ -1940,14 +2194,14 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>34</v>
+      <c r="A19" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C19" s="14">
-        <v>17.25</v>
+        <v>19.57</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>18</v>
@@ -2011,6 +2265,15 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="14">
+        <v>19.420000000000002</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2072,7 +2335,615 @@
         <v>1</v>
       </c>
     </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="15">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="14">
+        <v>19.22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="14">
+        <v>18.79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="14">
+        <v>18.39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="14">
+        <v>18.239999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="14">
+        <v>18.11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="15">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="14">
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="14">
+        <v>17.88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="14">
+        <v>17.88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="14">
+        <v>17.87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="14">
+        <v>17.850000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="14">
+        <v>17.68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="14">
+        <v>17.66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="14">
+        <v>17.53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="14">
+        <v>17.260000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="14">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="14">
+        <v>17.02</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="14">
+        <v>17.02</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="14">
+        <v>16.989999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="14">
+        <v>16.89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="14">
+        <v>16.79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="14">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="14">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="14">
+        <v>16.59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="14">
+        <v>16.559999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="14">
+        <v>16.420000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="14">
+        <v>16.190000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="14">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="14">
+        <v>15.73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="14">
+        <v>15.73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="14">
+        <v>15.69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="14">
+        <v>15.53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="14">
+        <v>15.44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="14">
+        <v>15.38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="14">
+        <v>15.28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="14">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="14">
+        <v>15.09</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="14">
+        <v>15.04</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="14">
+        <v>15.01</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="14">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="14">
+        <v>14.77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="14">
+        <v>14.74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="14">
+        <v>14.69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="14">
+        <v>14.64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66" s="14">
+        <v>14.54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="14">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="14">
+        <v>14.43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" s="14">
+        <v>14.23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="14">
+        <v>13.54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" s="14">
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="14">
+        <v>13.19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" s="14">
+        <v>12.73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" s="14">
+        <v>12.38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" s="14">
+        <v>11.35</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C75">
+    <sortCondition descending="1" ref="C2:C75"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DPS.xlsx
+++ b/DPS.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\寶可夢\Pokemon_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC2FAA4-0389-4BD6-9C2F-93579B423CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F69041C-9FBD-44FA-8000-F1D8D60FACE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>攻/守</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -118,50 +121,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>暗影雷吉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega蜥蜴王</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega雷電獸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega烈咬陸鯊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega艾路雷朵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega班基拉斯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>焰白酋雷姆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega凱羅斯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奈克洛茲瑪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>劍之王</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega沙奈朵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>寶可夢</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -171,264 +130,6 @@
   </si>
   <si>
     <t>DPS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>無極汰那</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega噴火龍Y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega路卡利歐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega火焰雞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>萊希拉姆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>火</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega噴火龍X</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>凱路迪歐(覺悟)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega赫拉克羅斯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega巨沼怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega水箭龜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega暴鯉龍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>烈空坐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega暴飛龍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紙御劍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>草</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega妙蛙花</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega耿鬼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega大針鋒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>虛吾伊德</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷吉艾勒奇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>電</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>電束木</t>
-  </si>
-  <si>
-    <t>捷克羅姆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷公</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>原始蓋歐卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>原始烈空坐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>原始固拉多</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗影固拉多</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>固拉多</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超夢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超能力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega胡地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega拉帝歐斯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega蒂安希</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega化石翼龍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>岩石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega暴雪王</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>象牙豬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蟲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>費洛美螂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>龍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega烈咬陸鯊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闇黑酋雷姆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>砰頭小丑</t>
-  </si>
-  <si>
-    <t>幽靈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>耿鬼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>惡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>達克萊伊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>班基拉斯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三首惡龍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega阿勃梭魯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>盾之王</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鋼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mega巨金怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨金怪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>哲爾尼亞斯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>妖精</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>仙子伊布</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>波克基斯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>眷戀雲化身形態</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙奈朵</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -638,6 +339,845 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="攻守數據"/>
+      <sheetName val="數據"/>
+      <sheetName val="屬性克制表"/>
+      <sheetName val="極巨傷害"/>
+      <sheetName val="能量點"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="AO2" t="str">
+            <v>一般</v>
+          </cell>
+          <cell r="AQ2" t="str">
+            <v>暗影雷吉</v>
+          </cell>
+          <cell r="AS2">
+            <v>22.5</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="AO3" t="str">
+            <v>火</v>
+          </cell>
+          <cell r="AQ3" t="str">
+            <v>Nega噴火龍</v>
+          </cell>
+          <cell r="AS3">
+            <v>19.68</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="AO4" t="str">
+            <v>格鬥</v>
+          </cell>
+          <cell r="AQ4" t="str">
+            <v>Mega路卡</v>
+          </cell>
+          <cell r="AS4">
+            <v>22.43</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="AO5" t="str">
+            <v>水</v>
+          </cell>
+          <cell r="AQ5" t="str">
+            <v>Mega蓋歐卡</v>
+          </cell>
+          <cell r="AS5">
+            <v>19.420000000000002</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="AO6" t="str">
+            <v>飛行</v>
+          </cell>
+          <cell r="AQ6" t="str">
+            <v>Mega列空坐</v>
+          </cell>
+          <cell r="AS6">
+            <v>26.05</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="AO7" t="str">
+            <v>草</v>
+          </cell>
+          <cell r="AQ7" t="str">
+            <v>Mega蜥蜴王</v>
+          </cell>
+          <cell r="AS7">
+            <v>19.97</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="AO8" t="str">
+            <v>毒</v>
+          </cell>
+          <cell r="AQ8" t="str">
+            <v>無極汰那</v>
+          </cell>
+          <cell r="AS8">
+            <v>17.690000000000001</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="AO9" t="str">
+            <v>電</v>
+          </cell>
+          <cell r="AQ9" t="str">
+            <v>Mega雷電獸</v>
+          </cell>
+          <cell r="AS9">
+            <v>16.59</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="AO10" t="str">
+            <v>地面</v>
+          </cell>
+          <cell r="AQ10" t="str">
+            <v>Mega烈咬陸鯊</v>
+          </cell>
+          <cell r="AS10">
+            <v>17.850000000000001</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AO11" t="str">
+            <v>超能力</v>
+          </cell>
+          <cell r="AQ11" t="str">
+            <v>Mega艾路雷朵</v>
+          </cell>
+          <cell r="AS11">
+            <v>18.11</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AO12" t="str">
+            <v>岩石</v>
+          </cell>
+          <cell r="AQ12" t="str">
+            <v>Mega班基拉斯</v>
+          </cell>
+          <cell r="AS12">
+            <v>15.38</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AO13" t="str">
+            <v>冰</v>
+          </cell>
+          <cell r="AQ13" t="str">
+            <v>焰白酋雷姆</v>
+          </cell>
+          <cell r="AS13">
+            <v>19.22</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AO14" t="str">
+            <v>蟲</v>
+          </cell>
+          <cell r="AQ14" t="str">
+            <v>Mega凱羅斯</v>
+          </cell>
+          <cell r="AS14">
+            <v>15.73</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="AO15" t="str">
+            <v>龍</v>
+          </cell>
+          <cell r="AQ15" t="str">
+            <v>無極汰那</v>
+          </cell>
+          <cell r="AS15">
+            <v>22.66</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="AO16" t="str">
+            <v>幽靈</v>
+          </cell>
+          <cell r="AQ16" t="str">
+            <v>奈克洛茲瑪</v>
+          </cell>
+          <cell r="AS16">
+            <v>22.16</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="AO17" t="str">
+            <v>惡</v>
+          </cell>
+          <cell r="AQ17" t="str">
+            <v>Mega班基拉斯</v>
+          </cell>
+          <cell r="AS17">
+            <v>17.88</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="AO18" t="str">
+            <v>鋼</v>
+          </cell>
+          <cell r="AQ18" t="str">
+            <v>劍之王</v>
+          </cell>
+          <cell r="AS18">
+            <v>22.27</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="AO19" t="str">
+            <v>妖精</v>
+          </cell>
+          <cell r="AQ19" t="str">
+            <v>Mega沙奈朵</v>
+          </cell>
+          <cell r="AS19">
+            <v>17.25</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="AO20" t="str">
+            <v>火</v>
+          </cell>
+          <cell r="AQ20" t="str">
+            <v>Mega火焰雞</v>
+          </cell>
+          <cell r="AS20">
+            <v>20.12</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="AO21" t="str">
+            <v>火</v>
+          </cell>
+          <cell r="AQ21" t="str">
+            <v>萊希拉姆</v>
+          </cell>
+          <cell r="AS21">
+            <v>16.79</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="AO22" t="str">
+            <v>火</v>
+          </cell>
+          <cell r="AQ22" t="str">
+            <v>Mega噴火龍X</v>
+          </cell>
+          <cell r="AS22">
+            <v>17.02</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="AO23" t="str">
+            <v>格鬥</v>
+          </cell>
+          <cell r="AQ23" t="str">
+            <v>Mega火焰雞</v>
+          </cell>
+          <cell r="AS23">
+            <v>21.71</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="AO24" t="str">
+            <v>格鬥</v>
+          </cell>
+          <cell r="AQ24" t="str">
+            <v>凱路迪歐(覺悟)</v>
+          </cell>
+          <cell r="AS24">
+            <v>19.57</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="AO25" t="str">
+            <v>格鬥</v>
+          </cell>
+          <cell r="AQ25" t="str">
+            <v>Mega赫拉克羅斯</v>
+          </cell>
+          <cell r="AS25">
+            <v>17.02</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="AO26" t="str">
+            <v>水</v>
+          </cell>
+          <cell r="AQ26" t="str">
+            <v>Mega巨沼怪</v>
+          </cell>
+          <cell r="AS26">
+            <v>17.53</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="AO27" t="str">
+            <v>水</v>
+          </cell>
+          <cell r="AQ27" t="str">
+            <v>Mega水箭龜</v>
+          </cell>
+          <cell r="AS27">
+            <v>16.190000000000001</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="AO28" t="str">
+            <v>水</v>
+          </cell>
+          <cell r="AQ28" t="str">
+            <v>Mega暴鯉龍</v>
+          </cell>
+          <cell r="AS28">
+            <v>15.09</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="AO29" t="str">
+            <v>飛行</v>
+          </cell>
+          <cell r="AQ29" t="str">
+            <v>烈空坐</v>
+          </cell>
+          <cell r="AS29">
+            <v>18.79</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="AO30" t="str">
+            <v>飛行</v>
+          </cell>
+          <cell r="AQ30" t="str">
+            <v>Mega暴飛龍</v>
+          </cell>
+          <cell r="AS30">
+            <v>16.420000000000002</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="AO31" t="str">
+            <v>草</v>
+          </cell>
+          <cell r="AQ31" t="str">
+            <v>紙御劍</v>
+          </cell>
+          <cell r="AS31">
+            <v>16.75</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="AO32" t="str">
+            <v>草</v>
+          </cell>
+          <cell r="AQ32" t="str">
+            <v>Mega妙蛙花</v>
+          </cell>
+          <cell r="AS32">
+            <v>15.73</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="AO33" t="str">
+            <v>毒</v>
+          </cell>
+          <cell r="AQ33" t="str">
+            <v>Mega耿鬼</v>
+          </cell>
+          <cell r="AS33">
+            <v>16.63</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="AO34" t="str">
+            <v>毒</v>
+          </cell>
+          <cell r="AQ34" t="str">
+            <v>Mega大針鋒</v>
+          </cell>
+          <cell r="AS34">
+            <v>16.559999999999999</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="AO35" t="str">
+            <v>毒</v>
+          </cell>
+          <cell r="AQ35" t="str">
+            <v>虛吾伊德</v>
+          </cell>
+          <cell r="AS35">
+            <v>14.69</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="AO36" t="str">
+            <v>電</v>
+          </cell>
+          <cell r="AQ36" t="str">
+            <v>雷吉艾勒奇</v>
+          </cell>
+          <cell r="AS36">
+            <v>16.989999999999998</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="AO37" t="str">
+            <v>電</v>
+          </cell>
+          <cell r="AQ37" t="str">
+            <v>電束木</v>
+          </cell>
+          <cell r="AS37">
+            <v>16.89</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="AO38" t="str">
+            <v>電</v>
+          </cell>
+          <cell r="AQ38" t="str">
+            <v>捷克羅姆</v>
+          </cell>
+          <cell r="AS38">
+            <v>15.69</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="AO39" t="str">
+            <v>電</v>
+          </cell>
+          <cell r="AQ39" t="str">
+            <v>雷公</v>
+          </cell>
+          <cell r="AS39">
+            <v>14.43</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="AO40" t="str">
+            <v>地面</v>
+          </cell>
+          <cell r="AQ40" t="str">
+            <v>原始固拉多</v>
+          </cell>
+          <cell r="AS40">
+            <v>19.399999999999999</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="AO41" t="str">
+            <v>地面</v>
+          </cell>
+          <cell r="AQ41" t="str">
+            <v>暗影固拉多</v>
+          </cell>
+          <cell r="AS41">
+            <v>17.66</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="AO42" t="str">
+            <v>地面</v>
+          </cell>
+          <cell r="AQ42" t="str">
+            <v>Mega巨沼怪</v>
+          </cell>
+          <cell r="AS42">
+            <v>14.54</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="AO43" t="str">
+            <v>地面</v>
+          </cell>
+          <cell r="AQ43" t="str">
+            <v>固拉多</v>
+          </cell>
+          <cell r="AS43">
+            <v>15.04</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="AO44" t="str">
+            <v>超能力</v>
+          </cell>
+          <cell r="AQ44" t="str">
+            <v>超夢</v>
+          </cell>
+          <cell r="AS44">
+            <v>18.39</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="AO45" t="str">
+            <v>超能力</v>
+          </cell>
+          <cell r="AQ45" t="str">
+            <v>Mega胡地</v>
+          </cell>
+          <cell r="AS45">
+            <v>19.809999999999999</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="AO46" t="str">
+            <v>超能力</v>
+          </cell>
+          <cell r="AQ46" t="str">
+            <v>Mega沙奈朵</v>
+          </cell>
+          <cell r="AS46">
+            <v>18.100000000000001</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="AO47" t="str">
+            <v>超能力</v>
+          </cell>
+          <cell r="AQ47" t="str">
+            <v>Mega拉帝歐斯</v>
+          </cell>
+          <cell r="AS47">
+            <v>17.88</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="AO48" t="str">
+            <v>岩石</v>
+          </cell>
+          <cell r="AQ48" t="str">
+            <v>Mega蒂安希</v>
+          </cell>
+          <cell r="AS48">
+            <v>17.260000000000002</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="AO49" t="str">
+            <v>岩石</v>
+          </cell>
+          <cell r="AQ49" t="str">
+            <v>Mega化石翼龍</v>
+          </cell>
+          <cell r="AS49">
+            <v>15.28</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="AO50" t="str">
+            <v>冰</v>
+          </cell>
+          <cell r="AQ50" t="str">
+            <v>Mega暴雪王</v>
+          </cell>
+          <cell r="AS50">
+            <v>13.54</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="AO51" t="str">
+            <v>冰</v>
+          </cell>
+          <cell r="AQ51" t="str">
+            <v>象牙豬</v>
+          </cell>
+          <cell r="AS51">
+            <v>13.45</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="AO52" t="str">
+            <v>蟲</v>
+          </cell>
+          <cell r="AQ52" t="str">
+            <v>費洛美螂</v>
+          </cell>
+          <cell r="AS52">
+            <v>14.5</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="AO53" t="str">
+            <v>蟲</v>
+          </cell>
+          <cell r="AQ53" t="str">
+            <v>Mega大針鋒</v>
+          </cell>
+          <cell r="AS53">
+            <v>15.25</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="AO54" t="str">
+            <v>蟲</v>
+          </cell>
+          <cell r="AQ54" t="str">
+            <v>Mega赫拉克羅斯</v>
+          </cell>
+          <cell r="AS54">
+            <v>15.44</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="AO55" t="str">
+            <v>龍</v>
+          </cell>
+          <cell r="AQ55" t="str">
+            <v>原始烈空坐</v>
+          </cell>
+          <cell r="AS55">
+            <v>22.51</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="AO56" t="str">
+            <v>龍</v>
+          </cell>
+          <cell r="AQ56" t="str">
+            <v>Mega烈咬陸鯊</v>
+          </cell>
+          <cell r="AS56">
+            <v>20.420000000000002</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="AO57" t="str">
+            <v>龍</v>
+          </cell>
+          <cell r="AQ57" t="str">
+            <v>闇黑酋雷姆</v>
+          </cell>
+          <cell r="AS57">
+            <v>17.68</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="AO58" t="str">
+            <v>龍</v>
+          </cell>
+          <cell r="AQ58" t="str">
+            <v>Mega暴飛龍</v>
+          </cell>
+          <cell r="AS58">
+            <v>17.87</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="AO59" t="str">
+            <v>幽靈</v>
+          </cell>
+          <cell r="AQ59" t="str">
+            <v>砰頭小丑</v>
+          </cell>
+          <cell r="AS59">
+            <v>15.53</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="AO60" t="str">
+            <v>幽靈</v>
+          </cell>
+          <cell r="AQ60" t="str">
+            <v>耿鬼</v>
+          </cell>
+          <cell r="AS60">
+            <v>14.77</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="AO61" t="str">
+            <v>幽靈</v>
+          </cell>
+          <cell r="AQ61" t="str">
+            <v>Mega耿鬼</v>
+          </cell>
+          <cell r="AS61">
+            <v>19.809999999999999</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="AO62" t="str">
+            <v>惡</v>
+          </cell>
+          <cell r="AQ62" t="str">
+            <v>Mega暴鯉龍</v>
+          </cell>
+          <cell r="AS62">
+            <v>14.23</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="AO63" t="str">
+            <v>惡</v>
+          </cell>
+          <cell r="AQ63" t="str">
+            <v>達克萊伊</v>
+          </cell>
+          <cell r="AS63">
+            <v>14.64</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="AO64" t="str">
+            <v>惡</v>
+          </cell>
+          <cell r="AQ64" t="str">
+            <v>班基拉斯</v>
+          </cell>
+          <cell r="AS64">
+            <v>14.82</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="AO65" t="str">
+            <v>惡</v>
+          </cell>
+          <cell r="AQ65" t="str">
+            <v>三首惡龍</v>
+          </cell>
+          <cell r="AS65">
+            <v>15.01</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="AO66" t="str">
+            <v>惡</v>
+          </cell>
+          <cell r="AQ66" t="str">
+            <v>Mega阿勃梭魯</v>
+          </cell>
+          <cell r="AS66">
+            <v>17.95</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="AO67" t="str">
+            <v>鋼</v>
+          </cell>
+          <cell r="AQ67" t="str">
+            <v>盾之王</v>
+          </cell>
+          <cell r="AS67">
+            <v>21.87</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="AO68" t="str">
+            <v>鋼</v>
+          </cell>
+          <cell r="AQ68" t="str">
+            <v>奈克洛茲瑪</v>
+          </cell>
+          <cell r="AS68">
+            <v>21.35</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="AO69" t="str">
+            <v>鋼</v>
+          </cell>
+          <cell r="AQ69" t="str">
+            <v>Mega巨金怪</v>
+          </cell>
+          <cell r="AS69">
+            <v>18.239999999999998</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="AO70" t="str">
+            <v>鋼</v>
+          </cell>
+          <cell r="AQ70" t="str">
+            <v>巨金怪</v>
+          </cell>
+          <cell r="AS70">
+            <v>15.78</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="AO71" t="str">
+            <v>妖精</v>
+          </cell>
+          <cell r="AQ71" t="str">
+            <v>哲爾尼亞斯</v>
+          </cell>
+          <cell r="AS71">
+            <v>13.19</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="AO72" t="str">
+            <v>妖精</v>
+          </cell>
+          <cell r="AQ72" t="str">
+            <v>仙子伊布</v>
+          </cell>
+          <cell r="AS72">
+            <v>11.35</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="AO73" t="str">
+            <v>妖精</v>
+          </cell>
+          <cell r="AQ73" t="str">
+            <v>波克基斯</v>
+          </cell>
+          <cell r="AS73">
+            <v>12.38</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="AO74" t="str">
+            <v>妖精</v>
+          </cell>
+          <cell r="AQ74" t="str">
+            <v>眷戀雲化身形態</v>
+          </cell>
+          <cell r="AS74">
+            <v>14.74</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="AO75" t="str">
+            <v>妖精</v>
+          </cell>
+          <cell r="AQ75" t="str">
+            <v>沙奈朵</v>
+          </cell>
+          <cell r="AS75">
+            <v>12.73</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -903,10 +1443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X75"/>
+  <dimension ref="A1:X152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -917,13 +1457,13 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -987,14 +1527,17 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="14">
-        <v>26.05</v>
+      <c r="A2" s="13" t="str">
+        <f>[1]屬性克制表!AQ2</f>
+        <v>暗影雷吉</v>
+      </c>
+      <c r="B2" s="15" t="str">
+        <f>[1]屬性克制表!AO2</f>
+        <v>一般</v>
+      </c>
+      <c r="C2" s="15">
+        <f>[1]屬性克制表!AS2</f>
+        <v>22.5</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
@@ -1058,14 +1601,17 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="14">
-        <v>16.41</v>
+      <c r="A3" s="13" t="str">
+        <f>[1]屬性克制表!AQ3</f>
+        <v>Nega噴火龍</v>
+      </c>
+      <c r="B3" s="15" t="str">
+        <f>[1]屬性克制表!AO3</f>
+        <v>火</v>
+      </c>
+      <c r="C3" s="15">
+        <f>[1]屬性克制表!AS3</f>
+        <v>19.68</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -1129,14 +1675,17 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="14">
-        <v>22.66</v>
+      <c r="A4" s="13" t="str">
+        <f>[1]屬性克制表!AQ4</f>
+        <v>Mega路卡</v>
+      </c>
+      <c r="B4" s="15" t="str">
+        <f>[1]屬性克制表!AO4</f>
+        <v>格鬥</v>
+      </c>
+      <c r="C4" s="15">
+        <f>[1]屬性克制表!AS4</f>
+        <v>22.43</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
@@ -1200,14 +1749,17 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="14">
-        <v>22.51</v>
+      <c r="A5" s="13" t="str">
+        <f>[1]屬性克制表!AQ5</f>
+        <v>Mega蓋歐卡</v>
+      </c>
+      <c r="B5" s="15" t="str">
+        <f>[1]屬性克制表!AO5</f>
+        <v>水</v>
+      </c>
+      <c r="C5" s="15">
+        <f>[1]屬性克制表!AS5</f>
+        <v>19.420000000000002</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -1271,14 +1823,17 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="14">
-        <v>22.5</v>
+      <c r="A6" s="13" t="str">
+        <f>[1]屬性克制表!AQ6</f>
+        <v>Mega列空坐</v>
+      </c>
+      <c r="B6" s="15" t="str">
+        <f>[1]屬性克制表!AO6</f>
+        <v>飛行</v>
+      </c>
+      <c r="C6" s="15">
+        <f>[1]屬性克制表!AS6</f>
+        <v>26.05</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
@@ -1342,14 +1897,17 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="14">
-        <v>22.43</v>
+      <c r="A7" s="13" t="str">
+        <f>[1]屬性克制表!AQ7</f>
+        <v>Mega蜥蜴王</v>
+      </c>
+      <c r="B7" s="15" t="str">
+        <f>[1]屬性克制表!AO7</f>
+        <v>草</v>
+      </c>
+      <c r="C7" s="15">
+        <f>[1]屬性克制表!AS7</f>
+        <v>19.97</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>6</v>
@@ -1413,14 +1971,17 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="14">
-        <v>22.27</v>
+      <c r="A8" s="13" t="str">
+        <f>[1]屬性克制表!AQ8</f>
+        <v>無極汰那</v>
+      </c>
+      <c r="B8" s="15" t="str">
+        <f>[1]屬性克制表!AO8</f>
+        <v>毒</v>
+      </c>
+      <c r="C8" s="15">
+        <f>[1]屬性克制表!AS8</f>
+        <v>17.690000000000001</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
@@ -1484,14 +2045,17 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="14">
-        <v>22.16</v>
+      <c r="A9" s="13" t="str">
+        <f>[1]屬性克制表!AQ9</f>
+        <v>Mega雷電獸</v>
+      </c>
+      <c r="B9" s="15" t="str">
+        <f>[1]屬性克制表!AO9</f>
+        <v>電</v>
+      </c>
+      <c r="C9" s="15">
+        <f>[1]屬性克制表!AS9</f>
+        <v>16.59</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
@@ -1555,14 +2119,17 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="14">
-        <v>21.87</v>
+      <c r="A10" s="14" t="str">
+        <f>[1]屬性克制表!AQ10</f>
+        <v>Mega烈咬陸鯊</v>
+      </c>
+      <c r="B10" s="15" t="str">
+        <f>[1]屬性克制表!AO10</f>
+        <v>地面</v>
+      </c>
+      <c r="C10" s="15">
+        <f>[1]屬性克制表!AS10</f>
+        <v>17.850000000000001</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
@@ -1626,14 +2193,17 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="14">
-        <v>21.71</v>
+      <c r="A11" s="13" t="str">
+        <f>[1]屬性克制表!AQ11</f>
+        <v>Mega艾路雷朵</v>
+      </c>
+      <c r="B11" s="15" t="str">
+        <f>[1]屬性克制表!AO11</f>
+        <v>超能力</v>
+      </c>
+      <c r="C11" s="15">
+        <f>[1]屬性克制表!AS11</f>
+        <v>18.11</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
@@ -1697,14 +2267,17 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="14">
-        <v>21.35</v>
+      <c r="A12" s="13" t="str">
+        <f>[1]屬性克制表!AQ12</f>
+        <v>Mega班基拉斯</v>
+      </c>
+      <c r="B12" s="15" t="str">
+        <f>[1]屬性克制表!AO12</f>
+        <v>岩石</v>
+      </c>
+      <c r="C12" s="15">
+        <f>[1]屬性克制表!AS12</f>
+        <v>15.38</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
@@ -1768,14 +2341,17 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="14">
-        <v>20.420000000000002</v>
+      <c r="A13" s="14" t="str">
+        <f>[1]屬性克制表!AQ13</f>
+        <v>焰白酋雷姆</v>
+      </c>
+      <c r="B13" s="15" t="str">
+        <f>[1]屬性克制表!AO13</f>
+        <v>冰</v>
+      </c>
+      <c r="C13" s="15">
+        <f>[1]屬性克制表!AS13</f>
+        <v>19.22</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>12</v>
@@ -1839,14 +2415,17 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="14">
-        <v>20.12</v>
+      <c r="A14" s="13" t="str">
+        <f>[1]屬性克制表!AQ14</f>
+        <v>Mega凱羅斯</v>
+      </c>
+      <c r="B14" s="15" t="str">
+        <f>[1]屬性克制表!AO14</f>
+        <v>蟲</v>
+      </c>
+      <c r="C14" s="15">
+        <f>[1]屬性克制表!AS14</f>
+        <v>15.73</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>13</v>
@@ -1910,14 +2489,17 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="14">
-        <v>19.97</v>
+      <c r="A15" s="13" t="str">
+        <f>[1]屬性克制表!AQ15</f>
+        <v>無極汰那</v>
+      </c>
+      <c r="B15" s="15" t="str">
+        <f>[1]屬性克制表!AO15</f>
+        <v>龍</v>
+      </c>
+      <c r="C15" s="15">
+        <f>[1]屬性克制表!AS15</f>
+        <v>22.66</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>14</v>
@@ -1981,14 +2563,17 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="14">
-        <v>19.809999999999999</v>
+      <c r="A16" s="14" t="str">
+        <f>[1]屬性克制表!AQ16</f>
+        <v>奈克洛茲瑪</v>
+      </c>
+      <c r="B16" s="15" t="str">
+        <f>[1]屬性克制表!AO16</f>
+        <v>幽靈</v>
+      </c>
+      <c r="C16" s="15">
+        <f>[1]屬性克制表!AS16</f>
+        <v>22.16</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>15</v>
@@ -2052,14 +2637,17 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="14">
-        <v>19.809999999999999</v>
+      <c r="A17" s="14" t="str">
+        <f>[1]屬性克制表!AQ17</f>
+        <v>Mega班基拉斯</v>
+      </c>
+      <c r="B17" s="15" t="str">
+        <f>[1]屬性克制表!AO17</f>
+        <v>惡</v>
+      </c>
+      <c r="C17" s="15">
+        <f>[1]屬性克制表!AS17</f>
+        <v>17.88</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>16</v>
@@ -2123,14 +2711,17 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="14">
-        <v>19.68</v>
+      <c r="A18" s="13" t="str">
+        <f>[1]屬性克制表!AQ18</f>
+        <v>劍之王</v>
+      </c>
+      <c r="B18" s="15" t="str">
+        <f>[1]屬性克制表!AO18</f>
+        <v>鋼</v>
+      </c>
+      <c r="C18" s="15">
+        <f>[1]屬性克制表!AS18</f>
+        <v>22.27</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>17</v>
@@ -2194,14 +2785,17 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="14">
-        <v>19.57</v>
+      <c r="A19" s="13" t="str">
+        <f>[1]屬性克制表!AQ19</f>
+        <v>Mega沙奈朵</v>
+      </c>
+      <c r="B19" s="15" t="str">
+        <f>[1]屬性克制表!AO19</f>
+        <v>妖精</v>
+      </c>
+      <c r="C19" s="15">
+        <f>[1]屬性克制表!AS19</f>
+        <v>17.25</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>18</v>
@@ -2265,14 +2859,17 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="14">
-        <v>19.420000000000002</v>
+      <c r="A20" s="13" t="str">
+        <f>[1]屬性克制表!AQ20</f>
+        <v>Mega火焰雞</v>
+      </c>
+      <c r="B20" s="15" t="str">
+        <f>[1]屬性克制表!AO20</f>
+        <v>火</v>
+      </c>
+      <c r="C20" s="15">
+        <f>[1]屬性克制表!AS20</f>
+        <v>20.12</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>19</v>
@@ -2336,608 +2933,1851 @@
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>63</v>
+      <c r="A21" s="14" t="str">
+        <f>[1]屬性克制表!AQ21</f>
+        <v>萊希拉姆</v>
+      </c>
+      <c r="B21" s="15" t="str">
+        <f>[1]屬性克制表!AO21</f>
+        <v>火</v>
       </c>
       <c r="C21" s="15">
+        <f>[1]屬性克制表!AS21</f>
+        <v>16.79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="str">
+        <f>[1]屬性克制表!AQ22</f>
+        <v>Mega噴火龍X</v>
+      </c>
+      <c r="B22" s="15" t="str">
+        <f>[1]屬性克制表!AO22</f>
+        <v>火</v>
+      </c>
+      <c r="C22" s="15">
+        <f>[1]屬性克制表!AS22</f>
+        <v>17.02</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="str">
+        <f>[1]屬性克制表!AQ23</f>
+        <v>Mega火焰雞</v>
+      </c>
+      <c r="B23" s="15" t="str">
+        <f>[1]屬性克制表!AO23</f>
+        <v>格鬥</v>
+      </c>
+      <c r="C23" s="15">
+        <f>[1]屬性克制表!AS23</f>
+        <v>21.71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="str">
+        <f>[1]屬性克制表!AQ24</f>
+        <v>凱路迪歐(覺悟)</v>
+      </c>
+      <c r="B24" s="15" t="str">
+        <f>[1]屬性克制表!AO24</f>
+        <v>格鬥</v>
+      </c>
+      <c r="C24" s="15">
+        <f>[1]屬性克制表!AS24</f>
+        <v>19.57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="str">
+        <f>[1]屬性克制表!AQ25</f>
+        <v>Mega赫拉克羅斯</v>
+      </c>
+      <c r="B25" s="15" t="str">
+        <f>[1]屬性克制表!AO25</f>
+        <v>格鬥</v>
+      </c>
+      <c r="C25" s="15">
+        <f>[1]屬性克制表!AS25</f>
+        <v>17.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="str">
+        <f>[1]屬性克制表!AQ26</f>
+        <v>Mega巨沼怪</v>
+      </c>
+      <c r="B26" s="15" t="str">
+        <f>[1]屬性克制表!AO26</f>
+        <v>水</v>
+      </c>
+      <c r="C26" s="15">
+        <f>[1]屬性克制表!AS26</f>
+        <v>17.53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="str">
+        <f>[1]屬性克制表!AQ27</f>
+        <v>Mega水箭龜</v>
+      </c>
+      <c r="B27" s="15" t="str">
+        <f>[1]屬性克制表!AO27</f>
+        <v>水</v>
+      </c>
+      <c r="C27" s="15">
+        <f>[1]屬性克制表!AS27</f>
+        <v>16.190000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="str">
+        <f>[1]屬性克制表!AQ28</f>
+        <v>Mega暴鯉龍</v>
+      </c>
+      <c r="B28" s="15" t="str">
+        <f>[1]屬性克制表!AO28</f>
+        <v>水</v>
+      </c>
+      <c r="C28" s="15">
+        <f>[1]屬性克制表!AS28</f>
+        <v>15.09</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="str">
+        <f>[1]屬性克制表!AQ29</f>
+        <v>烈空坐</v>
+      </c>
+      <c r="B29" s="15" t="str">
+        <f>[1]屬性克制表!AO29</f>
+        <v>飛行</v>
+      </c>
+      <c r="C29" s="15">
+        <f>[1]屬性克制表!AS29</f>
+        <v>18.79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="str">
+        <f>[1]屬性克制表!AQ30</f>
+        <v>Mega暴飛龍</v>
+      </c>
+      <c r="B30" s="15" t="str">
+        <f>[1]屬性克制表!AO30</f>
+        <v>飛行</v>
+      </c>
+      <c r="C30" s="15">
+        <f>[1]屬性克制表!AS30</f>
+        <v>16.420000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="str">
+        <f>[1]屬性克制表!AQ31</f>
+        <v>紙御劍</v>
+      </c>
+      <c r="B31" s="15" t="str">
+        <f>[1]屬性克制表!AO31</f>
+        <v>草</v>
+      </c>
+      <c r="C31" s="15">
+        <f>[1]屬性克制表!AS31</f>
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="str">
+        <f>[1]屬性克制表!AQ32</f>
+        <v>Mega妙蛙花</v>
+      </c>
+      <c r="B32" s="15" t="str">
+        <f>[1]屬性克制表!AO32</f>
+        <v>草</v>
+      </c>
+      <c r="C32" s="15">
+        <f>[1]屬性克制表!AS32</f>
+        <v>15.73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="str">
+        <f>[1]屬性克制表!AQ33</f>
+        <v>Mega耿鬼</v>
+      </c>
+      <c r="B33" s="15" t="str">
+        <f>[1]屬性克制表!AO33</f>
+        <v>毒</v>
+      </c>
+      <c r="C33" s="15">
+        <f>[1]屬性克制表!AS33</f>
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="str">
+        <f>[1]屬性克制表!AQ34</f>
+        <v>Mega大針鋒</v>
+      </c>
+      <c r="B34" s="15" t="str">
+        <f>[1]屬性克制表!AO34</f>
+        <v>毒</v>
+      </c>
+      <c r="C34" s="15">
+        <f>[1]屬性克制表!AS34</f>
+        <v>16.559999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="str">
+        <f>[1]屬性克制表!AQ35</f>
+        <v>虛吾伊德</v>
+      </c>
+      <c r="B35" s="15" t="str">
+        <f>[1]屬性克制表!AO35</f>
+        <v>毒</v>
+      </c>
+      <c r="C35" s="15">
+        <f>[1]屬性克制表!AS35</f>
+        <v>14.69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="str">
+        <f>[1]屬性克制表!AQ36</f>
+        <v>雷吉艾勒奇</v>
+      </c>
+      <c r="B36" s="15" t="str">
+        <f>[1]屬性克制表!AO36</f>
+        <v>電</v>
+      </c>
+      <c r="C36" s="15">
+        <f>[1]屬性克制表!AS36</f>
+        <v>16.989999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="str">
+        <f>[1]屬性克制表!AQ37</f>
+        <v>電束木</v>
+      </c>
+      <c r="B37" s="15" t="str">
+        <f>[1]屬性克制表!AO37</f>
+        <v>電</v>
+      </c>
+      <c r="C37" s="15">
+        <f>[1]屬性克制表!AS37</f>
+        <v>16.89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="str">
+        <f>[1]屬性克制表!AQ38</f>
+        <v>捷克羅姆</v>
+      </c>
+      <c r="B38" s="15" t="str">
+        <f>[1]屬性克制表!AO38</f>
+        <v>電</v>
+      </c>
+      <c r="C38" s="15">
+        <f>[1]屬性克制表!AS38</f>
+        <v>15.69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="str">
+        <f>[1]屬性克制表!AQ39</f>
+        <v>雷公</v>
+      </c>
+      <c r="B39" s="15" t="str">
+        <f>[1]屬性克制表!AO39</f>
+        <v>電</v>
+      </c>
+      <c r="C39" s="15">
+        <f>[1]屬性克制表!AS39</f>
+        <v>14.43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="str">
+        <f>[1]屬性克制表!AQ40</f>
+        <v>原始固拉多</v>
+      </c>
+      <c r="B40" s="15" t="str">
+        <f>[1]屬性克制表!AO40</f>
+        <v>地面</v>
+      </c>
+      <c r="C40" s="15">
+        <f>[1]屬性克制表!AS40</f>
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="14">
-        <v>19.22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="14">
-        <v>18.79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="14">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="str">
+        <f>[1]屬性克制表!AQ41</f>
+        <v>暗影固拉多</v>
+      </c>
+      <c r="B41" s="15" t="str">
+        <f>[1]屬性克制表!AO41</f>
+        <v>地面</v>
+      </c>
+      <c r="C41" s="15">
+        <f>[1]屬性克制表!AS41</f>
+        <v>17.66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="str">
+        <f>[1]屬性克制表!AQ42</f>
+        <v>Mega巨沼怪</v>
+      </c>
+      <c r="B42" s="15" t="str">
+        <f>[1]屬性克制表!AO42</f>
+        <v>地面</v>
+      </c>
+      <c r="C42" s="15">
+        <f>[1]屬性克制表!AS42</f>
+        <v>14.54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="str">
+        <f>[1]屬性克制表!AQ43</f>
+        <v>固拉多</v>
+      </c>
+      <c r="B43" s="15" t="str">
+        <f>[1]屬性克制表!AO43</f>
+        <v>地面</v>
+      </c>
+      <c r="C43" s="15">
+        <f>[1]屬性克制表!AS43</f>
+        <v>15.04</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="str">
+        <f>[1]屬性克制表!AQ44</f>
+        <v>超夢</v>
+      </c>
+      <c r="B44" s="15" t="str">
+        <f>[1]屬性克制表!AO44</f>
+        <v>超能力</v>
+      </c>
+      <c r="C44" s="15">
+        <f>[1]屬性克制表!AS44</f>
         <v>18.39</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="14">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="str">
+        <f>[1]屬性克制表!AQ45</f>
+        <v>Mega胡地</v>
+      </c>
+      <c r="B45" s="15" t="str">
+        <f>[1]屬性克制表!AO45</f>
+        <v>超能力</v>
+      </c>
+      <c r="C45" s="15">
+        <f>[1]屬性克制表!AS45</f>
+        <v>19.809999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="14" t="str">
+        <f>[1]屬性克制表!AQ46</f>
+        <v>Mega沙奈朵</v>
+      </c>
+      <c r="B46" s="15" t="str">
+        <f>[1]屬性克制表!AO46</f>
+        <v>超能力</v>
+      </c>
+      <c r="C46" s="15">
+        <f>[1]屬性克制表!AS46</f>
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="str">
+        <f>[1]屬性克制表!AQ47</f>
+        <v>Mega拉帝歐斯</v>
+      </c>
+      <c r="B47" s="15" t="str">
+        <f>[1]屬性克制表!AO47</f>
+        <v>超能力</v>
+      </c>
+      <c r="C47" s="15">
+        <f>[1]屬性克制表!AS47</f>
+        <v>17.88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="14" t="str">
+        <f>[1]屬性克制表!AQ48</f>
+        <v>Mega蒂安希</v>
+      </c>
+      <c r="B48" s="15" t="str">
+        <f>[1]屬性克制表!AO48</f>
+        <v>岩石</v>
+      </c>
+      <c r="C48" s="15">
+        <f>[1]屬性克制表!AS48</f>
+        <v>17.260000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="str">
+        <f>[1]屬性克制表!AQ49</f>
+        <v>Mega化石翼龍</v>
+      </c>
+      <c r="B49" s="15" t="str">
+        <f>[1]屬性克制表!AO49</f>
+        <v>岩石</v>
+      </c>
+      <c r="C49" s="15">
+        <f>[1]屬性克制表!AS49</f>
+        <v>15.28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="str">
+        <f>[1]屬性克制表!AQ50</f>
+        <v>Mega暴雪王</v>
+      </c>
+      <c r="B50" s="15" t="str">
+        <f>[1]屬性克制表!AO50</f>
+        <v>冰</v>
+      </c>
+      <c r="C50" s="15">
+        <f>[1]屬性克制表!AS50</f>
+        <v>13.54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="13" t="str">
+        <f>[1]屬性克制表!AQ51</f>
+        <v>象牙豬</v>
+      </c>
+      <c r="B51" s="15" t="str">
+        <f>[1]屬性克制表!AO51</f>
+        <v>冰</v>
+      </c>
+      <c r="C51" s="15">
+        <f>[1]屬性克制表!AS51</f>
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="str">
+        <f>[1]屬性克制表!AQ52</f>
+        <v>費洛美螂</v>
+      </c>
+      <c r="B52" s="15" t="str">
+        <f>[1]屬性克制表!AO52</f>
+        <v>蟲</v>
+      </c>
+      <c r="C52" s="15">
+        <f>[1]屬性克制表!AS52</f>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="str">
+        <f>[1]屬性克制表!AQ53</f>
+        <v>Mega大針鋒</v>
+      </c>
+      <c r="B53" s="15" t="str">
+        <f>[1]屬性克制表!AO53</f>
+        <v>蟲</v>
+      </c>
+      <c r="C53" s="15">
+        <f>[1]屬性克制表!AS53</f>
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="14" t="str">
+        <f>[1]屬性克制表!AQ54</f>
+        <v>Mega赫拉克羅斯</v>
+      </c>
+      <c r="B54" s="15" t="str">
+        <f>[1]屬性克制表!AO54</f>
+        <v>蟲</v>
+      </c>
+      <c r="C54" s="15">
+        <f>[1]屬性克制表!AS54</f>
+        <v>15.44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="13" t="str">
+        <f>[1]屬性克制表!AQ55</f>
+        <v>原始烈空坐</v>
+      </c>
+      <c r="B55" s="15" t="str">
+        <f>[1]屬性克制表!AO55</f>
+        <v>龍</v>
+      </c>
+      <c r="C55" s="15">
+        <f>[1]屬性克制表!AS55</f>
+        <v>22.51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="14" t="str">
+        <f>[1]屬性克制表!AQ56</f>
+        <v>Mega烈咬陸鯊</v>
+      </c>
+      <c r="B56" s="15" t="str">
+        <f>[1]屬性克制表!AO56</f>
+        <v>龍</v>
+      </c>
+      <c r="C56" s="15">
+        <f>[1]屬性克制表!AS56</f>
+        <v>20.420000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="14" t="str">
+        <f>[1]屬性克制表!AQ57</f>
+        <v>闇黑酋雷姆</v>
+      </c>
+      <c r="B57" s="15" t="str">
+        <f>[1]屬性克制表!AO57</f>
+        <v>龍</v>
+      </c>
+      <c r="C57" s="15">
+        <f>[1]屬性克制表!AS57</f>
+        <v>17.68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="14" t="str">
+        <f>[1]屬性克制表!AQ58</f>
+        <v>Mega暴飛龍</v>
+      </c>
+      <c r="B58" s="15" t="str">
+        <f>[1]屬性克制表!AO58</f>
+        <v>龍</v>
+      </c>
+      <c r="C58" s="15">
+        <f>[1]屬性克制表!AS58</f>
+        <v>17.87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="14" t="str">
+        <f>[1]屬性克制表!AQ59</f>
+        <v>砰頭小丑</v>
+      </c>
+      <c r="B59" s="15" t="str">
+        <f>[1]屬性克制表!AO59</f>
+        <v>幽靈</v>
+      </c>
+      <c r="C59" s="15">
+        <f>[1]屬性克制表!AS59</f>
+        <v>15.53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="str">
+        <f>[1]屬性克制表!AQ60</f>
+        <v>耿鬼</v>
+      </c>
+      <c r="B60" s="15" t="str">
+        <f>[1]屬性克制表!AO60</f>
+        <v>幽靈</v>
+      </c>
+      <c r="C60" s="15">
+        <f>[1]屬性克制表!AS60</f>
+        <v>14.77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="str">
+        <f>[1]屬性克制表!AQ61</f>
+        <v>Mega耿鬼</v>
+      </c>
+      <c r="B61" s="15" t="str">
+        <f>[1]屬性克制表!AO61</f>
+        <v>幽靈</v>
+      </c>
+      <c r="C61" s="15">
+        <f>[1]屬性克制表!AS61</f>
+        <v>19.809999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="str">
+        <f>[1]屬性克制表!AQ62</f>
+        <v>Mega暴鯉龍</v>
+      </c>
+      <c r="B62" s="15" t="str">
+        <f>[1]屬性克制表!AO62</f>
+        <v>惡</v>
+      </c>
+      <c r="C62" s="15">
+        <f>[1]屬性克制表!AS62</f>
+        <v>14.23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="14" t="str">
+        <f>[1]屬性克制表!AQ63</f>
+        <v>達克萊伊</v>
+      </c>
+      <c r="B63" s="15" t="str">
+        <f>[1]屬性克制表!AO63</f>
+        <v>惡</v>
+      </c>
+      <c r="C63" s="15">
+        <f>[1]屬性克制表!AS63</f>
+        <v>14.64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="14" t="str">
+        <f>[1]屬性克制表!AQ64</f>
+        <v>班基拉斯</v>
+      </c>
+      <c r="B64" s="15" t="str">
+        <f>[1]屬性克制表!AO64</f>
+        <v>惡</v>
+      </c>
+      <c r="C64" s="15">
+        <f>[1]屬性克制表!AS64</f>
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="14" t="str">
+        <f>[1]屬性克制表!AQ65</f>
+        <v>三首惡龍</v>
+      </c>
+      <c r="B65" s="15" t="str">
+        <f>[1]屬性克制表!AO65</f>
+        <v>惡</v>
+      </c>
+      <c r="C65" s="15">
+        <f>[1]屬性克制表!AS65</f>
+        <v>15.01</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="14" t="str">
+        <f>[1]屬性克制表!AQ66</f>
+        <v>Mega阿勃梭魯</v>
+      </c>
+      <c r="B66" s="15" t="str">
+        <f>[1]屬性克制表!AO66</f>
+        <v>惡</v>
+      </c>
+      <c r="C66" s="15">
+        <f>[1]屬性克制表!AS66</f>
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="14" t="str">
+        <f>[1]屬性克制表!AQ67</f>
+        <v>盾之王</v>
+      </c>
+      <c r="B67" s="15" t="str">
+        <f>[1]屬性克制表!AO67</f>
+        <v>鋼</v>
+      </c>
+      <c r="C67" s="15">
+        <f>[1]屬性克制表!AS67</f>
+        <v>21.87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="14" t="str">
+        <f>[1]屬性克制表!AQ68</f>
+        <v>奈克洛茲瑪</v>
+      </c>
+      <c r="B68" s="15" t="str">
+        <f>[1]屬性克制表!AO68</f>
+        <v>鋼</v>
+      </c>
+      <c r="C68" s="15">
+        <f>[1]屬性克制表!AS68</f>
+        <v>21.35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="14" t="str">
+        <f>[1]屬性克制表!AQ69</f>
+        <v>Mega巨金怪</v>
+      </c>
+      <c r="B69" s="15" t="str">
+        <f>[1]屬性克制表!AO69</f>
+        <v>鋼</v>
+      </c>
+      <c r="C69" s="15">
+        <f>[1]屬性克制表!AS69</f>
         <v>18.239999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="14">
-        <v>18.11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="15">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="14">
-        <v>17.95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="14">
-        <v>17.88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="14">
-        <v>17.88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="14">
-        <v>17.87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="14">
-        <v>17.850000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="14">
-        <v>17.68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="14">
-        <v>17.66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="14">
-        <v>17.53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="14">
-        <v>17.260000000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="14">
-        <v>17.25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="14">
-        <v>17.02</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="14">
-        <v>17.02</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="14">
-        <v>16.989999999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="14">
-        <v>16.89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="14">
-        <v>16.79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="14">
-        <v>16.75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="14">
-        <v>16.63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="14">
-        <v>16.59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="14">
-        <v>16.559999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="14">
-        <v>16.420000000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="14">
-        <v>16.190000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="14">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="14" t="str">
+        <f>[1]屬性克制表!AQ70</f>
+        <v>巨金怪</v>
+      </c>
+      <c r="B70" s="15" t="str">
+        <f>[1]屬性克制表!AO70</f>
+        <v>鋼</v>
+      </c>
+      <c r="C70" s="15">
+        <f>[1]屬性克制表!AS70</f>
         <v>15.78</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="14">
-        <v>15.73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="14">
-        <v>15.73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="14">
-        <v>15.69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" s="14">
-        <v>15.53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="14">
-        <v>15.44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="14">
-        <v>15.38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" s="14">
-        <v>15.28</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C57" s="14">
-        <v>15.25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="14">
-        <v>15.09</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C59" s="14">
-        <v>15.04</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" s="14">
-        <v>15.01</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" s="14">
-        <v>14.82</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" s="14">
-        <v>14.77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" s="14">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="14" t="str">
+        <f>[1]屬性克制表!AQ71</f>
+        <v>哲爾尼亞斯</v>
+      </c>
+      <c r="B71" s="15" t="str">
+        <f>[1]屬性克制表!AO71</f>
+        <v>妖精</v>
+      </c>
+      <c r="C71" s="15">
+        <f>[1]屬性克制表!AS71</f>
+        <v>13.19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="14" t="str">
+        <f>[1]屬性克制表!AQ72</f>
+        <v>仙子伊布</v>
+      </c>
+      <c r="B72" s="15" t="str">
+        <f>[1]屬性克制表!AO72</f>
+        <v>妖精</v>
+      </c>
+      <c r="C72" s="15">
+        <f>[1]屬性克制表!AS72</f>
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="14" t="str">
+        <f>[1]屬性克制表!AQ73</f>
+        <v>波克基斯</v>
+      </c>
+      <c r="B73" s="15" t="str">
+        <f>[1]屬性克制表!AO73</f>
+        <v>妖精</v>
+      </c>
+      <c r="C73" s="15">
+        <f>[1]屬性克制表!AS73</f>
+        <v>12.38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="14" t="str">
+        <f>[1]屬性克制表!AQ74</f>
+        <v>眷戀雲化身形態</v>
+      </c>
+      <c r="B74" s="15" t="str">
+        <f>[1]屬性克制表!AO74</f>
+        <v>妖精</v>
+      </c>
+      <c r="C74" s="15">
+        <f>[1]屬性克制表!AS74</f>
         <v>14.74</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64" s="14">
-        <v>14.69</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" s="14">
-        <v>14.64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C66" s="14">
-        <v>14.54</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" s="14">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" s="14">
-        <v>14.43</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C69" s="14">
-        <v>14.23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" s="14">
-        <v>13.54</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C71" s="14">
-        <v>13.45</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C72" s="14">
-        <v>13.19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C73" s="14">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="14" t="str">
+        <f>[1]屬性克制表!AQ75</f>
+        <v>沙奈朵</v>
+      </c>
+      <c r="B75" s="15" t="str">
+        <f>[1]屬性克制表!AO75</f>
+        <v>妖精</v>
+      </c>
+      <c r="C75" s="15">
+        <f>[1]屬性克制表!AS75</f>
         <v>12.73</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C74" s="14">
-        <v>12.38</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C75" s="14">
-        <v>11.35</v>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ76 = "", "", [1]屬性克制表!AQ76)</f>
+        <v/>
+      </c>
+      <c r="B76" s="14" t="str">
+        <f>IF([1]屬性克制表!AR76 = "", "", [1]屬性克制表!AR76)</f>
+        <v/>
+      </c>
+      <c r="C76" s="14" t="str">
+        <f>IF([1]屬性克制表!AS76 = "", "", [1]屬性克制表!AS76)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ77 = "", "", [1]屬性克制表!AQ77)</f>
+        <v/>
+      </c>
+      <c r="B77" s="14" t="str">
+        <f>IF([1]屬性克制表!AR77 = "", "", [1]屬性克制表!AR77)</f>
+        <v/>
+      </c>
+      <c r="C77" s="14" t="str">
+        <f>IF([1]屬性克制表!AS77 = "", "", [1]屬性克制表!AS77)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ78 = "", "", [1]屬性克制表!AQ78)</f>
+        <v/>
+      </c>
+      <c r="B78" s="14" t="str">
+        <f>IF([1]屬性克制表!AR78 = "", "", [1]屬性克制表!AR78)</f>
+        <v/>
+      </c>
+      <c r="C78" s="14" t="str">
+        <f>IF([1]屬性克制表!AS78 = "", "", [1]屬性克制表!AS78)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ79 = "", "", [1]屬性克制表!AQ79)</f>
+        <v/>
+      </c>
+      <c r="B79" s="14" t="str">
+        <f>IF([1]屬性克制表!AR79 = "", "", [1]屬性克制表!AR79)</f>
+        <v/>
+      </c>
+      <c r="C79" s="14" t="str">
+        <f>IF([1]屬性克制表!AS79 = "", "", [1]屬性克制表!AS79)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ80 = "", "", [1]屬性克制表!AQ80)</f>
+        <v/>
+      </c>
+      <c r="B80" s="14" t="str">
+        <f>IF([1]屬性克制表!AR80 = "", "", [1]屬性克制表!AR80)</f>
+        <v/>
+      </c>
+      <c r="C80" s="14" t="str">
+        <f>IF([1]屬性克制表!AS80 = "", "", [1]屬性克制表!AS80)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ81 = "", "", [1]屬性克制表!AQ81)</f>
+        <v/>
+      </c>
+      <c r="B81" s="14" t="str">
+        <f>IF([1]屬性克制表!AR81 = "", "", [1]屬性克制表!AR81)</f>
+        <v/>
+      </c>
+      <c r="C81" s="14" t="str">
+        <f>IF([1]屬性克制表!AS81 = "", "", [1]屬性克制表!AS81)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ82 = "", "", [1]屬性克制表!AQ82)</f>
+        <v/>
+      </c>
+      <c r="B82" s="14" t="str">
+        <f>IF([1]屬性克制表!AR82 = "", "", [1]屬性克制表!AR82)</f>
+        <v/>
+      </c>
+      <c r="C82" s="14" t="str">
+        <f>IF([1]屬性克制表!AS82 = "", "", [1]屬性克制表!AS82)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ83 = "", "", [1]屬性克制表!AQ83)</f>
+        <v/>
+      </c>
+      <c r="B83" s="14" t="str">
+        <f>IF([1]屬性克制表!AR83 = "", "", [1]屬性克制表!AR83)</f>
+        <v/>
+      </c>
+      <c r="C83" s="14" t="str">
+        <f>IF([1]屬性克制表!AS83 = "", "", [1]屬性克制表!AS83)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ84 = "", "", [1]屬性克制表!AQ84)</f>
+        <v/>
+      </c>
+      <c r="B84" s="14" t="str">
+        <f>IF([1]屬性克制表!AR84 = "", "", [1]屬性克制表!AR84)</f>
+        <v/>
+      </c>
+      <c r="C84" s="14" t="str">
+        <f>IF([1]屬性克制表!AS84 = "", "", [1]屬性克制表!AS84)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ85 = "", "", [1]屬性克制表!AQ85)</f>
+        <v/>
+      </c>
+      <c r="B85" s="14" t="str">
+        <f>IF([1]屬性克制表!AR85 = "", "", [1]屬性克制表!AR85)</f>
+        <v/>
+      </c>
+      <c r="C85" s="14" t="str">
+        <f>IF([1]屬性克制表!AS85 = "", "", [1]屬性克制表!AS85)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ86 = "", "", [1]屬性克制表!AQ86)</f>
+        <v/>
+      </c>
+      <c r="B86" s="14" t="str">
+        <f>IF([1]屬性克制表!AR86 = "", "", [1]屬性克制表!AR86)</f>
+        <v/>
+      </c>
+      <c r="C86" s="14" t="str">
+        <f>IF([1]屬性克制表!AS86 = "", "", [1]屬性克制表!AS86)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ87 = "", "", [1]屬性克制表!AQ87)</f>
+        <v/>
+      </c>
+      <c r="B87" s="14" t="str">
+        <f>IF([1]屬性克制表!AR87 = "", "", [1]屬性克制表!AR87)</f>
+        <v/>
+      </c>
+      <c r="C87" s="14" t="str">
+        <f>IF([1]屬性克制表!AS87 = "", "", [1]屬性克制表!AS87)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ88 = "", "", [1]屬性克制表!AQ88)</f>
+        <v/>
+      </c>
+      <c r="B88" s="14" t="str">
+        <f>IF([1]屬性克制表!AR88 = "", "", [1]屬性克制表!AR88)</f>
+        <v/>
+      </c>
+      <c r="C88" s="14" t="str">
+        <f>IF([1]屬性克制表!AS88 = "", "", [1]屬性克制表!AS88)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ89 = "", "", [1]屬性克制表!AQ89)</f>
+        <v/>
+      </c>
+      <c r="B89" s="14" t="str">
+        <f>IF([1]屬性克制表!AR89 = "", "", [1]屬性克制表!AR89)</f>
+        <v/>
+      </c>
+      <c r="C89" s="14" t="str">
+        <f>IF([1]屬性克制表!AS89 = "", "", [1]屬性克制表!AS89)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ90 = "", "", [1]屬性克制表!AQ90)</f>
+        <v/>
+      </c>
+      <c r="B90" s="14" t="str">
+        <f>IF([1]屬性克制表!AR90 = "", "", [1]屬性克制表!AR90)</f>
+        <v/>
+      </c>
+      <c r="C90" s="14" t="str">
+        <f>IF([1]屬性克制表!AS90 = "", "", [1]屬性克制表!AS90)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ91 = "", "", [1]屬性克制表!AQ91)</f>
+        <v/>
+      </c>
+      <c r="B91" s="14" t="str">
+        <f>IF([1]屬性克制表!AR91 = "", "", [1]屬性克制表!AR91)</f>
+        <v/>
+      </c>
+      <c r="C91" s="14" t="str">
+        <f>IF([1]屬性克制表!AS91 = "", "", [1]屬性克制表!AS91)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ92 = "", "", [1]屬性克制表!AQ92)</f>
+        <v/>
+      </c>
+      <c r="B92" s="14" t="str">
+        <f>IF([1]屬性克制表!AR92 = "", "", [1]屬性克制表!AR92)</f>
+        <v/>
+      </c>
+      <c r="C92" s="14" t="str">
+        <f>IF([1]屬性克制表!AS92 = "", "", [1]屬性克制表!AS92)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ93 = "", "", [1]屬性克制表!AQ93)</f>
+        <v/>
+      </c>
+      <c r="B93" s="14" t="str">
+        <f>IF([1]屬性克制表!AR93 = "", "", [1]屬性克制表!AR93)</f>
+        <v/>
+      </c>
+      <c r="C93" s="14" t="str">
+        <f>IF([1]屬性克制表!AS93 = "", "", [1]屬性克制表!AS93)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ94 = "", "", [1]屬性克制表!AQ94)</f>
+        <v/>
+      </c>
+      <c r="B94" s="14" t="str">
+        <f>IF([1]屬性克制表!AR94 = "", "", [1]屬性克制表!AR94)</f>
+        <v/>
+      </c>
+      <c r="C94" s="14" t="str">
+        <f>IF([1]屬性克制表!AS94 = "", "", [1]屬性克制表!AS94)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ95 = "", "", [1]屬性克制表!AQ95)</f>
+        <v/>
+      </c>
+      <c r="B95" s="14" t="str">
+        <f>IF([1]屬性克制表!AR95 = "", "", [1]屬性克制表!AR95)</f>
+        <v/>
+      </c>
+      <c r="C95" s="14" t="str">
+        <f>IF([1]屬性克制表!AS95 = "", "", [1]屬性克制表!AS95)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ96 = "", "", [1]屬性克制表!AQ96)</f>
+        <v/>
+      </c>
+      <c r="B96" s="14" t="str">
+        <f>IF([1]屬性克制表!AR96 = "", "", [1]屬性克制表!AR96)</f>
+        <v/>
+      </c>
+      <c r="C96" s="14" t="str">
+        <f>IF([1]屬性克制表!AS96 = "", "", [1]屬性克制表!AS96)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ97 = "", "", [1]屬性克制表!AQ97)</f>
+        <v/>
+      </c>
+      <c r="B97" s="14" t="str">
+        <f>IF([1]屬性克制表!AR97 = "", "", [1]屬性克制表!AR97)</f>
+        <v/>
+      </c>
+      <c r="C97" s="14" t="str">
+        <f>IF([1]屬性克制表!AS97 = "", "", [1]屬性克制表!AS97)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ98 = "", "", [1]屬性克制表!AQ98)</f>
+        <v/>
+      </c>
+      <c r="B98" s="14" t="str">
+        <f>IF([1]屬性克制表!AR98 = "", "", [1]屬性克制表!AR98)</f>
+        <v/>
+      </c>
+      <c r="C98" s="14" t="str">
+        <f>IF([1]屬性克制表!AS98 = "", "", [1]屬性克制表!AS98)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ99 = "", "", [1]屬性克制表!AQ99)</f>
+        <v/>
+      </c>
+      <c r="B99" s="14" t="str">
+        <f>IF([1]屬性克制表!AR99 = "", "", [1]屬性克制表!AR99)</f>
+        <v/>
+      </c>
+      <c r="C99" s="14" t="str">
+        <f>IF([1]屬性克制表!AS99 = "", "", [1]屬性克制表!AS99)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ100 = "", "", [1]屬性克制表!AQ100)</f>
+        <v/>
+      </c>
+      <c r="B100" s="14" t="str">
+        <f>IF([1]屬性克制表!AR100 = "", "", [1]屬性克制表!AR100)</f>
+        <v/>
+      </c>
+      <c r="C100" s="14" t="str">
+        <f>IF([1]屬性克制表!AS100 = "", "", [1]屬性克制表!AS100)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ101 = "", "", [1]屬性克制表!AQ101)</f>
+        <v/>
+      </c>
+      <c r="B101" s="14" t="str">
+        <f>IF([1]屬性克制表!AR101 = "", "", [1]屬性克制表!AR101)</f>
+        <v/>
+      </c>
+      <c r="C101" s="14" t="str">
+        <f>IF([1]屬性克制表!AS101 = "", "", [1]屬性克制表!AS101)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ102 = "", "", [1]屬性克制表!AQ102)</f>
+        <v/>
+      </c>
+      <c r="B102" s="14" t="str">
+        <f>IF([1]屬性克制表!AR102 = "", "", [1]屬性克制表!AR102)</f>
+        <v/>
+      </c>
+      <c r="C102" s="14" t="str">
+        <f>IF([1]屬性克制表!AS102 = "", "", [1]屬性克制表!AS102)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ103 = "", "", [1]屬性克制表!AQ103)</f>
+        <v/>
+      </c>
+      <c r="B103" s="14" t="str">
+        <f>IF([1]屬性克制表!AR103 = "", "", [1]屬性克制表!AR103)</f>
+        <v/>
+      </c>
+      <c r="C103" s="14" t="str">
+        <f>IF([1]屬性克制表!AS103 = "", "", [1]屬性克制表!AS103)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ104 = "", "", [1]屬性克制表!AQ104)</f>
+        <v/>
+      </c>
+      <c r="B104" s="14" t="str">
+        <f>IF([1]屬性克制表!AR104 = "", "", [1]屬性克制表!AR104)</f>
+        <v/>
+      </c>
+      <c r="C104" s="14" t="str">
+        <f>IF([1]屬性克制表!AS104 = "", "", [1]屬性克制表!AS104)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ105 = "", "", [1]屬性克制表!AQ105)</f>
+        <v/>
+      </c>
+      <c r="B105" s="14" t="str">
+        <f>IF([1]屬性克制表!AR105 = "", "", [1]屬性克制表!AR105)</f>
+        <v/>
+      </c>
+      <c r="C105" s="14" t="str">
+        <f>IF([1]屬性克制表!AS105 = "", "", [1]屬性克制表!AS105)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ106 = "", "", [1]屬性克制表!AQ106)</f>
+        <v/>
+      </c>
+      <c r="B106" s="14" t="str">
+        <f>IF([1]屬性克制表!AR106 = "", "", [1]屬性克制表!AR106)</f>
+        <v/>
+      </c>
+      <c r="C106" s="14" t="str">
+        <f>IF([1]屬性克制表!AS106 = "", "", [1]屬性克制表!AS106)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ107 = "", "", [1]屬性克制表!AQ107)</f>
+        <v/>
+      </c>
+      <c r="B107" s="14" t="str">
+        <f>IF([1]屬性克制表!AR107 = "", "", [1]屬性克制表!AR107)</f>
+        <v/>
+      </c>
+      <c r="C107" s="14" t="str">
+        <f>IF([1]屬性克制表!AS107 = "", "", [1]屬性克制表!AS107)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ108 = "", "", [1]屬性克制表!AQ108)</f>
+        <v/>
+      </c>
+      <c r="B108" s="14" t="str">
+        <f>IF([1]屬性克制表!AR108 = "", "", [1]屬性克制表!AR108)</f>
+        <v/>
+      </c>
+      <c r="C108" s="14" t="str">
+        <f>IF([1]屬性克制表!AS108 = "", "", [1]屬性克制表!AS108)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ109 = "", "", [1]屬性克制表!AQ109)</f>
+        <v/>
+      </c>
+      <c r="B109" s="14" t="str">
+        <f>IF([1]屬性克制表!AR109 = "", "", [1]屬性克制表!AR109)</f>
+        <v/>
+      </c>
+      <c r="C109" s="14" t="str">
+        <f>IF([1]屬性克制表!AS109 = "", "", [1]屬性克制表!AS109)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ110 = "", "", [1]屬性克制表!AQ110)</f>
+        <v/>
+      </c>
+      <c r="B110" s="14" t="str">
+        <f>IF([1]屬性克制表!AR110 = "", "", [1]屬性克制表!AR110)</f>
+        <v/>
+      </c>
+      <c r="C110" s="14" t="str">
+        <f>IF([1]屬性克制表!AS110 = "", "", [1]屬性克制表!AS110)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ111 = "", "", [1]屬性克制表!AQ111)</f>
+        <v/>
+      </c>
+      <c r="B111" s="14" t="str">
+        <f>IF([1]屬性克制表!AR111 = "", "", [1]屬性克制表!AR111)</f>
+        <v/>
+      </c>
+      <c r="C111" s="14" t="str">
+        <f>IF([1]屬性克制表!AS111 = "", "", [1]屬性克制表!AS111)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ112 = "", "", [1]屬性克制表!AQ112)</f>
+        <v/>
+      </c>
+      <c r="B112" s="14" t="str">
+        <f>IF([1]屬性克制表!AR112 = "", "", [1]屬性克制表!AR112)</f>
+        <v/>
+      </c>
+      <c r="C112" s="14" t="str">
+        <f>IF([1]屬性克制表!AS112 = "", "", [1]屬性克制表!AS112)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ113 = "", "", [1]屬性克制表!AQ113)</f>
+        <v/>
+      </c>
+      <c r="B113" s="14" t="str">
+        <f>IF([1]屬性克制表!AR113 = "", "", [1]屬性克制表!AR113)</f>
+        <v/>
+      </c>
+      <c r="C113" s="14" t="str">
+        <f>IF([1]屬性克制表!AS113 = "", "", [1]屬性克制表!AS113)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ114 = "", "", [1]屬性克制表!AQ114)</f>
+        <v/>
+      </c>
+      <c r="B114" s="14" t="str">
+        <f>IF([1]屬性克制表!AR114 = "", "", [1]屬性克制表!AR114)</f>
+        <v/>
+      </c>
+      <c r="C114" s="14" t="str">
+        <f>IF([1]屬性克制表!AS114 = "", "", [1]屬性克制表!AS114)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ115 = "", "", [1]屬性克制表!AQ115)</f>
+        <v/>
+      </c>
+      <c r="B115" s="14" t="str">
+        <f>IF([1]屬性克制表!AR115 = "", "", [1]屬性克制表!AR115)</f>
+        <v/>
+      </c>
+      <c r="C115" s="14" t="str">
+        <f>IF([1]屬性克制表!AS115 = "", "", [1]屬性克制表!AS115)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ116 = "", "", [1]屬性克制表!AQ116)</f>
+        <v/>
+      </c>
+      <c r="B116" s="14" t="str">
+        <f>IF([1]屬性克制表!AR116 = "", "", [1]屬性克制表!AR116)</f>
+        <v/>
+      </c>
+      <c r="C116" s="14" t="str">
+        <f>IF([1]屬性克制表!AS116 = "", "", [1]屬性克制表!AS116)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ117 = "", "", [1]屬性克制表!AQ117)</f>
+        <v/>
+      </c>
+      <c r="B117" s="14" t="str">
+        <f>IF([1]屬性克制表!AR117 = "", "", [1]屬性克制表!AR117)</f>
+        <v/>
+      </c>
+      <c r="C117" s="14" t="str">
+        <f>IF([1]屬性克制表!AS117 = "", "", [1]屬性克制表!AS117)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ118 = "", "", [1]屬性克制表!AQ118)</f>
+        <v/>
+      </c>
+      <c r="B118" s="14" t="str">
+        <f>IF([1]屬性克制表!AR118 = "", "", [1]屬性克制表!AR118)</f>
+        <v/>
+      </c>
+      <c r="C118" s="14" t="str">
+        <f>IF([1]屬性克制表!AS118 = "", "", [1]屬性克制表!AS118)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ119 = "", "", [1]屬性克制表!AQ119)</f>
+        <v/>
+      </c>
+      <c r="B119" s="14" t="str">
+        <f>IF([1]屬性克制表!AR119 = "", "", [1]屬性克制表!AR119)</f>
+        <v/>
+      </c>
+      <c r="C119" s="14" t="str">
+        <f>IF([1]屬性克制表!AS119 = "", "", [1]屬性克制表!AS119)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ120 = "", "", [1]屬性克制表!AQ120)</f>
+        <v/>
+      </c>
+      <c r="B120" s="14" t="str">
+        <f>IF([1]屬性克制表!AR120 = "", "", [1]屬性克制表!AR120)</f>
+        <v/>
+      </c>
+      <c r="C120" s="14" t="str">
+        <f>IF([1]屬性克制表!AS120 = "", "", [1]屬性克制表!AS120)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ121 = "", "", [1]屬性克制表!AQ121)</f>
+        <v/>
+      </c>
+      <c r="B121" s="14" t="str">
+        <f>IF([1]屬性克制表!AR121 = "", "", [1]屬性克制表!AR121)</f>
+        <v/>
+      </c>
+      <c r="C121" s="14" t="str">
+        <f>IF([1]屬性克制表!AS121 = "", "", [1]屬性克制表!AS121)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ122 = "", "", [1]屬性克制表!AQ122)</f>
+        <v/>
+      </c>
+      <c r="B122" s="14" t="str">
+        <f>IF([1]屬性克制表!AR122 = "", "", [1]屬性克制表!AR122)</f>
+        <v/>
+      </c>
+      <c r="C122" s="14" t="str">
+        <f>IF([1]屬性克制表!AS122 = "", "", [1]屬性克制表!AS122)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ123 = "", "", [1]屬性克制表!AQ123)</f>
+        <v/>
+      </c>
+      <c r="B123" s="14" t="str">
+        <f>IF([1]屬性克制表!AR123 = "", "", [1]屬性克制表!AR123)</f>
+        <v/>
+      </c>
+      <c r="C123" s="14" t="str">
+        <f>IF([1]屬性克制表!AS123 = "", "", [1]屬性克制表!AS123)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ124 = "", "", [1]屬性克制表!AQ124)</f>
+        <v/>
+      </c>
+      <c r="B124" s="14" t="str">
+        <f>IF([1]屬性克制表!AR124 = "", "", [1]屬性克制表!AR124)</f>
+        <v/>
+      </c>
+      <c r="C124" s="14" t="str">
+        <f>IF([1]屬性克制表!AS124 = "", "", [1]屬性克制表!AS124)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ125 = "", "", [1]屬性克制表!AQ125)</f>
+        <v/>
+      </c>
+      <c r="B125" s="14" t="str">
+        <f>IF([1]屬性克制表!AR125 = "", "", [1]屬性克制表!AR125)</f>
+        <v/>
+      </c>
+      <c r="C125" s="14" t="str">
+        <f>IF([1]屬性克制表!AS125 = "", "", [1]屬性克制表!AS125)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ126 = "", "", [1]屬性克制表!AQ126)</f>
+        <v/>
+      </c>
+      <c r="B126" s="14" t="str">
+        <f>IF([1]屬性克制表!AR126 = "", "", [1]屬性克制表!AR126)</f>
+        <v/>
+      </c>
+      <c r="C126" s="14" t="str">
+        <f>IF([1]屬性克制表!AS126 = "", "", [1]屬性克制表!AS126)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ127 = "", "", [1]屬性克制表!AQ127)</f>
+        <v/>
+      </c>
+      <c r="B127" s="14" t="str">
+        <f>IF([1]屬性克制表!AR127 = "", "", [1]屬性克制表!AR127)</f>
+        <v/>
+      </c>
+      <c r="C127" s="14" t="str">
+        <f>IF([1]屬性克制表!AS127 = "", "", [1]屬性克制表!AS127)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ128 = "", "", [1]屬性克制表!AQ128)</f>
+        <v/>
+      </c>
+      <c r="B128" s="14" t="str">
+        <f>IF([1]屬性克制表!AR128 = "", "", [1]屬性克制表!AR128)</f>
+        <v/>
+      </c>
+      <c r="C128" s="14" t="str">
+        <f>IF([1]屬性克制表!AS128 = "", "", [1]屬性克制表!AS128)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ129 = "", "", [1]屬性克制表!AQ129)</f>
+        <v/>
+      </c>
+      <c r="B129" s="14" t="str">
+        <f>IF([1]屬性克制表!AR129 = "", "", [1]屬性克制表!AR129)</f>
+        <v/>
+      </c>
+      <c r="C129" s="14" t="str">
+        <f>IF([1]屬性克制表!AS129 = "", "", [1]屬性克制表!AS129)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ130 = "", "", [1]屬性克制表!AQ130)</f>
+        <v/>
+      </c>
+      <c r="B130" s="14" t="str">
+        <f>IF([1]屬性克制表!AR130 = "", "", [1]屬性克制表!AR130)</f>
+        <v/>
+      </c>
+      <c r="C130" s="14" t="str">
+        <f>IF([1]屬性克制表!AS130 = "", "", [1]屬性克制表!AS130)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ131 = "", "", [1]屬性克制表!AQ131)</f>
+        <v/>
+      </c>
+      <c r="B131" s="14" t="str">
+        <f>IF([1]屬性克制表!AR131 = "", "", [1]屬性克制表!AR131)</f>
+        <v/>
+      </c>
+      <c r="C131" s="14" t="str">
+        <f>IF([1]屬性克制表!AS131 = "", "", [1]屬性克制表!AS131)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ132 = "", "", [1]屬性克制表!AQ132)</f>
+        <v/>
+      </c>
+      <c r="B132" s="14" t="str">
+        <f>IF([1]屬性克制表!AR132 = "", "", [1]屬性克制表!AR132)</f>
+        <v/>
+      </c>
+      <c r="C132" s="14" t="str">
+        <f>IF([1]屬性克制表!AS132 = "", "", [1]屬性克制表!AS132)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ133 = "", "", [1]屬性克制表!AQ133)</f>
+        <v/>
+      </c>
+      <c r="B133" s="14" t="str">
+        <f>IF([1]屬性克制表!AR133 = "", "", [1]屬性克制表!AR133)</f>
+        <v/>
+      </c>
+      <c r="C133" s="14" t="str">
+        <f>IF([1]屬性克制表!AS133 = "", "", [1]屬性克制表!AS133)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ134 = "", "", [1]屬性克制表!AQ134)</f>
+        <v/>
+      </c>
+      <c r="B134" s="14" t="str">
+        <f>IF([1]屬性克制表!AR134 = "", "", [1]屬性克制表!AR134)</f>
+        <v/>
+      </c>
+      <c r="C134" s="14" t="str">
+        <f>IF([1]屬性克制表!AS134 = "", "", [1]屬性克制表!AS134)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ135 = "", "", [1]屬性克制表!AQ135)</f>
+        <v/>
+      </c>
+      <c r="B135" s="14" t="str">
+        <f>IF([1]屬性克制表!AR135 = "", "", [1]屬性克制表!AR135)</f>
+        <v/>
+      </c>
+      <c r="C135" s="14" t="str">
+        <f>IF([1]屬性克制表!AS135 = "", "", [1]屬性克制表!AS135)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ136 = "", "", [1]屬性克制表!AQ136)</f>
+        <v/>
+      </c>
+      <c r="B136" s="14" t="str">
+        <f>IF([1]屬性克制表!AR136 = "", "", [1]屬性克制表!AR136)</f>
+        <v/>
+      </c>
+      <c r="C136" s="14" t="str">
+        <f>IF([1]屬性克制表!AS136 = "", "", [1]屬性克制表!AS136)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ137 = "", "", [1]屬性克制表!AQ137)</f>
+        <v/>
+      </c>
+      <c r="B137" s="14" t="str">
+        <f>IF([1]屬性克制表!AR137 = "", "", [1]屬性克制表!AR137)</f>
+        <v/>
+      </c>
+      <c r="C137" s="14" t="str">
+        <f>IF([1]屬性克制表!AS137 = "", "", [1]屬性克制表!AS137)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ138 = "", "", [1]屬性克制表!AQ138)</f>
+        <v/>
+      </c>
+      <c r="B138" s="14" t="str">
+        <f>IF([1]屬性克制表!AR138 = "", "", [1]屬性克制表!AR138)</f>
+        <v/>
+      </c>
+      <c r="C138" s="14" t="str">
+        <f>IF([1]屬性克制表!AS138 = "", "", [1]屬性克制表!AS138)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ139 = "", "", [1]屬性克制表!AQ139)</f>
+        <v/>
+      </c>
+      <c r="B139" s="14" t="str">
+        <f>IF([1]屬性克制表!AR139 = "", "", [1]屬性克制表!AR139)</f>
+        <v/>
+      </c>
+      <c r="C139" s="14" t="str">
+        <f>IF([1]屬性克制表!AS139 = "", "", [1]屬性克制表!AS139)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ140 = "", "", [1]屬性克制表!AQ140)</f>
+        <v/>
+      </c>
+      <c r="B140" s="14" t="str">
+        <f>IF([1]屬性克制表!AR140 = "", "", [1]屬性克制表!AR140)</f>
+        <v/>
+      </c>
+      <c r="C140" s="14" t="str">
+        <f>IF([1]屬性克制表!AS140 = "", "", [1]屬性克制表!AS140)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ141 = "", "", [1]屬性克制表!AQ141)</f>
+        <v/>
+      </c>
+      <c r="B141" s="14" t="str">
+        <f>IF([1]屬性克制表!AR141 = "", "", [1]屬性克制表!AR141)</f>
+        <v/>
+      </c>
+      <c r="C141" s="14" t="str">
+        <f>IF([1]屬性克制表!AS141 = "", "", [1]屬性克制表!AS141)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ142 = "", "", [1]屬性克制表!AQ142)</f>
+        <v/>
+      </c>
+      <c r="B142" s="14" t="str">
+        <f>IF([1]屬性克制表!AR142 = "", "", [1]屬性克制表!AR142)</f>
+        <v/>
+      </c>
+      <c r="C142" s="14" t="str">
+        <f>IF([1]屬性克制表!AS142 = "", "", [1]屬性克制表!AS142)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ143 = "", "", [1]屬性克制表!AQ143)</f>
+        <v/>
+      </c>
+      <c r="B143" s="14" t="str">
+        <f>IF([1]屬性克制表!AR143 = "", "", [1]屬性克制表!AR143)</f>
+        <v/>
+      </c>
+      <c r="C143" s="14" t="str">
+        <f>IF([1]屬性克制表!AS143 = "", "", [1]屬性克制表!AS143)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ144 = "", "", [1]屬性克制表!AQ144)</f>
+        <v/>
+      </c>
+      <c r="B144" s="14" t="str">
+        <f>IF([1]屬性克制表!AR144 = "", "", [1]屬性克制表!AR144)</f>
+        <v/>
+      </c>
+      <c r="C144" s="14" t="str">
+        <f>IF([1]屬性克制表!AS144 = "", "", [1]屬性克制表!AS144)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ145 = "", "", [1]屬性克制表!AQ145)</f>
+        <v/>
+      </c>
+      <c r="B145" s="14" t="str">
+        <f>IF([1]屬性克制表!AR145 = "", "", [1]屬性克制表!AR145)</f>
+        <v/>
+      </c>
+      <c r="C145" s="14" t="str">
+        <f>IF([1]屬性克制表!AS145 = "", "", [1]屬性克制表!AS145)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ146 = "", "", [1]屬性克制表!AQ146)</f>
+        <v/>
+      </c>
+      <c r="B146" s="14" t="str">
+        <f>IF([1]屬性克制表!AR146 = "", "", [1]屬性克制表!AR146)</f>
+        <v/>
+      </c>
+      <c r="C146" s="14" t="str">
+        <f>IF([1]屬性克制表!AS146 = "", "", [1]屬性克制表!AS146)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ147 = "", "", [1]屬性克制表!AQ147)</f>
+        <v/>
+      </c>
+      <c r="B147" s="14" t="str">
+        <f>IF([1]屬性克制表!AR147 = "", "", [1]屬性克制表!AR147)</f>
+        <v/>
+      </c>
+      <c r="C147" s="14" t="str">
+        <f>IF([1]屬性克制表!AS147 = "", "", [1]屬性克制表!AS147)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ148 = "", "", [1]屬性克制表!AQ148)</f>
+        <v/>
+      </c>
+      <c r="B148" s="14" t="str">
+        <f>IF([1]屬性克制表!AR148 = "", "", [1]屬性克制表!AR148)</f>
+        <v/>
+      </c>
+      <c r="C148" s="14" t="str">
+        <f>IF([1]屬性克制表!AS148 = "", "", [1]屬性克制表!AS148)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ149 = "", "", [1]屬性克制表!AQ149)</f>
+        <v/>
+      </c>
+      <c r="B149" s="14" t="str">
+        <f>IF([1]屬性克制表!AR149 = "", "", [1]屬性克制表!AR149)</f>
+        <v/>
+      </c>
+      <c r="C149" s="14" t="str">
+        <f>IF([1]屬性克制表!AS149 = "", "", [1]屬性克制表!AS149)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ150 = "", "", [1]屬性克制表!AQ150)</f>
+        <v/>
+      </c>
+      <c r="B150" s="14" t="str">
+        <f>IF([1]屬性克制表!AR150 = "", "", [1]屬性克制表!AR150)</f>
+        <v/>
+      </c>
+      <c r="C150" s="14" t="str">
+        <f>IF([1]屬性克制表!AS150 = "", "", [1]屬性克制表!AS150)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ151 = "", "", [1]屬性克制表!AQ151)</f>
+        <v/>
+      </c>
+      <c r="B151" s="14" t="str">
+        <f>IF([1]屬性克制表!AR151 = "", "", [1]屬性克制表!AR151)</f>
+        <v/>
+      </c>
+      <c r="C151" s="14" t="str">
+        <f>IF([1]屬性克制表!AS151 = "", "", [1]屬性克制表!AS151)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ152 = "", "", [1]屬性克制表!AQ152)</f>
+        <v/>
+      </c>
+      <c r="B152" s="14" t="str">
+        <f>IF([1]屬性克制表!AR152 = "", "", [1]屬性克制表!AR152)</f>
+        <v/>
+      </c>
+      <c r="C152" s="14" t="str">
+        <f>IF([1]屬性克制表!AS152 = "", "", [1]屬性克制表!AS152)</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/DPS.xlsx
+++ b/DPS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\寶可夢\Pokemon_App\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\寶可夢\Pokemon_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F69041C-9FBD-44FA-8000-F1D8D60FACE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98344DA1-BC74-48B1-9BCC-422E49FAF9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -353,6 +353,7 @@
       <sheetName val="屬性克制表"/>
       <sheetName val="極巨傷害"/>
       <sheetName val="能量點"/>
+      <sheetName val="寶可夢圖鑑"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -374,7 +375,7 @@
             <v>火</v>
           </cell>
           <cell r="AQ3" t="str">
-            <v>Nega噴火龍</v>
+            <v>Nega噴火龍Y</v>
           </cell>
           <cell r="AS3">
             <v>19.68</v>
@@ -396,7 +397,7 @@
             <v>水</v>
           </cell>
           <cell r="AQ5" t="str">
-            <v>Mega蓋歐卡</v>
+            <v>原始蓋歐卡</v>
           </cell>
           <cell r="AS5">
             <v>19.420000000000002</v>
@@ -407,7 +408,7 @@
             <v>飛行</v>
           </cell>
           <cell r="AQ6" t="str">
-            <v>Mega列空坐</v>
+            <v>Mega烈空坐</v>
           </cell>
           <cell r="AS6">
             <v>26.05</v>
@@ -591,219 +592,219 @@
         </row>
         <row r="23">
           <cell r="AO23" t="str">
-            <v>格鬥</v>
+            <v>火</v>
           </cell>
           <cell r="AQ23" t="str">
-            <v>Mega火焰雞</v>
+            <v>砰頭小丑</v>
           </cell>
           <cell r="AS23">
-            <v>21.71</v>
+            <v>19.23</v>
           </cell>
         </row>
         <row r="24">
           <cell r="AO24" t="str">
-            <v>格鬥</v>
+            <v>火</v>
           </cell>
           <cell r="AQ24" t="str">
-            <v>凱路迪歐(覺悟)</v>
+            <v>暗影鳳王</v>
           </cell>
           <cell r="AS24">
-            <v>19.57</v>
+            <v>15.04</v>
           </cell>
         </row>
         <row r="25">
           <cell r="AO25" t="str">
-            <v>格鬥</v>
+            <v>火</v>
           </cell>
           <cell r="AQ25" t="str">
-            <v>Mega赫拉克羅斯</v>
+            <v>暗影席多藍恩</v>
           </cell>
           <cell r="AS25">
-            <v>17.02</v>
+            <v>18.02</v>
           </cell>
         </row>
         <row r="26">
           <cell r="AO26" t="str">
-            <v>水</v>
+            <v>火</v>
           </cell>
           <cell r="AQ26" t="str">
-            <v>Mega巨沼怪</v>
+            <v>席多藍恩</v>
           </cell>
           <cell r="AS26">
-            <v>17.53</v>
+            <v>15.09</v>
           </cell>
         </row>
         <row r="27">
           <cell r="AO27" t="str">
-            <v>水</v>
+            <v>火</v>
           </cell>
           <cell r="AQ27" t="str">
-            <v>Mega水箭龜</v>
+            <v>噴火龍</v>
           </cell>
           <cell r="AS27">
-            <v>16.190000000000001</v>
+            <v>14.01</v>
           </cell>
         </row>
         <row r="28">
           <cell r="AO28" t="str">
-            <v>水</v>
+            <v>格鬥</v>
           </cell>
           <cell r="AQ28" t="str">
-            <v>Mega暴鯉龍</v>
+            <v>Mega火焰雞</v>
           </cell>
           <cell r="AS28">
-            <v>15.09</v>
+            <v>21.71</v>
           </cell>
         </row>
         <row r="29">
           <cell r="AO29" t="str">
-            <v>飛行</v>
+            <v>格鬥</v>
           </cell>
           <cell r="AQ29" t="str">
-            <v>烈空坐</v>
+            <v>凱路迪歐(覺悟)</v>
           </cell>
           <cell r="AS29">
-            <v>18.79</v>
+            <v>19.57</v>
           </cell>
         </row>
         <row r="30">
           <cell r="AO30" t="str">
-            <v>飛行</v>
+            <v>格鬥</v>
           </cell>
           <cell r="AQ30" t="str">
-            <v>Mega暴飛龍</v>
+            <v>Mega赫拉克羅斯</v>
           </cell>
           <cell r="AS30">
-            <v>16.420000000000002</v>
+            <v>17.02</v>
           </cell>
         </row>
         <row r="31">
           <cell r="AO31" t="str">
-            <v>草</v>
+            <v>格鬥</v>
           </cell>
           <cell r="AQ31" t="str">
-            <v>紙御劍</v>
+            <v>代拉基翁</v>
           </cell>
           <cell r="AS31">
-            <v>16.75</v>
+            <v>16.079999999999998</v>
           </cell>
         </row>
         <row r="32">
           <cell r="AO32" t="str">
-            <v>草</v>
+            <v>格鬥</v>
           </cell>
           <cell r="AQ32" t="str">
-            <v>Mega妙蛙花</v>
+            <v>路卡利歐</v>
           </cell>
           <cell r="AS32">
-            <v>15.73</v>
+            <v>17.079999999999998</v>
           </cell>
         </row>
         <row r="33">
           <cell r="AO33" t="str">
-            <v>毒</v>
+            <v>格鬥</v>
           </cell>
           <cell r="AQ33" t="str">
-            <v>Mega耿鬼</v>
+            <v>怪力</v>
           </cell>
           <cell r="AS33">
-            <v>16.63</v>
+            <v>13.62</v>
           </cell>
         </row>
         <row r="34">
           <cell r="AO34" t="str">
-            <v>毒</v>
+            <v>格鬥</v>
           </cell>
           <cell r="AQ34" t="str">
-            <v>Mega大針鋒</v>
+            <v>鐵掌力士</v>
           </cell>
           <cell r="AS34">
-            <v>16.559999999999999</v>
+            <v>13.27</v>
           </cell>
         </row>
         <row r="35">
           <cell r="AO35" t="str">
-            <v>毒</v>
+            <v>格鬥</v>
           </cell>
           <cell r="AQ35" t="str">
-            <v>虛吾伊德</v>
+            <v>Mega艾路雷朵</v>
           </cell>
           <cell r="AS35">
-            <v>14.69</v>
+            <v>15.2</v>
           </cell>
         </row>
         <row r="36">
           <cell r="AO36" t="str">
-            <v>電</v>
+            <v>格鬥</v>
           </cell>
           <cell r="AQ36" t="str">
-            <v>雷吉艾勒奇</v>
+            <v>勾帕路翁</v>
           </cell>
           <cell r="AS36">
-            <v>16.989999999999998</v>
+            <v>12.77</v>
           </cell>
         </row>
         <row r="37">
           <cell r="AO37" t="str">
-            <v>電</v>
+            <v>格鬥</v>
           </cell>
           <cell r="AQ37" t="str">
-            <v>電束木</v>
+            <v>畢力吉翁</v>
           </cell>
           <cell r="AS37">
-            <v>16.89</v>
+            <v>12.77</v>
           </cell>
         </row>
         <row r="38">
           <cell r="AO38" t="str">
-            <v>電</v>
+            <v>格鬥</v>
           </cell>
           <cell r="AQ38" t="str">
-            <v>捷克羅姆</v>
+            <v>爆肌蚊</v>
           </cell>
           <cell r="AS38">
-            <v>15.69</v>
+            <v>12.98</v>
           </cell>
         </row>
         <row r="39">
           <cell r="AO39" t="str">
-            <v>電</v>
+            <v>水</v>
           </cell>
           <cell r="AQ39" t="str">
-            <v>雷公</v>
+            <v>Mega巨沼怪</v>
           </cell>
           <cell r="AS39">
-            <v>14.43</v>
+            <v>17.53</v>
           </cell>
         </row>
         <row r="40">
           <cell r="AO40" t="str">
-            <v>地面</v>
+            <v>水</v>
           </cell>
           <cell r="AQ40" t="str">
-            <v>原始固拉多</v>
+            <v>Mega水箭龜</v>
           </cell>
           <cell r="AS40">
-            <v>19.399999999999999</v>
+            <v>16.190000000000001</v>
           </cell>
         </row>
         <row r="41">
           <cell r="AO41" t="str">
-            <v>地面</v>
+            <v>水</v>
           </cell>
           <cell r="AQ41" t="str">
-            <v>暗影固拉多</v>
+            <v>Mega暴鯉龍</v>
           </cell>
           <cell r="AS41">
-            <v>17.66</v>
+            <v>15.09</v>
           </cell>
         </row>
         <row r="42">
           <cell r="AO42" t="str">
-            <v>地面</v>
+            <v>水</v>
           </cell>
           <cell r="AQ42" t="str">
-            <v>Mega巨沼怪</v>
+            <v>狂歡浪舞鴨</v>
           </cell>
           <cell r="AS42">
             <v>14.54</v>
@@ -811,370 +812,1339 @@
         </row>
         <row r="43">
           <cell r="AO43" t="str">
-            <v>地面</v>
+            <v>水</v>
           </cell>
           <cell r="AQ43" t="str">
-            <v>固拉多</v>
+            <v>西獅海壬</v>
           </cell>
           <cell r="AS43">
-            <v>15.04</v>
+            <v>14.01</v>
           </cell>
         </row>
         <row r="44">
           <cell r="AO44" t="str">
-            <v>超能力</v>
+            <v>水</v>
           </cell>
           <cell r="AQ44" t="str">
-            <v>超夢</v>
+            <v>蓋歐卡</v>
           </cell>
           <cell r="AS44">
-            <v>18.39</v>
+            <v>14.96</v>
           </cell>
         </row>
         <row r="45">
           <cell r="AO45" t="str">
-            <v>超能力</v>
+            <v>水</v>
           </cell>
           <cell r="AQ45" t="str">
-            <v>Mega胡地</v>
+            <v>甲賀忍蛙</v>
           </cell>
           <cell r="AS45">
-            <v>19.809999999999999</v>
+            <v>14.13</v>
           </cell>
         </row>
         <row r="46">
           <cell r="AO46" t="str">
-            <v>超能力</v>
+            <v>水</v>
           </cell>
           <cell r="AQ46" t="str">
-            <v>Mega沙奈朵</v>
+            <v>巨鉗蟹</v>
           </cell>
           <cell r="AS46">
-            <v>18.100000000000001</v>
+            <v>14.02</v>
           </cell>
         </row>
         <row r="47">
           <cell r="AO47" t="str">
-            <v>超能力</v>
+            <v>水</v>
           </cell>
           <cell r="AQ47" t="str">
-            <v>Mega拉帝歐斯</v>
+            <v>大力鱷</v>
           </cell>
           <cell r="AS47">
-            <v>17.88</v>
+            <v>12.94</v>
           </cell>
         </row>
         <row r="48">
           <cell r="AO48" t="str">
-            <v>岩石</v>
+            <v>水</v>
           </cell>
           <cell r="AQ48" t="str">
-            <v>Mega蒂安希</v>
+            <v>帝王拿波</v>
           </cell>
           <cell r="AS48">
-            <v>17.260000000000002</v>
+            <v>12.85</v>
           </cell>
         </row>
         <row r="49">
           <cell r="AO49" t="str">
-            <v>岩石</v>
+            <v>飛行</v>
           </cell>
           <cell r="AQ49" t="str">
-            <v>Mega化石翼龍</v>
+            <v>伊裴爾塔爾</v>
           </cell>
           <cell r="AS49">
-            <v>15.28</v>
+            <v>15.73</v>
           </cell>
         </row>
         <row r="50">
           <cell r="AO50" t="str">
-            <v>冰</v>
+            <v>飛行</v>
           </cell>
           <cell r="AQ50" t="str">
-            <v>Mega暴雪王</v>
+            <v>Mega大比鳥</v>
           </cell>
           <cell r="AS50">
-            <v>13.54</v>
+            <v>15.71</v>
           </cell>
         </row>
         <row r="51">
           <cell r="AO51" t="str">
-            <v>冰</v>
+            <v>飛行</v>
           </cell>
           <cell r="AQ51" t="str">
-            <v>象牙豬</v>
+            <v>銃嘴大鳥</v>
           </cell>
           <cell r="AS51">
-            <v>13.45</v>
+            <v>15.24</v>
           </cell>
         </row>
         <row r="52">
           <cell r="AO52" t="str">
-            <v>蟲</v>
+            <v>飛行</v>
           </cell>
           <cell r="AQ52" t="str">
-            <v>費洛美螂</v>
+            <v>烈空坐</v>
           </cell>
           <cell r="AS52">
-            <v>14.5</v>
+            <v>18.79</v>
           </cell>
         </row>
         <row r="53">
           <cell r="AO53" t="str">
-            <v>蟲</v>
+            <v>飛行</v>
           </cell>
           <cell r="AQ53" t="str">
-            <v>Mega大針鋒</v>
+            <v>暴飛龍</v>
           </cell>
           <cell r="AS53">
-            <v>15.25</v>
+            <v>14.7</v>
           </cell>
         </row>
         <row r="54">
           <cell r="AO54" t="str">
-            <v>蟲</v>
+            <v>飛行</v>
           </cell>
           <cell r="AQ54" t="str">
-            <v>Mega赫拉克羅斯</v>
+            <v>Mega暴飛龍</v>
           </cell>
           <cell r="AS54">
-            <v>15.44</v>
+            <v>16.420000000000002</v>
           </cell>
         </row>
         <row r="55">
           <cell r="AO55" t="str">
-            <v>龍</v>
+            <v>草</v>
           </cell>
           <cell r="AQ55" t="str">
-            <v>原始烈空坐</v>
+            <v>紙御劍</v>
           </cell>
           <cell r="AS55">
-            <v>22.51</v>
+            <v>16.75</v>
           </cell>
         </row>
         <row r="56">
           <cell r="AO56" t="str">
-            <v>龍</v>
+            <v>草</v>
           </cell>
           <cell r="AQ56" t="str">
-            <v>Mega烈咬陸鯊</v>
+            <v>Mega妙蛙花</v>
           </cell>
           <cell r="AS56">
-            <v>20.420000000000002</v>
+            <v>15.73</v>
           </cell>
         </row>
         <row r="57">
           <cell r="AO57" t="str">
-            <v>龍</v>
+            <v>草</v>
           </cell>
           <cell r="AQ57" t="str">
-            <v>闇黑酋雷姆</v>
+            <v>魔幻假面喵</v>
           </cell>
           <cell r="AS57">
-            <v>17.68</v>
+            <v>14.13</v>
           </cell>
         </row>
         <row r="58">
           <cell r="AO58" t="str">
-            <v>龍</v>
+            <v>草</v>
           </cell>
           <cell r="AQ58" t="str">
-            <v>Mega暴飛龍</v>
+            <v>薩戮德</v>
           </cell>
           <cell r="AS58">
-            <v>17.87</v>
+            <v>15.02</v>
           </cell>
         </row>
         <row r="59">
           <cell r="AO59" t="str">
-            <v>幽靈</v>
+            <v>草</v>
           </cell>
           <cell r="AQ59" t="str">
-            <v>砰頭小丑</v>
+            <v>謝米</v>
           </cell>
           <cell r="AS59">
-            <v>15.53</v>
+            <v>15.59</v>
           </cell>
         </row>
         <row r="60">
           <cell r="AO60" t="str">
-            <v>幽靈</v>
+            <v>毒</v>
           </cell>
           <cell r="AQ60" t="str">
-            <v>耿鬼</v>
+            <v>Mega耿鬼</v>
           </cell>
           <cell r="AS60">
-            <v>14.77</v>
+            <v>16.63</v>
           </cell>
         </row>
         <row r="61">
           <cell r="AO61" t="str">
-            <v>幽靈</v>
+            <v>毒</v>
           </cell>
           <cell r="AQ61" t="str">
-            <v>Mega耿鬼</v>
+            <v>Mega大針鋒</v>
           </cell>
           <cell r="AS61">
-            <v>19.809999999999999</v>
+            <v>16.559999999999999</v>
           </cell>
         </row>
         <row r="62">
           <cell r="AO62" t="str">
-            <v>惡</v>
+            <v>毒</v>
           </cell>
           <cell r="AQ62" t="str">
-            <v>Mega暴鯉龍</v>
+            <v>虛吾伊德</v>
           </cell>
           <cell r="AS62">
-            <v>14.23</v>
+            <v>14.69</v>
           </cell>
         </row>
         <row r="63">
           <cell r="AO63" t="str">
-            <v>惡</v>
+            <v>毒</v>
           </cell>
           <cell r="AQ63" t="str">
-            <v>達克萊伊</v>
+            <v>四顎針龍</v>
           </cell>
           <cell r="AS63">
-            <v>14.64</v>
+            <v>14.83</v>
           </cell>
         </row>
         <row r="64">
           <cell r="AO64" t="str">
-            <v>惡</v>
+            <v>毒</v>
           </cell>
           <cell r="AQ64" t="str">
-            <v>班基拉斯</v>
+            <v>萬針魚</v>
           </cell>
           <cell r="AS64">
-            <v>14.82</v>
+            <v>12.95</v>
           </cell>
         </row>
         <row r="65">
           <cell r="AO65" t="str">
-            <v>惡</v>
+            <v>毒</v>
           </cell>
           <cell r="AQ65" t="str">
-            <v>三首惡龍</v>
+            <v>毒骷蛙</v>
           </cell>
           <cell r="AS65">
-            <v>15.01</v>
+            <v>12.13</v>
           </cell>
         </row>
         <row r="66">
           <cell r="AO66" t="str">
-            <v>惡</v>
+            <v>電</v>
           </cell>
           <cell r="AQ66" t="str">
-            <v>Mega阿勃梭魯</v>
+            <v>雷電雲-靈獸形態</v>
           </cell>
           <cell r="AS66">
-            <v>17.95</v>
+            <v>16.48</v>
           </cell>
         </row>
         <row r="67">
           <cell r="AO67" t="str">
-            <v>鋼</v>
+            <v>電</v>
           </cell>
           <cell r="AQ67" t="str">
-            <v>盾之王</v>
+            <v>Mega電龍</v>
           </cell>
           <cell r="AS67">
-            <v>21.87</v>
+            <v>14.77</v>
           </cell>
         </row>
         <row r="68">
           <cell r="AO68" t="str">
-            <v>鋼</v>
+            <v>電</v>
           </cell>
           <cell r="AQ68" t="str">
-            <v>奈克洛茲瑪</v>
+            <v>電擊魔獸</v>
           </cell>
           <cell r="AS68">
-            <v>21.35</v>
+            <v>14.5</v>
           </cell>
         </row>
         <row r="69">
           <cell r="AO69" t="str">
-            <v>鋼</v>
+            <v>電</v>
           </cell>
           <cell r="AQ69" t="str">
-            <v>Mega巨金怪</v>
+            <v>閃電鳥</v>
           </cell>
           <cell r="AS69">
-            <v>18.239999999999998</v>
+            <v>13.81</v>
           </cell>
         </row>
         <row r="70">
           <cell r="AO70" t="str">
-            <v>鋼</v>
+            <v>電</v>
           </cell>
           <cell r="AQ70" t="str">
-            <v>巨金怪</v>
+            <v>自爆磁怪</v>
           </cell>
           <cell r="AS70">
-            <v>15.78</v>
+            <v>13.49</v>
           </cell>
         </row>
         <row r="71">
           <cell r="AO71" t="str">
-            <v>妖精</v>
+            <v>電</v>
           </cell>
           <cell r="AQ71" t="str">
-            <v>哲爾尼亞斯</v>
+            <v>雷吉艾勒奇</v>
           </cell>
           <cell r="AS71">
-            <v>13.19</v>
+            <v>16.989999999999998</v>
           </cell>
         </row>
         <row r="72">
           <cell r="AO72" t="str">
-            <v>妖精</v>
+            <v>電</v>
           </cell>
           <cell r="AQ72" t="str">
-            <v>仙子伊布</v>
+            <v>電束木</v>
           </cell>
           <cell r="AS72">
-            <v>11.35</v>
+            <v>16.89</v>
           </cell>
         </row>
         <row r="73">
           <cell r="AO73" t="str">
-            <v>妖精</v>
+            <v>電</v>
           </cell>
           <cell r="AQ73" t="str">
-            <v>波克基斯</v>
+            <v>捷克羅姆</v>
           </cell>
           <cell r="AS73">
-            <v>12.38</v>
+            <v>15.69</v>
           </cell>
         </row>
         <row r="74">
           <cell r="AO74" t="str">
-            <v>妖精</v>
+            <v>電</v>
           </cell>
           <cell r="AQ74" t="str">
-            <v>眷戀雲化身形態</v>
+            <v>雷公</v>
           </cell>
           <cell r="AS74">
-            <v>14.74</v>
+            <v>14.43</v>
           </cell>
         </row>
         <row r="75">
           <cell r="AO75" t="str">
-            <v>妖精</v>
+            <v>地面</v>
           </cell>
           <cell r="AQ75" t="str">
+            <v>原始固拉多</v>
+          </cell>
+          <cell r="AS75">
+            <v>19.399999999999999</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="AQ76" t="str">
+            <v>暗影固拉多</v>
+          </cell>
+          <cell r="AR76">
+            <v>17.66</v>
+          </cell>
+          <cell r="AS76">
+            <v>17.66</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="AQ77" t="str">
+            <v>Mega巨沼怪</v>
+          </cell>
+          <cell r="AR77">
+            <v>14.54</v>
+          </cell>
+          <cell r="AS77">
+            <v>14.54</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="AQ78" t="str">
+            <v>固拉多</v>
+          </cell>
+          <cell r="AR78">
+            <v>15.04</v>
+          </cell>
+          <cell r="AS78">
+            <v>15.04</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="AQ79" t="str">
+            <v>土地雲-靈獸形態</v>
+          </cell>
+          <cell r="AR79">
+            <v>16.46</v>
+          </cell>
+          <cell r="AS79">
+            <v>16.46</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="AQ80" t="str">
+            <v>超甲狂犀</v>
+          </cell>
+          <cell r="AR80">
+            <v>13.15</v>
+          </cell>
+          <cell r="AS80">
+            <v>13.15</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="AQ81" t="str">
+            <v>土地雲-化身形態</v>
+          </cell>
+          <cell r="AR81">
+            <v>13.82</v>
+          </cell>
+          <cell r="AS81">
+            <v>13.82</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="AQ82" t="str">
+            <v>龍頭地鼠</v>
+          </cell>
+          <cell r="AR82">
+            <v>14.03</v>
+          </cell>
+          <cell r="AS82">
+            <v>14.03</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="AQ83" t="str">
+            <v>烈咬陸鯊</v>
+          </cell>
+          <cell r="AR83">
+            <v>14.06</v>
+          </cell>
+          <cell r="AS83">
+            <v>14.06</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="AQ84" t="str">
+            <v>胡地</v>
+          </cell>
+          <cell r="AR84">
+            <v>14.6</v>
+          </cell>
+          <cell r="AS84">
+            <v>14.6</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="AQ85" t="str">
+            <v>Mega拉帝亞斯</v>
+          </cell>
+          <cell r="AR85">
+            <v>15.59</v>
+          </cell>
+          <cell r="AS85">
+            <v>15.59</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="AQ86" t="str">
+            <v>Mega巨金怪</v>
+          </cell>
+          <cell r="AR86">
+            <v>16.14</v>
+          </cell>
+          <cell r="AS86">
+            <v>16.14</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="AQ87" t="str">
+            <v>胡帕</v>
+          </cell>
+          <cell r="AR87">
+            <v>17.23</v>
+          </cell>
+          <cell r="AS87">
+            <v>17.23</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="AQ88" t="str">
+            <v>超夢</v>
+          </cell>
+          <cell r="AR88">
+            <v>18.39</v>
+          </cell>
+          <cell r="AS88">
+            <v>18.39</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="AQ89" t="str">
+            <v>Mega胡地</v>
+          </cell>
+          <cell r="AR89">
+            <v>19.809999999999999</v>
+          </cell>
+          <cell r="AS89">
+            <v>19.809999999999999</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="AQ90" t="str">
+            <v>Mega沙奈朵</v>
+          </cell>
+          <cell r="AR90">
+            <v>18.100000000000001</v>
+          </cell>
+          <cell r="AS90">
+            <v>18.100000000000001</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="AQ91" t="str">
+            <v>Mega拉帝歐斯</v>
+          </cell>
+          <cell r="AR91">
+            <v>17.88</v>
+          </cell>
+          <cell r="AS91">
+            <v>17.88</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="AQ92" t="str">
+            <v>Mega蒂安希</v>
+          </cell>
+          <cell r="AR92">
+            <v>27.616000000000003</v>
+          </cell>
+          <cell r="AS92">
+            <v>17.260000000000002</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="AQ93" t="str">
+            <v>Mega化石翼龍</v>
+          </cell>
+          <cell r="AR93">
+            <v>24.448</v>
+          </cell>
+          <cell r="AS93">
+            <v>15.28</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="AQ94" t="str">
+            <v>龐岩怪</v>
+          </cell>
+          <cell r="AR94">
+            <v>8.0875000000000004</v>
+          </cell>
+          <cell r="AS94">
+            <v>12.94</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="AQ95" t="str">
+            <v>代拉基翁</v>
+          </cell>
+          <cell r="AR95">
+            <v>8.4562499999999989</v>
+          </cell>
+          <cell r="AS95">
+            <v>13.53</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="AQ96" t="str">
+            <v>超甲狂犀</v>
+          </cell>
+          <cell r="AR96">
+            <v>8.8375000000000004</v>
+          </cell>
+          <cell r="AS96">
+            <v>14.14</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="AQ97" t="str">
+            <v>戰槌龍</v>
+          </cell>
+          <cell r="AR97">
+            <v>9.25</v>
+          </cell>
+          <cell r="AS97">
+            <v>14.8</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="AQ98" t="str">
+            <v>闇黑酋雷姆</v>
+          </cell>
+          <cell r="AR98">
+            <v>10.612500000000001</v>
+          </cell>
+          <cell r="AS98">
+            <v>16.98</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="AQ99" t="str">
+            <v>戟脊龍</v>
+          </cell>
+          <cell r="AR99">
+            <v>8.6687499999999993</v>
+          </cell>
+          <cell r="AS99">
+            <v>13.87</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="AQ100" t="str">
+            <v>冰伊布</v>
+          </cell>
+          <cell r="AR100">
+            <v>7.9375</v>
+          </cell>
+          <cell r="AS100">
+            <v>12.7</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="AQ101" t="str">
+            <v>達摩狒狒 伽勒爾</v>
+          </cell>
+          <cell r="AR101">
+            <v>8.7312500000000011</v>
+          </cell>
+          <cell r="AS101">
+            <v>13.97</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="AQ102" t="str">
+            <v>Mega冰鬼護</v>
+          </cell>
+          <cell r="AR102">
+            <v>8.4437499999999996</v>
+          </cell>
+          <cell r="AS102">
+            <v>13.51</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="AQ103" t="str">
+            <v>Mega暴雪王</v>
+          </cell>
+          <cell r="AR103">
+            <v>8.4624999999999986</v>
+          </cell>
+          <cell r="AS103">
+            <v>13.54</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="AQ104" t="str">
+            <v>象牙豬</v>
+          </cell>
+          <cell r="AR104">
+            <v>8.40625</v>
+          </cell>
+          <cell r="AS104">
+            <v>13.45</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="AQ105" t="str">
+            <v>費洛美螂</v>
+          </cell>
+          <cell r="AR105">
+            <v>14.5</v>
+          </cell>
+          <cell r="AS105">
+            <v>14.5</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="AQ106" t="str">
+            <v>Mega大針鋒</v>
+          </cell>
+          <cell r="AR106">
+            <v>15.25</v>
+          </cell>
+          <cell r="AS106">
+            <v>15.25</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="AQ107" t="str">
+            <v>Mega赫拉克羅斯</v>
+          </cell>
+          <cell r="AR107">
+            <v>15.44</v>
+          </cell>
+          <cell r="AS107">
+            <v>15.44</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="AQ108" t="str">
+            <v>Mega巨鉗螳螂</v>
+          </cell>
+          <cell r="AR108">
+            <v>14.57</v>
+          </cell>
+          <cell r="AS108">
+            <v>14.57</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="AQ109" t="str">
+            <v>蓋諾賽克特</v>
+          </cell>
+          <cell r="AR109">
+            <v>13.27</v>
+          </cell>
+          <cell r="AS109">
+            <v>13.27</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="AQ110" t="str">
+            <v>火神蛾</v>
+          </cell>
+          <cell r="AR110">
+            <v>14.15</v>
+          </cell>
+          <cell r="AS110">
+            <v>14.15</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="AQ111" t="str">
+            <v>烈咬陸鯊</v>
+          </cell>
+          <cell r="AR111">
+            <v>16.07</v>
+          </cell>
+          <cell r="AS111">
+            <v>16.07</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="AQ112" t="str">
+            <v>雙斧戰龍</v>
+          </cell>
+          <cell r="AR112">
+            <v>16.920000000000002</v>
+          </cell>
+          <cell r="AS112">
+            <v>16.920000000000002</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="AQ113" t="str">
+            <v>起源帝牙盧卡</v>
+          </cell>
+          <cell r="AR113">
+            <v>16.97</v>
+          </cell>
+          <cell r="AS113">
+            <v>16.97</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="AQ114" t="str">
+            <v>烈空坐</v>
+          </cell>
+          <cell r="AR114">
+            <v>17.190000000000001</v>
+          </cell>
+          <cell r="AS114">
+            <v>17.190000000000001</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="AQ115" t="str">
+            <v>起源帕路奇亞</v>
+          </cell>
+          <cell r="AR115">
+            <v>17.79</v>
+          </cell>
+          <cell r="AS115">
+            <v>17.79</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="AQ116" t="str">
+            <v>帕路奇亞</v>
+          </cell>
+          <cell r="AR116">
+            <v>15.91</v>
+          </cell>
+          <cell r="AS116">
+            <v>15.91</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="AQ117" t="str">
+            <v>帝牙盧卡</v>
+          </cell>
+          <cell r="AR117">
+            <v>15.12</v>
+          </cell>
+          <cell r="AS117">
+            <v>15.12</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="AQ118" t="str">
+            <v>戟脊龍</v>
+          </cell>
+          <cell r="AR118">
+            <v>14.14</v>
+          </cell>
+          <cell r="AS118">
+            <v>14.14</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="AQ119" t="str">
+            <v>快龍</v>
+          </cell>
+          <cell r="AR119">
+            <v>15.16</v>
+          </cell>
+          <cell r="AS119">
+            <v>15.16</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="AQ120" t="str">
+            <v>Mega拉帝歐斯</v>
+          </cell>
+          <cell r="AR120">
+            <v>15.69</v>
+          </cell>
+          <cell r="AS120">
+            <v>15.69</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="AQ121" t="str">
+            <v>暴飛龍</v>
+          </cell>
+          <cell r="AR121">
+            <v>17.79</v>
+          </cell>
+          <cell r="AS121">
+            <v>17.79</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="AQ122" t="str">
+            <v>Nega噴火龍X</v>
+          </cell>
+          <cell r="AR122">
+            <v>14.15</v>
+          </cell>
+          <cell r="AS122">
+            <v>14.15</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="AQ123" t="str">
+            <v>Mega烈空坐</v>
+          </cell>
+          <cell r="AR123">
+            <v>22.51</v>
+          </cell>
+          <cell r="AS123">
+            <v>22.51</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="AQ124" t="str">
+            <v>Mega烈咬陸鯊</v>
+          </cell>
+          <cell r="AR124">
+            <v>20.420000000000002</v>
+          </cell>
+          <cell r="AS124">
+            <v>20.420000000000002</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="AQ125" t="str">
+            <v>闇黑酋雷姆</v>
+          </cell>
+          <cell r="AR125">
+            <v>17.68</v>
+          </cell>
+          <cell r="AS125">
+            <v>17.68</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="AQ126" t="str">
+            <v>Mega暴飛龍</v>
+          </cell>
+          <cell r="AR126">
+            <v>17.87</v>
+          </cell>
+          <cell r="AS126">
+            <v>17.87</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="AQ127" t="str">
+            <v>砰頭小丑</v>
+          </cell>
+          <cell r="AR127">
+            <v>15.53</v>
+          </cell>
+          <cell r="AS127">
+            <v>15.53</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="AQ128" t="str">
+            <v>耿鬼</v>
+          </cell>
+          <cell r="AR128">
+            <v>14.77</v>
+          </cell>
+          <cell r="AS128">
+            <v>14.77</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="AQ129" t="str">
+            <v>Mega耿鬼</v>
+          </cell>
+          <cell r="AR129">
+            <v>19.809999999999999</v>
+          </cell>
+          <cell r="AS129">
+            <v>19.809999999999999</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="AQ130" t="str">
+            <v>Mega詛咒娃娃</v>
+          </cell>
+          <cell r="AR130">
+            <v>17.059999999999999</v>
+          </cell>
+          <cell r="AS130">
+            <v>17.059999999999999</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="AQ131" t="str">
+            <v>水晶燈火靈</v>
+          </cell>
+          <cell r="AR131">
+            <v>14.67</v>
+          </cell>
+          <cell r="AS131">
+            <v>14.67</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="AQ132" t="str">
+            <v>暴飛龍</v>
+          </cell>
+          <cell r="AR132">
+            <v>13.57</v>
+          </cell>
+          <cell r="AS132">
+            <v>13.57</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="AQ133" t="str">
+            <v>伊裴爾塔爾</v>
+          </cell>
+          <cell r="AR133">
+            <v>13.34</v>
+          </cell>
+          <cell r="AS133">
+            <v>13.34</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="AQ134" t="str">
+            <v>巨牙鯊</v>
+          </cell>
+          <cell r="AR134">
+            <v>14.03</v>
+          </cell>
+          <cell r="AS134">
+            <v>14.03</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="AQ135" t="str">
+            <v>達克萊伊</v>
+          </cell>
+          <cell r="AR135">
+            <v>14.64</v>
+          </cell>
+          <cell r="AS135">
+            <v>14.64</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="AQ136" t="str">
+            <v>Mega暴飛龍</v>
+          </cell>
+          <cell r="AR136">
+            <v>14.98</v>
+          </cell>
+          <cell r="AS136">
+            <v>14.98</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="AQ137" t="str">
+            <v>Mega黑魯加</v>
+          </cell>
+          <cell r="AR137">
+            <v>16.079999999999998</v>
+          </cell>
+          <cell r="AS137">
+            <v>16.079999999999998</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="AQ138" t="str">
+            <v>Mega暴鯉龍</v>
+          </cell>
+          <cell r="AR138">
+            <v>14.23</v>
+          </cell>
+          <cell r="AS138">
+            <v>14.23</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="AQ139" t="str">
+            <v>達克萊伊</v>
+          </cell>
+          <cell r="AR139">
+            <v>14.64</v>
+          </cell>
+          <cell r="AS139">
+            <v>14.64</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="AQ140" t="str">
+            <v>班基拉斯</v>
+          </cell>
+          <cell r="AR140">
+            <v>14.82</v>
+          </cell>
+          <cell r="AS140">
+            <v>14.82</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="AQ141" t="str">
+            <v>三首惡龍</v>
+          </cell>
+          <cell r="AR141">
+            <v>15.01</v>
+          </cell>
+          <cell r="AS141">
+            <v>15.01</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="AQ142" t="str">
+            <v>Mega阿勃梭魯</v>
+          </cell>
+          <cell r="AR142">
+            <v>17.95</v>
+          </cell>
+          <cell r="AS142">
+            <v>17.95</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="AQ143" t="str">
+            <v>盾之王</v>
+          </cell>
+          <cell r="AR143">
+            <v>34.992000000000004</v>
+          </cell>
+          <cell r="AS143">
+            <v>21.87</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="AQ144" t="str">
+            <v>奈克洛茲瑪</v>
+          </cell>
+          <cell r="AR144">
+            <v>34.160000000000004</v>
+          </cell>
+          <cell r="AS144">
+            <v>21.35</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="AQ145" t="str">
+            <v>Mega巨金怪</v>
+          </cell>
+          <cell r="AR145">
+            <v>29.183999999999997</v>
+          </cell>
+          <cell r="AS145">
+            <v>18.239999999999998</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="AQ146" t="str">
+            <v>巨金怪</v>
+          </cell>
+          <cell r="AR146">
+            <v>25.248000000000001</v>
+          </cell>
+          <cell r="AS146">
+            <v>15.78</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="AQ147" t="str">
+            <v>起源帝牙盧卡</v>
+          </cell>
+          <cell r="AR147">
+            <v>22.528000000000002</v>
+          </cell>
+          <cell r="AS147">
+            <v>14.08</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="AQ148" t="str">
+            <v>帝牙盧卡</v>
+          </cell>
+          <cell r="AR148">
+            <v>22.896000000000001</v>
+          </cell>
+          <cell r="AS148">
+            <v>14.31</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="AQ149" t="str">
+            <v>Mega波士可多拉</v>
+          </cell>
+          <cell r="AR149">
+            <v>21.263999999999999</v>
+          </cell>
+          <cell r="AS149">
+            <v>13.29</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="AQ150" t="str">
+            <v>美錄梅塔</v>
+          </cell>
+          <cell r="AR150">
+            <v>21.296000000000003</v>
+          </cell>
+          <cell r="AS150">
+            <v>13.31</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="AQ151" t="str">
+            <v>蓋諾賽克特</v>
+          </cell>
+          <cell r="AR151">
+            <v>22.144000000000002</v>
+          </cell>
+          <cell r="AS151">
+            <v>13.84</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="AQ152" t="str">
+            <v>Mega巨鉗螳螂</v>
+          </cell>
+          <cell r="AR152">
+            <v>21.103999999999999</v>
+          </cell>
+          <cell r="AS152">
+            <v>13.19</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="AQ153" t="str">
+            <v>龍頭地鼠</v>
+          </cell>
+          <cell r="AR153">
+            <v>21.488</v>
+          </cell>
+          <cell r="AS153">
+            <v>13.43</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="AQ154" t="str">
+            <v>布魯皇</v>
+          </cell>
+          <cell r="AR154">
+            <v>11.48</v>
+          </cell>
+          <cell r="AS154">
+            <v>11.48</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="AQ155" t="str">
+            <v>哲爾尼亞斯</v>
+          </cell>
+          <cell r="AR155">
+            <v>13.19</v>
+          </cell>
+          <cell r="AS155">
+            <v>13.19</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="AQ156" t="str">
+            <v>仙子伊布</v>
+          </cell>
+          <cell r="AR156">
+            <v>11.35</v>
+          </cell>
+          <cell r="AS156">
+            <v>11.35</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="AQ157" t="str">
+            <v>波克基斯</v>
+          </cell>
+          <cell r="AR157">
+            <v>12.38</v>
+          </cell>
+          <cell r="AS157">
+            <v>12.38</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="AQ158" t="str">
+            <v>眷戀雲化身形態</v>
+          </cell>
+          <cell r="AR158">
+            <v>14.74</v>
+          </cell>
+          <cell r="AS158">
+            <v>14.74</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="AQ159" t="str">
             <v>沙奈朵</v>
           </cell>
-          <cell r="AS75">
+          <cell r="AR159">
             <v>12.73</v>
+          </cell>
+          <cell r="AS159">
+            <v>12.73</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="AQ160" t="str">
+            <v>布莉姆溫</v>
+          </cell>
+          <cell r="AR160">
+            <v>12.45</v>
+          </cell>
+          <cell r="AS160">
+            <v>12.45</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="AQ161" t="str">
+            <v>卡璞・蝶蝶</v>
+          </cell>
+          <cell r="AR161">
+            <v>13.54</v>
+          </cell>
+          <cell r="AS161">
+            <v>13.54</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="AQ162" t="str">
+            <v>卡璞・鳴鳴</v>
+          </cell>
+          <cell r="AR162">
+            <v>13.63</v>
+          </cell>
+          <cell r="AS162">
+            <v>13.63</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="AQ163" t="str">
+            <v>卡璞・哞哞</v>
+          </cell>
+          <cell r="AR163">
+            <v>13.34</v>
+          </cell>
+          <cell r="AS163">
+            <v>13.34</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1443,13 +2413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X152"/>
+  <dimension ref="A1:X168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="14"/>
@@ -1603,7 +2573,7 @@
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="str">
         <f>[1]屬性克制表!AQ3</f>
-        <v>Nega噴火龍</v>
+        <v>Nega噴火龍Y</v>
       </c>
       <c r="B3" s="15" t="str">
         <f>[1]屬性克制表!AO3</f>
@@ -1751,7 +2721,7 @@
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="str">
         <f>[1]屬性克制表!AQ5</f>
-        <v>Mega蓋歐卡</v>
+        <v>原始蓋歐卡</v>
       </c>
       <c r="B5" s="15" t="str">
         <f>[1]屬性克制表!AO5</f>
@@ -1825,7 +2795,7 @@
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="str">
         <f>[1]屬性克制表!AQ6</f>
-        <v>Mega列空坐</v>
+        <v>Mega烈空坐</v>
       </c>
       <c r="B6" s="15" t="str">
         <f>[1]屬性克制表!AO6</f>
@@ -2963,277 +3933,277 @@
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="str">
         <f>[1]屬性克制表!AQ23</f>
-        <v>Mega火焰雞</v>
+        <v>砰頭小丑</v>
       </c>
       <c r="B23" s="15" t="str">
         <f>[1]屬性克制表!AO23</f>
-        <v>格鬥</v>
+        <v>火</v>
       </c>
       <c r="C23" s="15">
         <f>[1]屬性克制表!AS23</f>
-        <v>21.71</v>
+        <v>19.23</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="str">
         <f>[1]屬性克制表!AQ24</f>
-        <v>凱路迪歐(覺悟)</v>
+        <v>暗影鳳王</v>
       </c>
       <c r="B24" s="15" t="str">
         <f>[1]屬性克制表!AO24</f>
-        <v>格鬥</v>
+        <v>火</v>
       </c>
       <c r="C24" s="15">
         <f>[1]屬性克制表!AS24</f>
-        <v>19.57</v>
+        <v>15.04</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="str">
         <f>[1]屬性克制表!AQ25</f>
-        <v>Mega赫拉克羅斯</v>
+        <v>暗影席多藍恩</v>
       </c>
       <c r="B25" s="15" t="str">
         <f>[1]屬性克制表!AO25</f>
-        <v>格鬥</v>
+        <v>火</v>
       </c>
       <c r="C25" s="15">
         <f>[1]屬性克制表!AS25</f>
-        <v>17.02</v>
+        <v>18.02</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="str">
         <f>[1]屬性克制表!AQ26</f>
-        <v>Mega巨沼怪</v>
+        <v>席多藍恩</v>
       </c>
       <c r="B26" s="15" t="str">
         <f>[1]屬性克制表!AO26</f>
-        <v>水</v>
+        <v>火</v>
       </c>
       <c r="C26" s="15">
         <f>[1]屬性克制表!AS26</f>
-        <v>17.53</v>
+        <v>15.09</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="str">
         <f>[1]屬性克制表!AQ27</f>
-        <v>Mega水箭龜</v>
+        <v>噴火龍</v>
       </c>
       <c r="B27" s="15" t="str">
         <f>[1]屬性克制表!AO27</f>
-        <v>水</v>
+        <v>火</v>
       </c>
       <c r="C27" s="15">
         <f>[1]屬性克制表!AS27</f>
-        <v>16.190000000000001</v>
+        <v>14.01</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="str">
         <f>[1]屬性克制表!AQ28</f>
-        <v>Mega暴鯉龍</v>
+        <v>Mega火焰雞</v>
       </c>
       <c r="B28" s="15" t="str">
         <f>[1]屬性克制表!AO28</f>
-        <v>水</v>
+        <v>格鬥</v>
       </c>
       <c r="C28" s="15">
         <f>[1]屬性克制表!AS28</f>
-        <v>15.09</v>
+        <v>21.71</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="str">
         <f>[1]屬性克制表!AQ29</f>
-        <v>烈空坐</v>
+        <v>凱路迪歐(覺悟)</v>
       </c>
       <c r="B29" s="15" t="str">
         <f>[1]屬性克制表!AO29</f>
-        <v>飛行</v>
+        <v>格鬥</v>
       </c>
       <c r="C29" s="15">
         <f>[1]屬性克制表!AS29</f>
-        <v>18.79</v>
+        <v>19.57</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="str">
         <f>[1]屬性克制表!AQ30</f>
-        <v>Mega暴飛龍</v>
+        <v>Mega赫拉克羅斯</v>
       </c>
       <c r="B30" s="15" t="str">
         <f>[1]屬性克制表!AO30</f>
-        <v>飛行</v>
+        <v>格鬥</v>
       </c>
       <c r="C30" s="15">
         <f>[1]屬性克制表!AS30</f>
-        <v>16.420000000000002</v>
+        <v>17.02</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="str">
         <f>[1]屬性克制表!AQ31</f>
-        <v>紙御劍</v>
+        <v>代拉基翁</v>
       </c>
       <c r="B31" s="15" t="str">
         <f>[1]屬性克制表!AO31</f>
-        <v>草</v>
+        <v>格鬥</v>
       </c>
       <c r="C31" s="15">
         <f>[1]屬性克制表!AS31</f>
-        <v>16.75</v>
+        <v>16.079999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="str">
         <f>[1]屬性克制表!AQ32</f>
-        <v>Mega妙蛙花</v>
+        <v>路卡利歐</v>
       </c>
       <c r="B32" s="15" t="str">
         <f>[1]屬性克制表!AO32</f>
-        <v>草</v>
+        <v>格鬥</v>
       </c>
       <c r="C32" s="15">
         <f>[1]屬性克制表!AS32</f>
-        <v>15.73</v>
+        <v>17.079999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="str">
         <f>[1]屬性克制表!AQ33</f>
-        <v>Mega耿鬼</v>
+        <v>怪力</v>
       </c>
       <c r="B33" s="15" t="str">
         <f>[1]屬性克制表!AO33</f>
-        <v>毒</v>
+        <v>格鬥</v>
       </c>
       <c r="C33" s="15">
         <f>[1]屬性克制表!AS33</f>
-        <v>16.63</v>
+        <v>13.62</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="str">
         <f>[1]屬性克制表!AQ34</f>
-        <v>Mega大針鋒</v>
+        <v>鐵掌力士</v>
       </c>
       <c r="B34" s="15" t="str">
         <f>[1]屬性克制表!AO34</f>
-        <v>毒</v>
+        <v>格鬥</v>
       </c>
       <c r="C34" s="15">
         <f>[1]屬性克制表!AS34</f>
-        <v>16.559999999999999</v>
+        <v>13.27</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="str">
         <f>[1]屬性克制表!AQ35</f>
-        <v>虛吾伊德</v>
+        <v>Mega艾路雷朵</v>
       </c>
       <c r="B35" s="15" t="str">
         <f>[1]屬性克制表!AO35</f>
-        <v>毒</v>
+        <v>格鬥</v>
       </c>
       <c r="C35" s="15">
         <f>[1]屬性克制表!AS35</f>
-        <v>14.69</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="str">
         <f>[1]屬性克制表!AQ36</f>
-        <v>雷吉艾勒奇</v>
+        <v>勾帕路翁</v>
       </c>
       <c r="B36" s="15" t="str">
         <f>[1]屬性克制表!AO36</f>
-        <v>電</v>
+        <v>格鬥</v>
       </c>
       <c r="C36" s="15">
         <f>[1]屬性克制表!AS36</f>
-        <v>16.989999999999998</v>
+        <v>12.77</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="str">
         <f>[1]屬性克制表!AQ37</f>
-        <v>電束木</v>
+        <v>畢力吉翁</v>
       </c>
       <c r="B37" s="15" t="str">
         <f>[1]屬性克制表!AO37</f>
-        <v>電</v>
+        <v>格鬥</v>
       </c>
       <c r="C37" s="15">
         <f>[1]屬性克制表!AS37</f>
-        <v>16.89</v>
+        <v>12.77</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="str">
         <f>[1]屬性克制表!AQ38</f>
-        <v>捷克羅姆</v>
+        <v>爆肌蚊</v>
       </c>
       <c r="B38" s="15" t="str">
         <f>[1]屬性克制表!AO38</f>
-        <v>電</v>
+        <v>格鬥</v>
       </c>
       <c r="C38" s="15">
         <f>[1]屬性克制表!AS38</f>
-        <v>15.69</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="str">
         <f>[1]屬性克制表!AQ39</f>
-        <v>雷公</v>
+        <v>Mega巨沼怪</v>
       </c>
       <c r="B39" s="15" t="str">
         <f>[1]屬性克制表!AO39</f>
-        <v>電</v>
+        <v>水</v>
       </c>
       <c r="C39" s="15">
         <f>[1]屬性克制表!AS39</f>
-        <v>14.43</v>
+        <v>17.53</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="str">
         <f>[1]屬性克制表!AQ40</f>
-        <v>原始固拉多</v>
+        <v>Mega水箭龜</v>
       </c>
       <c r="B40" s="15" t="str">
         <f>[1]屬性克制表!AO40</f>
-        <v>地面</v>
+        <v>水</v>
       </c>
       <c r="C40" s="15">
         <f>[1]屬性克制表!AS40</f>
-        <v>19.399999999999999</v>
+        <v>16.190000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="str">
         <f>[1]屬性克制表!AQ41</f>
-        <v>暗影固拉多</v>
+        <v>Mega暴鯉龍</v>
       </c>
       <c r="B41" s="15" t="str">
         <f>[1]屬性克制表!AO41</f>
-        <v>地面</v>
+        <v>水</v>
       </c>
       <c r="C41" s="15">
         <f>[1]屬性克制表!AS41</f>
-        <v>17.66</v>
+        <v>15.09</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="str">
         <f>[1]屬性克制表!AQ42</f>
-        <v>Mega巨沼怪</v>
+        <v>狂歡浪舞鴨</v>
       </c>
       <c r="B42" s="15" t="str">
         <f>[1]屬性克制表!AO42</f>
-        <v>地面</v>
+        <v>水</v>
       </c>
       <c r="C42" s="15">
         <f>[1]屬性克制表!AS42</f>
@@ -3243,1540 +4213,1764 @@
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="str">
         <f>[1]屬性克制表!AQ43</f>
-        <v>固拉多</v>
+        <v>西獅海壬</v>
       </c>
       <c r="B43" s="15" t="str">
         <f>[1]屬性克制表!AO43</f>
-        <v>地面</v>
+        <v>水</v>
       </c>
       <c r="C43" s="15">
         <f>[1]屬性克制表!AS43</f>
-        <v>15.04</v>
+        <v>14.01</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="str">
         <f>[1]屬性克制表!AQ44</f>
-        <v>超夢</v>
+        <v>蓋歐卡</v>
       </c>
       <c r="B44" s="15" t="str">
         <f>[1]屬性克制表!AO44</f>
-        <v>超能力</v>
+        <v>水</v>
       </c>
       <c r="C44" s="15">
         <f>[1]屬性克制表!AS44</f>
-        <v>18.39</v>
+        <v>14.96</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="str">
         <f>[1]屬性克制表!AQ45</f>
-        <v>Mega胡地</v>
+        <v>甲賀忍蛙</v>
       </c>
       <c r="B45" s="15" t="str">
         <f>[1]屬性克制表!AO45</f>
-        <v>超能力</v>
+        <v>水</v>
       </c>
       <c r="C45" s="15">
         <f>[1]屬性克制表!AS45</f>
-        <v>19.809999999999999</v>
+        <v>14.13</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="str">
         <f>[1]屬性克制表!AQ46</f>
-        <v>Mega沙奈朵</v>
+        <v>巨鉗蟹</v>
       </c>
       <c r="B46" s="15" t="str">
         <f>[1]屬性克制表!AO46</f>
-        <v>超能力</v>
+        <v>水</v>
       </c>
       <c r="C46" s="15">
         <f>[1]屬性克制表!AS46</f>
-        <v>18.100000000000001</v>
+        <v>14.02</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="str">
         <f>[1]屬性克制表!AQ47</f>
-        <v>Mega拉帝歐斯</v>
+        <v>大力鱷</v>
       </c>
       <c r="B47" s="15" t="str">
         <f>[1]屬性克制表!AO47</f>
-        <v>超能力</v>
+        <v>水</v>
       </c>
       <c r="C47" s="15">
         <f>[1]屬性克制表!AS47</f>
-        <v>17.88</v>
+        <v>12.94</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="str">
         <f>[1]屬性克制表!AQ48</f>
-        <v>Mega蒂安希</v>
+        <v>帝王拿波</v>
       </c>
       <c r="B48" s="15" t="str">
         <f>[1]屬性克制表!AO48</f>
-        <v>岩石</v>
+        <v>水</v>
       </c>
       <c r="C48" s="15">
         <f>[1]屬性克制表!AS48</f>
-        <v>17.260000000000002</v>
+        <v>12.85</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="str">
         <f>[1]屬性克制表!AQ49</f>
-        <v>Mega化石翼龍</v>
+        <v>伊裴爾塔爾</v>
       </c>
       <c r="B49" s="15" t="str">
         <f>[1]屬性克制表!AO49</f>
-        <v>岩石</v>
+        <v>飛行</v>
       </c>
       <c r="C49" s="15">
         <f>[1]屬性克制表!AS49</f>
-        <v>15.28</v>
+        <v>15.73</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="str">
         <f>[1]屬性克制表!AQ50</f>
-        <v>Mega暴雪王</v>
+        <v>Mega大比鳥</v>
       </c>
       <c r="B50" s="15" t="str">
         <f>[1]屬性克制表!AO50</f>
-        <v>冰</v>
+        <v>飛行</v>
       </c>
       <c r="C50" s="15">
         <f>[1]屬性克制表!AS50</f>
-        <v>13.54</v>
+        <v>15.71</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="str">
         <f>[1]屬性克制表!AQ51</f>
-        <v>象牙豬</v>
+        <v>銃嘴大鳥</v>
       </c>
       <c r="B51" s="15" t="str">
         <f>[1]屬性克制表!AO51</f>
-        <v>冰</v>
+        <v>飛行</v>
       </c>
       <c r="C51" s="15">
         <f>[1]屬性克制表!AS51</f>
-        <v>13.45</v>
+        <v>15.24</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="str">
         <f>[1]屬性克制表!AQ52</f>
-        <v>費洛美螂</v>
+        <v>烈空坐</v>
       </c>
       <c r="B52" s="15" t="str">
         <f>[1]屬性克制表!AO52</f>
-        <v>蟲</v>
+        <v>飛行</v>
       </c>
       <c r="C52" s="15">
         <f>[1]屬性克制表!AS52</f>
-        <v>14.5</v>
+        <v>18.79</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="str">
         <f>[1]屬性克制表!AQ53</f>
-        <v>Mega大針鋒</v>
+        <v>暴飛龍</v>
       </c>
       <c r="B53" s="15" t="str">
         <f>[1]屬性克制表!AO53</f>
-        <v>蟲</v>
+        <v>飛行</v>
       </c>
       <c r="C53" s="15">
         <f>[1]屬性克制表!AS53</f>
-        <v>15.25</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="str">
         <f>[1]屬性克制表!AQ54</f>
-        <v>Mega赫拉克羅斯</v>
+        <v>Mega暴飛龍</v>
       </c>
       <c r="B54" s="15" t="str">
         <f>[1]屬性克制表!AO54</f>
-        <v>蟲</v>
+        <v>飛行</v>
       </c>
       <c r="C54" s="15">
         <f>[1]屬性克制表!AS54</f>
-        <v>15.44</v>
+        <v>16.420000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="str">
         <f>[1]屬性克制表!AQ55</f>
-        <v>原始烈空坐</v>
+        <v>紙御劍</v>
       </c>
       <c r="B55" s="15" t="str">
         <f>[1]屬性克制表!AO55</f>
-        <v>龍</v>
+        <v>草</v>
       </c>
       <c r="C55" s="15">
         <f>[1]屬性克制表!AS55</f>
-        <v>22.51</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="str">
         <f>[1]屬性克制表!AQ56</f>
-        <v>Mega烈咬陸鯊</v>
+        <v>Mega妙蛙花</v>
       </c>
       <c r="B56" s="15" t="str">
         <f>[1]屬性克制表!AO56</f>
-        <v>龍</v>
+        <v>草</v>
       </c>
       <c r="C56" s="15">
         <f>[1]屬性克制表!AS56</f>
-        <v>20.420000000000002</v>
+        <v>15.73</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="str">
         <f>[1]屬性克制表!AQ57</f>
-        <v>闇黑酋雷姆</v>
+        <v>魔幻假面喵</v>
       </c>
       <c r="B57" s="15" t="str">
         <f>[1]屬性克制表!AO57</f>
-        <v>龍</v>
+        <v>草</v>
       </c>
       <c r="C57" s="15">
         <f>[1]屬性克制表!AS57</f>
-        <v>17.68</v>
+        <v>14.13</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="str">
         <f>[1]屬性克制表!AQ58</f>
-        <v>Mega暴飛龍</v>
+        <v>薩戮德</v>
       </c>
       <c r="B58" s="15" t="str">
         <f>[1]屬性克制表!AO58</f>
-        <v>龍</v>
+        <v>草</v>
       </c>
       <c r="C58" s="15">
         <f>[1]屬性克制表!AS58</f>
-        <v>17.87</v>
+        <v>15.02</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="str">
         <f>[1]屬性克制表!AQ59</f>
-        <v>砰頭小丑</v>
+        <v>謝米</v>
       </c>
       <c r="B59" s="15" t="str">
         <f>[1]屬性克制表!AO59</f>
-        <v>幽靈</v>
+        <v>草</v>
       </c>
       <c r="C59" s="15">
         <f>[1]屬性克制表!AS59</f>
-        <v>15.53</v>
+        <v>15.59</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="str">
         <f>[1]屬性克制表!AQ60</f>
-        <v>耿鬼</v>
+        <v>Mega耿鬼</v>
       </c>
       <c r="B60" s="15" t="str">
         <f>[1]屬性克制表!AO60</f>
-        <v>幽靈</v>
+        <v>毒</v>
       </c>
       <c r="C60" s="15">
         <f>[1]屬性克制表!AS60</f>
-        <v>14.77</v>
+        <v>16.63</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="str">
         <f>[1]屬性克制表!AQ61</f>
-        <v>Mega耿鬼</v>
+        <v>Mega大針鋒</v>
       </c>
       <c r="B61" s="15" t="str">
         <f>[1]屬性克制表!AO61</f>
-        <v>幽靈</v>
+        <v>毒</v>
       </c>
       <c r="C61" s="15">
         <f>[1]屬性克制表!AS61</f>
-        <v>19.809999999999999</v>
+        <v>16.559999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="str">
         <f>[1]屬性克制表!AQ62</f>
-        <v>Mega暴鯉龍</v>
+        <v>虛吾伊德</v>
       </c>
       <c r="B62" s="15" t="str">
         <f>[1]屬性克制表!AO62</f>
-        <v>惡</v>
+        <v>毒</v>
       </c>
       <c r="C62" s="15">
         <f>[1]屬性克制表!AS62</f>
-        <v>14.23</v>
+        <v>14.69</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="str">
         <f>[1]屬性克制表!AQ63</f>
-        <v>達克萊伊</v>
+        <v>四顎針龍</v>
       </c>
       <c r="B63" s="15" t="str">
         <f>[1]屬性克制表!AO63</f>
-        <v>惡</v>
+        <v>毒</v>
       </c>
       <c r="C63" s="15">
         <f>[1]屬性克制表!AS63</f>
-        <v>14.64</v>
+        <v>14.83</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="str">
         <f>[1]屬性克制表!AQ64</f>
-        <v>班基拉斯</v>
+        <v>萬針魚</v>
       </c>
       <c r="B64" s="15" t="str">
         <f>[1]屬性克制表!AO64</f>
-        <v>惡</v>
+        <v>毒</v>
       </c>
       <c r="C64" s="15">
         <f>[1]屬性克制表!AS64</f>
-        <v>14.82</v>
+        <v>12.95</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="str">
         <f>[1]屬性克制表!AQ65</f>
-        <v>三首惡龍</v>
+        <v>毒骷蛙</v>
       </c>
       <c r="B65" s="15" t="str">
         <f>[1]屬性克制表!AO65</f>
-        <v>惡</v>
+        <v>毒</v>
       </c>
       <c r="C65" s="15">
         <f>[1]屬性克制表!AS65</f>
-        <v>15.01</v>
+        <v>12.13</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="str">
         <f>[1]屬性克制表!AQ66</f>
-        <v>Mega阿勃梭魯</v>
+        <v>雷電雲-靈獸形態</v>
       </c>
       <c r="B66" s="15" t="str">
         <f>[1]屬性克制表!AO66</f>
-        <v>惡</v>
+        <v>電</v>
       </c>
       <c r="C66" s="15">
         <f>[1]屬性克制表!AS66</f>
-        <v>17.95</v>
+        <v>16.48</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="str">
         <f>[1]屬性克制表!AQ67</f>
-        <v>盾之王</v>
+        <v>Mega電龍</v>
       </c>
       <c r="B67" s="15" t="str">
         <f>[1]屬性克制表!AO67</f>
-        <v>鋼</v>
+        <v>電</v>
       </c>
       <c r="C67" s="15">
         <f>[1]屬性克制表!AS67</f>
-        <v>21.87</v>
+        <v>14.77</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="str">
         <f>[1]屬性克制表!AQ68</f>
-        <v>奈克洛茲瑪</v>
+        <v>電擊魔獸</v>
       </c>
       <c r="B68" s="15" t="str">
         <f>[1]屬性克制表!AO68</f>
-        <v>鋼</v>
+        <v>電</v>
       </c>
       <c r="C68" s="15">
         <f>[1]屬性克制表!AS68</f>
-        <v>21.35</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="str">
         <f>[1]屬性克制表!AQ69</f>
-        <v>Mega巨金怪</v>
+        <v>閃電鳥</v>
       </c>
       <c r="B69" s="15" t="str">
         <f>[1]屬性克制表!AO69</f>
-        <v>鋼</v>
+        <v>電</v>
       </c>
       <c r="C69" s="15">
         <f>[1]屬性克制表!AS69</f>
-        <v>18.239999999999998</v>
+        <v>13.81</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="str">
         <f>[1]屬性克制表!AQ70</f>
-        <v>巨金怪</v>
+        <v>自爆磁怪</v>
       </c>
       <c r="B70" s="15" t="str">
         <f>[1]屬性克制表!AO70</f>
-        <v>鋼</v>
+        <v>電</v>
       </c>
       <c r="C70" s="15">
         <f>[1]屬性克制表!AS70</f>
-        <v>15.78</v>
+        <v>13.49</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="str">
         <f>[1]屬性克制表!AQ71</f>
-        <v>哲爾尼亞斯</v>
+        <v>雷吉艾勒奇</v>
       </c>
       <c r="B71" s="15" t="str">
         <f>[1]屬性克制表!AO71</f>
-        <v>妖精</v>
+        <v>電</v>
       </c>
       <c r="C71" s="15">
         <f>[1]屬性克制表!AS71</f>
-        <v>13.19</v>
+        <v>16.989999999999998</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="str">
         <f>[1]屬性克制表!AQ72</f>
-        <v>仙子伊布</v>
+        <v>電束木</v>
       </c>
       <c r="B72" s="15" t="str">
         <f>[1]屬性克制表!AO72</f>
-        <v>妖精</v>
+        <v>電</v>
       </c>
       <c r="C72" s="15">
         <f>[1]屬性克制表!AS72</f>
-        <v>11.35</v>
+        <v>16.89</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="str">
         <f>[1]屬性克制表!AQ73</f>
-        <v>波克基斯</v>
+        <v>捷克羅姆</v>
       </c>
       <c r="B73" s="15" t="str">
         <f>[1]屬性克制表!AO73</f>
-        <v>妖精</v>
+        <v>電</v>
       </c>
       <c r="C73" s="15">
         <f>[1]屬性克制表!AS73</f>
-        <v>12.38</v>
+        <v>15.69</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="str">
         <f>[1]屬性克制表!AQ74</f>
-        <v>眷戀雲化身形態</v>
+        <v>雷公</v>
       </c>
       <c r="B74" s="15" t="str">
         <f>[1]屬性克制表!AO74</f>
-        <v>妖精</v>
+        <v>電</v>
       </c>
       <c r="C74" s="15">
         <f>[1]屬性克制表!AS74</f>
-        <v>14.74</v>
+        <v>14.43</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="str">
         <f>[1]屬性克制表!AQ75</f>
-        <v>沙奈朵</v>
+        <v>原始固拉多</v>
       </c>
       <c r="B75" s="15" t="str">
         <f>[1]屬性克制表!AO75</f>
-        <v>妖精</v>
+        <v>地面</v>
       </c>
       <c r="C75" s="15">
         <f>[1]屬性克制表!AS75</f>
-        <v>12.73</v>
+        <v>19.399999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="str">
         <f>IF([1]屬性克制表!AQ76 = "", "", [1]屬性克制表!AQ76)</f>
-        <v/>
-      </c>
-      <c r="B76" s="14" t="str">
+        <v>暗影固拉多</v>
+      </c>
+      <c r="B76" s="14">
         <f>IF([1]屬性克制表!AR76 = "", "", [1]屬性克制表!AR76)</f>
-        <v/>
-      </c>
-      <c r="C76" s="14" t="str">
+        <v>17.66</v>
+      </c>
+      <c r="C76" s="14">
         <f>IF([1]屬性克制表!AS76 = "", "", [1]屬性克制表!AS76)</f>
-        <v/>
+        <v>17.66</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="str">
         <f>IF([1]屬性克制表!AQ77 = "", "", [1]屬性克制表!AQ77)</f>
-        <v/>
-      </c>
-      <c r="B77" s="14" t="str">
+        <v>Mega巨沼怪</v>
+      </c>
+      <c r="B77" s="14">
         <f>IF([1]屬性克制表!AR77 = "", "", [1]屬性克制表!AR77)</f>
-        <v/>
-      </c>
-      <c r="C77" s="14" t="str">
+        <v>14.54</v>
+      </c>
+      <c r="C77" s="14">
         <f>IF([1]屬性克制表!AS77 = "", "", [1]屬性克制表!AS77)</f>
-        <v/>
+        <v>14.54</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="str">
         <f>IF([1]屬性克制表!AQ78 = "", "", [1]屬性克制表!AQ78)</f>
-        <v/>
-      </c>
-      <c r="B78" s="14" t="str">
+        <v>固拉多</v>
+      </c>
+      <c r="B78" s="14">
         <f>IF([1]屬性克制表!AR78 = "", "", [1]屬性克制表!AR78)</f>
-        <v/>
-      </c>
-      <c r="C78" s="14" t="str">
+        <v>15.04</v>
+      </c>
+      <c r="C78" s="14">
         <f>IF([1]屬性克制表!AS78 = "", "", [1]屬性克制表!AS78)</f>
-        <v/>
+        <v>15.04</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="str">
         <f>IF([1]屬性克制表!AQ79 = "", "", [1]屬性克制表!AQ79)</f>
-        <v/>
-      </c>
-      <c r="B79" s="14" t="str">
+        <v>土地雲-靈獸形態</v>
+      </c>
+      <c r="B79" s="14">
         <f>IF([1]屬性克制表!AR79 = "", "", [1]屬性克制表!AR79)</f>
-        <v/>
-      </c>
-      <c r="C79" s="14" t="str">
+        <v>16.46</v>
+      </c>
+      <c r="C79" s="14">
         <f>IF([1]屬性克制表!AS79 = "", "", [1]屬性克制表!AS79)</f>
-        <v/>
+        <v>16.46</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="str">
         <f>IF([1]屬性克制表!AQ80 = "", "", [1]屬性克制表!AQ80)</f>
-        <v/>
-      </c>
-      <c r="B80" s="14" t="str">
+        <v>超甲狂犀</v>
+      </c>
+      <c r="B80" s="14">
         <f>IF([1]屬性克制表!AR80 = "", "", [1]屬性克制表!AR80)</f>
-        <v/>
-      </c>
-      <c r="C80" s="14" t="str">
+        <v>13.15</v>
+      </c>
+      <c r="C80" s="14">
         <f>IF([1]屬性克制表!AS80 = "", "", [1]屬性克制表!AS80)</f>
-        <v/>
+        <v>13.15</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="str">
         <f>IF([1]屬性克制表!AQ81 = "", "", [1]屬性克制表!AQ81)</f>
-        <v/>
-      </c>
-      <c r="B81" s="14" t="str">
+        <v>土地雲-化身形態</v>
+      </c>
+      <c r="B81" s="14">
         <f>IF([1]屬性克制表!AR81 = "", "", [1]屬性克制表!AR81)</f>
-        <v/>
-      </c>
-      <c r="C81" s="14" t="str">
+        <v>13.82</v>
+      </c>
+      <c r="C81" s="14">
         <f>IF([1]屬性克制表!AS81 = "", "", [1]屬性克制表!AS81)</f>
-        <v/>
+        <v>13.82</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="str">
         <f>IF([1]屬性克制表!AQ82 = "", "", [1]屬性克制表!AQ82)</f>
-        <v/>
-      </c>
-      <c r="B82" s="14" t="str">
+        <v>龍頭地鼠</v>
+      </c>
+      <c r="B82" s="14">
         <f>IF([1]屬性克制表!AR82 = "", "", [1]屬性克制表!AR82)</f>
-        <v/>
-      </c>
-      <c r="C82" s="14" t="str">
+        <v>14.03</v>
+      </c>
+      <c r="C82" s="14">
         <f>IF([1]屬性克制表!AS82 = "", "", [1]屬性克制表!AS82)</f>
-        <v/>
+        <v>14.03</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="str">
         <f>IF([1]屬性克制表!AQ83 = "", "", [1]屬性克制表!AQ83)</f>
-        <v/>
-      </c>
-      <c r="B83" s="14" t="str">
+        <v>烈咬陸鯊</v>
+      </c>
+      <c r="B83" s="14">
         <f>IF([1]屬性克制表!AR83 = "", "", [1]屬性克制表!AR83)</f>
-        <v/>
-      </c>
-      <c r="C83" s="14" t="str">
+        <v>14.06</v>
+      </c>
+      <c r="C83" s="14">
         <f>IF([1]屬性克制表!AS83 = "", "", [1]屬性克制表!AS83)</f>
-        <v/>
+        <v>14.06</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="str">
         <f>IF([1]屬性克制表!AQ84 = "", "", [1]屬性克制表!AQ84)</f>
-        <v/>
-      </c>
-      <c r="B84" s="14" t="str">
+        <v>胡地</v>
+      </c>
+      <c r="B84" s="14">
         <f>IF([1]屬性克制表!AR84 = "", "", [1]屬性克制表!AR84)</f>
-        <v/>
-      </c>
-      <c r="C84" s="14" t="str">
+        <v>14.6</v>
+      </c>
+      <c r="C84" s="14">
         <f>IF([1]屬性克制表!AS84 = "", "", [1]屬性克制表!AS84)</f>
-        <v/>
+        <v>14.6</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="str">
         <f>IF([1]屬性克制表!AQ85 = "", "", [1]屬性克制表!AQ85)</f>
-        <v/>
-      </c>
-      <c r="B85" s="14" t="str">
+        <v>Mega拉帝亞斯</v>
+      </c>
+      <c r="B85" s="14">
         <f>IF([1]屬性克制表!AR85 = "", "", [1]屬性克制表!AR85)</f>
-        <v/>
-      </c>
-      <c r="C85" s="14" t="str">
+        <v>15.59</v>
+      </c>
+      <c r="C85" s="14">
         <f>IF([1]屬性克制表!AS85 = "", "", [1]屬性克制表!AS85)</f>
-        <v/>
+        <v>15.59</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="str">
         <f>IF([1]屬性克制表!AQ86 = "", "", [1]屬性克制表!AQ86)</f>
-        <v/>
-      </c>
-      <c r="B86" s="14" t="str">
+        <v>Mega巨金怪</v>
+      </c>
+      <c r="B86" s="14">
         <f>IF([1]屬性克制表!AR86 = "", "", [1]屬性克制表!AR86)</f>
-        <v/>
-      </c>
-      <c r="C86" s="14" t="str">
+        <v>16.14</v>
+      </c>
+      <c r="C86" s="14">
         <f>IF([1]屬性克制表!AS86 = "", "", [1]屬性克制表!AS86)</f>
-        <v/>
+        <v>16.14</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="str">
         <f>IF([1]屬性克制表!AQ87 = "", "", [1]屬性克制表!AQ87)</f>
-        <v/>
-      </c>
-      <c r="B87" s="14" t="str">
+        <v>胡帕</v>
+      </c>
+      <c r="B87" s="14">
         <f>IF([1]屬性克制表!AR87 = "", "", [1]屬性克制表!AR87)</f>
-        <v/>
-      </c>
-      <c r="C87" s="14" t="str">
+        <v>17.23</v>
+      </c>
+      <c r="C87" s="14">
         <f>IF([1]屬性克制表!AS87 = "", "", [1]屬性克制表!AS87)</f>
-        <v/>
+        <v>17.23</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="str">
         <f>IF([1]屬性克制表!AQ88 = "", "", [1]屬性克制表!AQ88)</f>
-        <v/>
-      </c>
-      <c r="B88" s="14" t="str">
+        <v>超夢</v>
+      </c>
+      <c r="B88" s="14">
         <f>IF([1]屬性克制表!AR88 = "", "", [1]屬性克制表!AR88)</f>
-        <v/>
-      </c>
-      <c r="C88" s="14" t="str">
+        <v>18.39</v>
+      </c>
+      <c r="C88" s="14">
         <f>IF([1]屬性克制表!AS88 = "", "", [1]屬性克制表!AS88)</f>
-        <v/>
+        <v>18.39</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="str">
         <f>IF([1]屬性克制表!AQ89 = "", "", [1]屬性克制表!AQ89)</f>
-        <v/>
-      </c>
-      <c r="B89" s="14" t="str">
+        <v>Mega胡地</v>
+      </c>
+      <c r="B89" s="14">
         <f>IF([1]屬性克制表!AR89 = "", "", [1]屬性克制表!AR89)</f>
-        <v/>
-      </c>
-      <c r="C89" s="14" t="str">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="C89" s="14">
         <f>IF([1]屬性克制表!AS89 = "", "", [1]屬性克制表!AS89)</f>
-        <v/>
+        <v>19.809999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="str">
         <f>IF([1]屬性克制表!AQ90 = "", "", [1]屬性克制表!AQ90)</f>
-        <v/>
-      </c>
-      <c r="B90" s="14" t="str">
+        <v>Mega沙奈朵</v>
+      </c>
+      <c r="B90" s="14">
         <f>IF([1]屬性克制表!AR90 = "", "", [1]屬性克制表!AR90)</f>
-        <v/>
-      </c>
-      <c r="C90" s="14" t="str">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C90" s="14">
         <f>IF([1]屬性克制表!AS90 = "", "", [1]屬性克制表!AS90)</f>
-        <v/>
+        <v>18.100000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="14" t="str">
         <f>IF([1]屬性克制表!AQ91 = "", "", [1]屬性克制表!AQ91)</f>
-        <v/>
-      </c>
-      <c r="B91" s="14" t="str">
+        <v>Mega拉帝歐斯</v>
+      </c>
+      <c r="B91" s="14">
         <f>IF([1]屬性克制表!AR91 = "", "", [1]屬性克制表!AR91)</f>
-        <v/>
-      </c>
-      <c r="C91" s="14" t="str">
+        <v>17.88</v>
+      </c>
+      <c r="C91" s="14">
         <f>IF([1]屬性克制表!AS91 = "", "", [1]屬性克制表!AS91)</f>
-        <v/>
+        <v>17.88</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="str">
         <f>IF([1]屬性克制表!AQ92 = "", "", [1]屬性克制表!AQ92)</f>
-        <v/>
-      </c>
-      <c r="B92" s="14" t="str">
+        <v>Mega蒂安希</v>
+      </c>
+      <c r="B92" s="14">
         <f>IF([1]屬性克制表!AR92 = "", "", [1]屬性克制表!AR92)</f>
-        <v/>
-      </c>
-      <c r="C92" s="14" t="str">
+        <v>27.616000000000003</v>
+      </c>
+      <c r="C92" s="14">
         <f>IF([1]屬性克制表!AS92 = "", "", [1]屬性克制表!AS92)</f>
-        <v/>
+        <v>17.260000000000002</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="14" t="str">
         <f>IF([1]屬性克制表!AQ93 = "", "", [1]屬性克制表!AQ93)</f>
-        <v/>
-      </c>
-      <c r="B93" s="14" t="str">
+        <v>Mega化石翼龍</v>
+      </c>
+      <c r="B93" s="14">
         <f>IF([1]屬性克制表!AR93 = "", "", [1]屬性克制表!AR93)</f>
-        <v/>
-      </c>
-      <c r="C93" s="14" t="str">
+        <v>24.448</v>
+      </c>
+      <c r="C93" s="14">
         <f>IF([1]屬性克制表!AS93 = "", "", [1]屬性克制表!AS93)</f>
-        <v/>
+        <v>15.28</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="14" t="str">
         <f>IF([1]屬性克制表!AQ94 = "", "", [1]屬性克制表!AQ94)</f>
-        <v/>
-      </c>
-      <c r="B94" s="14" t="str">
+        <v>龐岩怪</v>
+      </c>
+      <c r="B94" s="14">
         <f>IF([1]屬性克制表!AR94 = "", "", [1]屬性克制表!AR94)</f>
-        <v/>
-      </c>
-      <c r="C94" s="14" t="str">
+        <v>8.0875000000000004</v>
+      </c>
+      <c r="C94" s="14">
         <f>IF([1]屬性克制表!AS94 = "", "", [1]屬性克制表!AS94)</f>
-        <v/>
+        <v>12.94</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="str">
         <f>IF([1]屬性克制表!AQ95 = "", "", [1]屬性克制表!AQ95)</f>
-        <v/>
-      </c>
-      <c r="B95" s="14" t="str">
+        <v>代拉基翁</v>
+      </c>
+      <c r="B95" s="14">
         <f>IF([1]屬性克制表!AR95 = "", "", [1]屬性克制表!AR95)</f>
-        <v/>
-      </c>
-      <c r="C95" s="14" t="str">
+        <v>8.4562499999999989</v>
+      </c>
+      <c r="C95" s="14">
         <f>IF([1]屬性克制表!AS95 = "", "", [1]屬性克制表!AS95)</f>
-        <v/>
+        <v>13.53</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="str">
         <f>IF([1]屬性克制表!AQ96 = "", "", [1]屬性克制表!AQ96)</f>
-        <v/>
-      </c>
-      <c r="B96" s="14" t="str">
+        <v>超甲狂犀</v>
+      </c>
+      <c r="B96" s="14">
         <f>IF([1]屬性克制表!AR96 = "", "", [1]屬性克制表!AR96)</f>
-        <v/>
-      </c>
-      <c r="C96" s="14" t="str">
+        <v>8.8375000000000004</v>
+      </c>
+      <c r="C96" s="14">
         <f>IF([1]屬性克制表!AS96 = "", "", [1]屬性克制表!AS96)</f>
-        <v/>
+        <v>14.14</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="str">
         <f>IF([1]屬性克制表!AQ97 = "", "", [1]屬性克制表!AQ97)</f>
-        <v/>
-      </c>
-      <c r="B97" s="14" t="str">
+        <v>戰槌龍</v>
+      </c>
+      <c r="B97" s="14">
         <f>IF([1]屬性克制表!AR97 = "", "", [1]屬性克制表!AR97)</f>
-        <v/>
-      </c>
-      <c r="C97" s="14" t="str">
+        <v>9.25</v>
+      </c>
+      <c r="C97" s="14">
         <f>IF([1]屬性克制表!AS97 = "", "", [1]屬性克制表!AS97)</f>
-        <v/>
+        <v>14.8</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="14" t="str">
         <f>IF([1]屬性克制表!AQ98 = "", "", [1]屬性克制表!AQ98)</f>
-        <v/>
-      </c>
-      <c r="B98" s="14" t="str">
+        <v>闇黑酋雷姆</v>
+      </c>
+      <c r="B98" s="14">
         <f>IF([1]屬性克制表!AR98 = "", "", [1]屬性克制表!AR98)</f>
-        <v/>
-      </c>
-      <c r="C98" s="14" t="str">
+        <v>10.612500000000001</v>
+      </c>
+      <c r="C98" s="14">
         <f>IF([1]屬性克制表!AS98 = "", "", [1]屬性克制表!AS98)</f>
-        <v/>
+        <v>16.98</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="14" t="str">
         <f>IF([1]屬性克制表!AQ99 = "", "", [1]屬性克制表!AQ99)</f>
-        <v/>
-      </c>
-      <c r="B99" s="14" t="str">
+        <v>戟脊龍</v>
+      </c>
+      <c r="B99" s="14">
         <f>IF([1]屬性克制表!AR99 = "", "", [1]屬性克制表!AR99)</f>
-        <v/>
-      </c>
-      <c r="C99" s="14" t="str">
+        <v>8.6687499999999993</v>
+      </c>
+      <c r="C99" s="14">
         <f>IF([1]屬性克制表!AS99 = "", "", [1]屬性克制表!AS99)</f>
-        <v/>
+        <v>13.87</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="14" t="str">
         <f>IF([1]屬性克制表!AQ100 = "", "", [1]屬性克制表!AQ100)</f>
-        <v/>
-      </c>
-      <c r="B100" s="14" t="str">
+        <v>冰伊布</v>
+      </c>
+      <c r="B100" s="14">
         <f>IF([1]屬性克制表!AR100 = "", "", [1]屬性克制表!AR100)</f>
-        <v/>
-      </c>
-      <c r="C100" s="14" t="str">
+        <v>7.9375</v>
+      </c>
+      <c r="C100" s="14">
         <f>IF([1]屬性克制表!AS100 = "", "", [1]屬性克制表!AS100)</f>
-        <v/>
+        <v>12.7</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="14" t="str">
         <f>IF([1]屬性克制表!AQ101 = "", "", [1]屬性克制表!AQ101)</f>
-        <v/>
-      </c>
-      <c r="B101" s="14" t="str">
+        <v>達摩狒狒 伽勒爾</v>
+      </c>
+      <c r="B101" s="14">
         <f>IF([1]屬性克制表!AR101 = "", "", [1]屬性克制表!AR101)</f>
-        <v/>
-      </c>
-      <c r="C101" s="14" t="str">
+        <v>8.7312500000000011</v>
+      </c>
+      <c r="C101" s="14">
         <f>IF([1]屬性克制表!AS101 = "", "", [1]屬性克制表!AS101)</f>
-        <v/>
+        <v>13.97</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="14" t="str">
         <f>IF([1]屬性克制表!AQ102 = "", "", [1]屬性克制表!AQ102)</f>
-        <v/>
-      </c>
-      <c r="B102" s="14" t="str">
+        <v>Mega冰鬼護</v>
+      </c>
+      <c r="B102" s="14">
         <f>IF([1]屬性克制表!AR102 = "", "", [1]屬性克制表!AR102)</f>
-        <v/>
-      </c>
-      <c r="C102" s="14" t="str">
+        <v>8.4437499999999996</v>
+      </c>
+      <c r="C102" s="14">
         <f>IF([1]屬性克制表!AS102 = "", "", [1]屬性克制表!AS102)</f>
-        <v/>
+        <v>13.51</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="14" t="str">
         <f>IF([1]屬性克制表!AQ103 = "", "", [1]屬性克制表!AQ103)</f>
-        <v/>
-      </c>
-      <c r="B103" s="14" t="str">
+        <v>Mega暴雪王</v>
+      </c>
+      <c r="B103" s="14">
         <f>IF([1]屬性克制表!AR103 = "", "", [1]屬性克制表!AR103)</f>
-        <v/>
-      </c>
-      <c r="C103" s="14" t="str">
+        <v>8.4624999999999986</v>
+      </c>
+      <c r="C103" s="14">
         <f>IF([1]屬性克制表!AS103 = "", "", [1]屬性克制表!AS103)</f>
-        <v/>
+        <v>13.54</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="14" t="str">
         <f>IF([1]屬性克制表!AQ104 = "", "", [1]屬性克制表!AQ104)</f>
-        <v/>
-      </c>
-      <c r="B104" s="14" t="str">
+        <v>象牙豬</v>
+      </c>
+      <c r="B104" s="14">
         <f>IF([1]屬性克制表!AR104 = "", "", [1]屬性克制表!AR104)</f>
-        <v/>
-      </c>
-      <c r="C104" s="14" t="str">
+        <v>8.40625</v>
+      </c>
+      <c r="C104" s="14">
         <f>IF([1]屬性克制表!AS104 = "", "", [1]屬性克制表!AS104)</f>
-        <v/>
+        <v>13.45</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="14" t="str">
         <f>IF([1]屬性克制表!AQ105 = "", "", [1]屬性克制表!AQ105)</f>
-        <v/>
-      </c>
-      <c r="B105" s="14" t="str">
+        <v>費洛美螂</v>
+      </c>
+      <c r="B105" s="14">
         <f>IF([1]屬性克制表!AR105 = "", "", [1]屬性克制表!AR105)</f>
-        <v/>
-      </c>
-      <c r="C105" s="14" t="str">
+        <v>14.5</v>
+      </c>
+      <c r="C105" s="14">
         <f>IF([1]屬性克制表!AS105 = "", "", [1]屬性克制表!AS105)</f>
-        <v/>
+        <v>14.5</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="14" t="str">
         <f>IF([1]屬性克制表!AQ106 = "", "", [1]屬性克制表!AQ106)</f>
-        <v/>
-      </c>
-      <c r="B106" s="14" t="str">
+        <v>Mega大針鋒</v>
+      </c>
+      <c r="B106" s="14">
         <f>IF([1]屬性克制表!AR106 = "", "", [1]屬性克制表!AR106)</f>
-        <v/>
-      </c>
-      <c r="C106" s="14" t="str">
+        <v>15.25</v>
+      </c>
+      <c r="C106" s="14">
         <f>IF([1]屬性克制表!AS106 = "", "", [1]屬性克制表!AS106)</f>
-        <v/>
+        <v>15.25</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="14" t="str">
         <f>IF([1]屬性克制表!AQ107 = "", "", [1]屬性克制表!AQ107)</f>
-        <v/>
-      </c>
-      <c r="B107" s="14" t="str">
+        <v>Mega赫拉克羅斯</v>
+      </c>
+      <c r="B107" s="14">
         <f>IF([1]屬性克制表!AR107 = "", "", [1]屬性克制表!AR107)</f>
-        <v/>
-      </c>
-      <c r="C107" s="14" t="str">
+        <v>15.44</v>
+      </c>
+      <c r="C107" s="14">
         <f>IF([1]屬性克制表!AS107 = "", "", [1]屬性克制表!AS107)</f>
-        <v/>
+        <v>15.44</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="14" t="str">
         <f>IF([1]屬性克制表!AQ108 = "", "", [1]屬性克制表!AQ108)</f>
-        <v/>
-      </c>
-      <c r="B108" s="14" t="str">
+        <v>Mega巨鉗螳螂</v>
+      </c>
+      <c r="B108" s="14">
         <f>IF([1]屬性克制表!AR108 = "", "", [1]屬性克制表!AR108)</f>
-        <v/>
-      </c>
-      <c r="C108" s="14" t="str">
+        <v>14.57</v>
+      </c>
+      <c r="C108" s="14">
         <f>IF([1]屬性克制表!AS108 = "", "", [1]屬性克制表!AS108)</f>
-        <v/>
+        <v>14.57</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="14" t="str">
         <f>IF([1]屬性克制表!AQ109 = "", "", [1]屬性克制表!AQ109)</f>
-        <v/>
-      </c>
-      <c r="B109" s="14" t="str">
+        <v>蓋諾賽克特</v>
+      </c>
+      <c r="B109" s="14">
         <f>IF([1]屬性克制表!AR109 = "", "", [1]屬性克制表!AR109)</f>
-        <v/>
-      </c>
-      <c r="C109" s="14" t="str">
+        <v>13.27</v>
+      </c>
+      <c r="C109" s="14">
         <f>IF([1]屬性克制表!AS109 = "", "", [1]屬性克制表!AS109)</f>
-        <v/>
+        <v>13.27</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="14" t="str">
         <f>IF([1]屬性克制表!AQ110 = "", "", [1]屬性克制表!AQ110)</f>
-        <v/>
-      </c>
-      <c r="B110" s="14" t="str">
+        <v>火神蛾</v>
+      </c>
+      <c r="B110" s="14">
         <f>IF([1]屬性克制表!AR110 = "", "", [1]屬性克制表!AR110)</f>
-        <v/>
-      </c>
-      <c r="C110" s="14" t="str">
+        <v>14.15</v>
+      </c>
+      <c r="C110" s="14">
         <f>IF([1]屬性克制表!AS110 = "", "", [1]屬性克制表!AS110)</f>
-        <v/>
+        <v>14.15</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="14" t="str">
         <f>IF([1]屬性克制表!AQ111 = "", "", [1]屬性克制表!AQ111)</f>
-        <v/>
-      </c>
-      <c r="B111" s="14" t="str">
+        <v>烈咬陸鯊</v>
+      </c>
+      <c r="B111" s="14">
         <f>IF([1]屬性克制表!AR111 = "", "", [1]屬性克制表!AR111)</f>
-        <v/>
-      </c>
-      <c r="C111" s="14" t="str">
+        <v>16.07</v>
+      </c>
+      <c r="C111" s="14">
         <f>IF([1]屬性克制表!AS111 = "", "", [1]屬性克制表!AS111)</f>
-        <v/>
+        <v>16.07</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="14" t="str">
         <f>IF([1]屬性克制表!AQ112 = "", "", [1]屬性克制表!AQ112)</f>
-        <v/>
-      </c>
-      <c r="B112" s="14" t="str">
+        <v>雙斧戰龍</v>
+      </c>
+      <c r="B112" s="14">
         <f>IF([1]屬性克制表!AR112 = "", "", [1]屬性克制表!AR112)</f>
-        <v/>
-      </c>
-      <c r="C112" s="14" t="str">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="C112" s="14">
         <f>IF([1]屬性克制表!AS112 = "", "", [1]屬性克制表!AS112)</f>
-        <v/>
+        <v>16.920000000000002</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="14" t="str">
         <f>IF([1]屬性克制表!AQ113 = "", "", [1]屬性克制表!AQ113)</f>
-        <v/>
-      </c>
-      <c r="B113" s="14" t="str">
+        <v>起源帝牙盧卡</v>
+      </c>
+      <c r="B113" s="14">
         <f>IF([1]屬性克制表!AR113 = "", "", [1]屬性克制表!AR113)</f>
-        <v/>
-      </c>
-      <c r="C113" s="14" t="str">
+        <v>16.97</v>
+      </c>
+      <c r="C113" s="14">
         <f>IF([1]屬性克制表!AS113 = "", "", [1]屬性克制表!AS113)</f>
-        <v/>
+        <v>16.97</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="14" t="str">
         <f>IF([1]屬性克制表!AQ114 = "", "", [1]屬性克制表!AQ114)</f>
-        <v/>
-      </c>
-      <c r="B114" s="14" t="str">
+        <v>烈空坐</v>
+      </c>
+      <c r="B114" s="14">
         <f>IF([1]屬性克制表!AR114 = "", "", [1]屬性克制表!AR114)</f>
-        <v/>
-      </c>
-      <c r="C114" s="14" t="str">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="C114" s="14">
         <f>IF([1]屬性克制表!AS114 = "", "", [1]屬性克制表!AS114)</f>
-        <v/>
+        <v>17.190000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="14" t="str">
         <f>IF([1]屬性克制表!AQ115 = "", "", [1]屬性克制表!AQ115)</f>
-        <v/>
-      </c>
-      <c r="B115" s="14" t="str">
+        <v>起源帕路奇亞</v>
+      </c>
+      <c r="B115" s="14">
         <f>IF([1]屬性克制表!AR115 = "", "", [1]屬性克制表!AR115)</f>
-        <v/>
-      </c>
-      <c r="C115" s="14" t="str">
+        <v>17.79</v>
+      </c>
+      <c r="C115" s="14">
         <f>IF([1]屬性克制表!AS115 = "", "", [1]屬性克制表!AS115)</f>
-        <v/>
+        <v>17.79</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="14" t="str">
         <f>IF([1]屬性克制表!AQ116 = "", "", [1]屬性克制表!AQ116)</f>
-        <v/>
-      </c>
-      <c r="B116" s="14" t="str">
+        <v>帕路奇亞</v>
+      </c>
+      <c r="B116" s="14">
         <f>IF([1]屬性克制表!AR116 = "", "", [1]屬性克制表!AR116)</f>
-        <v/>
-      </c>
-      <c r="C116" s="14" t="str">
+        <v>15.91</v>
+      </c>
+      <c r="C116" s="14">
         <f>IF([1]屬性克制表!AS116 = "", "", [1]屬性克制表!AS116)</f>
-        <v/>
+        <v>15.91</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="14" t="str">
         <f>IF([1]屬性克制表!AQ117 = "", "", [1]屬性克制表!AQ117)</f>
-        <v/>
-      </c>
-      <c r="B117" s="14" t="str">
+        <v>帝牙盧卡</v>
+      </c>
+      <c r="B117" s="14">
         <f>IF([1]屬性克制表!AR117 = "", "", [1]屬性克制表!AR117)</f>
-        <v/>
-      </c>
-      <c r="C117" s="14" t="str">
+        <v>15.12</v>
+      </c>
+      <c r="C117" s="14">
         <f>IF([1]屬性克制表!AS117 = "", "", [1]屬性克制表!AS117)</f>
-        <v/>
+        <v>15.12</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="14" t="str">
         <f>IF([1]屬性克制表!AQ118 = "", "", [1]屬性克制表!AQ118)</f>
-        <v/>
-      </c>
-      <c r="B118" s="14" t="str">
+        <v>戟脊龍</v>
+      </c>
+      <c r="B118" s="14">
         <f>IF([1]屬性克制表!AR118 = "", "", [1]屬性克制表!AR118)</f>
-        <v/>
-      </c>
-      <c r="C118" s="14" t="str">
+        <v>14.14</v>
+      </c>
+      <c r="C118" s="14">
         <f>IF([1]屬性克制表!AS118 = "", "", [1]屬性克制表!AS118)</f>
-        <v/>
+        <v>14.14</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="14" t="str">
         <f>IF([1]屬性克制表!AQ119 = "", "", [1]屬性克制表!AQ119)</f>
-        <v/>
-      </c>
-      <c r="B119" s="14" t="str">
+        <v>快龍</v>
+      </c>
+      <c r="B119" s="14">
         <f>IF([1]屬性克制表!AR119 = "", "", [1]屬性克制表!AR119)</f>
-        <v/>
-      </c>
-      <c r="C119" s="14" t="str">
+        <v>15.16</v>
+      </c>
+      <c r="C119" s="14">
         <f>IF([1]屬性克制表!AS119 = "", "", [1]屬性克制表!AS119)</f>
-        <v/>
+        <v>15.16</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="14" t="str">
         <f>IF([1]屬性克制表!AQ120 = "", "", [1]屬性克制表!AQ120)</f>
-        <v/>
-      </c>
-      <c r="B120" s="14" t="str">
+        <v>Mega拉帝歐斯</v>
+      </c>
+      <c r="B120" s="14">
         <f>IF([1]屬性克制表!AR120 = "", "", [1]屬性克制表!AR120)</f>
-        <v/>
-      </c>
-      <c r="C120" s="14" t="str">
+        <v>15.69</v>
+      </c>
+      <c r="C120" s="14">
         <f>IF([1]屬性克制表!AS120 = "", "", [1]屬性克制表!AS120)</f>
-        <v/>
+        <v>15.69</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="14" t="str">
         <f>IF([1]屬性克制表!AQ121 = "", "", [1]屬性克制表!AQ121)</f>
-        <v/>
-      </c>
-      <c r="B121" s="14" t="str">
+        <v>暴飛龍</v>
+      </c>
+      <c r="B121" s="14">
         <f>IF([1]屬性克制表!AR121 = "", "", [1]屬性克制表!AR121)</f>
-        <v/>
-      </c>
-      <c r="C121" s="14" t="str">
+        <v>17.79</v>
+      </c>
+      <c r="C121" s="14">
         <f>IF([1]屬性克制表!AS121 = "", "", [1]屬性克制表!AS121)</f>
-        <v/>
+        <v>17.79</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="14" t="str">
         <f>IF([1]屬性克制表!AQ122 = "", "", [1]屬性克制表!AQ122)</f>
-        <v/>
-      </c>
-      <c r="B122" s="14" t="str">
+        <v>Nega噴火龍X</v>
+      </c>
+      <c r="B122" s="14">
         <f>IF([1]屬性克制表!AR122 = "", "", [1]屬性克制表!AR122)</f>
-        <v/>
-      </c>
-      <c r="C122" s="14" t="str">
+        <v>14.15</v>
+      </c>
+      <c r="C122" s="14">
         <f>IF([1]屬性克制表!AS122 = "", "", [1]屬性克制表!AS122)</f>
-        <v/>
+        <v>14.15</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="14" t="str">
         <f>IF([1]屬性克制表!AQ123 = "", "", [1]屬性克制表!AQ123)</f>
-        <v/>
-      </c>
-      <c r="B123" s="14" t="str">
+        <v>Mega烈空坐</v>
+      </c>
+      <c r="B123" s="14">
         <f>IF([1]屬性克制表!AR123 = "", "", [1]屬性克制表!AR123)</f>
-        <v/>
-      </c>
-      <c r="C123" s="14" t="str">
+        <v>22.51</v>
+      </c>
+      <c r="C123" s="14">
         <f>IF([1]屬性克制表!AS123 = "", "", [1]屬性克制表!AS123)</f>
-        <v/>
+        <v>22.51</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="14" t="str">
         <f>IF([1]屬性克制表!AQ124 = "", "", [1]屬性克制表!AQ124)</f>
-        <v/>
-      </c>
-      <c r="B124" s="14" t="str">
+        <v>Mega烈咬陸鯊</v>
+      </c>
+      <c r="B124" s="14">
         <f>IF([1]屬性克制表!AR124 = "", "", [1]屬性克制表!AR124)</f>
-        <v/>
-      </c>
-      <c r="C124" s="14" t="str">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="C124" s="14">
         <f>IF([1]屬性克制表!AS124 = "", "", [1]屬性克制表!AS124)</f>
-        <v/>
+        <v>20.420000000000002</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="14" t="str">
         <f>IF([1]屬性克制表!AQ125 = "", "", [1]屬性克制表!AQ125)</f>
-        <v/>
-      </c>
-      <c r="B125" s="14" t="str">
+        <v>闇黑酋雷姆</v>
+      </c>
+      <c r="B125" s="14">
         <f>IF([1]屬性克制表!AR125 = "", "", [1]屬性克制表!AR125)</f>
-        <v/>
-      </c>
-      <c r="C125" s="14" t="str">
+        <v>17.68</v>
+      </c>
+      <c r="C125" s="14">
         <f>IF([1]屬性克制表!AS125 = "", "", [1]屬性克制表!AS125)</f>
-        <v/>
+        <v>17.68</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="14" t="str">
         <f>IF([1]屬性克制表!AQ126 = "", "", [1]屬性克制表!AQ126)</f>
-        <v/>
-      </c>
-      <c r="B126" s="14" t="str">
+        <v>Mega暴飛龍</v>
+      </c>
+      <c r="B126" s="14">
         <f>IF([1]屬性克制表!AR126 = "", "", [1]屬性克制表!AR126)</f>
-        <v/>
-      </c>
-      <c r="C126" s="14" t="str">
+        <v>17.87</v>
+      </c>
+      <c r="C126" s="14">
         <f>IF([1]屬性克制表!AS126 = "", "", [1]屬性克制表!AS126)</f>
-        <v/>
+        <v>17.87</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="14" t="str">
         <f>IF([1]屬性克制表!AQ127 = "", "", [1]屬性克制表!AQ127)</f>
-        <v/>
-      </c>
-      <c r="B127" s="14" t="str">
+        <v>砰頭小丑</v>
+      </c>
+      <c r="B127" s="14">
         <f>IF([1]屬性克制表!AR127 = "", "", [1]屬性克制表!AR127)</f>
-        <v/>
-      </c>
-      <c r="C127" s="14" t="str">
+        <v>15.53</v>
+      </c>
+      <c r="C127" s="14">
         <f>IF([1]屬性克制表!AS127 = "", "", [1]屬性克制表!AS127)</f>
-        <v/>
+        <v>15.53</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="14" t="str">
         <f>IF([1]屬性克制表!AQ128 = "", "", [1]屬性克制表!AQ128)</f>
-        <v/>
-      </c>
-      <c r="B128" s="14" t="str">
+        <v>耿鬼</v>
+      </c>
+      <c r="B128" s="14">
         <f>IF([1]屬性克制表!AR128 = "", "", [1]屬性克制表!AR128)</f>
-        <v/>
-      </c>
-      <c r="C128" s="14" t="str">
+        <v>14.77</v>
+      </c>
+      <c r="C128" s="14">
         <f>IF([1]屬性克制表!AS128 = "", "", [1]屬性克制表!AS128)</f>
-        <v/>
+        <v>14.77</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="14" t="str">
         <f>IF([1]屬性克制表!AQ129 = "", "", [1]屬性克制表!AQ129)</f>
-        <v/>
-      </c>
-      <c r="B129" s="14" t="str">
+        <v>Mega耿鬼</v>
+      </c>
+      <c r="B129" s="14">
         <f>IF([1]屬性克制表!AR129 = "", "", [1]屬性克制表!AR129)</f>
-        <v/>
-      </c>
-      <c r="C129" s="14" t="str">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="C129" s="14">
         <f>IF([1]屬性克制表!AS129 = "", "", [1]屬性克制表!AS129)</f>
-        <v/>
+        <v>19.809999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="14" t="str">
         <f>IF([1]屬性克制表!AQ130 = "", "", [1]屬性克制表!AQ130)</f>
-        <v/>
-      </c>
-      <c r="B130" s="14" t="str">
+        <v>Mega詛咒娃娃</v>
+      </c>
+      <c r="B130" s="14">
         <f>IF([1]屬性克制表!AR130 = "", "", [1]屬性克制表!AR130)</f>
-        <v/>
-      </c>
-      <c r="C130" s="14" t="str">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="C130" s="14">
         <f>IF([1]屬性克制表!AS130 = "", "", [1]屬性克制表!AS130)</f>
-        <v/>
+        <v>17.059999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="14" t="str">
         <f>IF([1]屬性克制表!AQ131 = "", "", [1]屬性克制表!AQ131)</f>
-        <v/>
-      </c>
-      <c r="B131" s="14" t="str">
+        <v>水晶燈火靈</v>
+      </c>
+      <c r="B131" s="14">
         <f>IF([1]屬性克制表!AR131 = "", "", [1]屬性克制表!AR131)</f>
-        <v/>
-      </c>
-      <c r="C131" s="14" t="str">
+        <v>14.67</v>
+      </c>
+      <c r="C131" s="14">
         <f>IF([1]屬性克制表!AS131 = "", "", [1]屬性克制表!AS131)</f>
-        <v/>
+        <v>14.67</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="14" t="str">
         <f>IF([1]屬性克制表!AQ132 = "", "", [1]屬性克制表!AQ132)</f>
-        <v/>
-      </c>
-      <c r="B132" s="14" t="str">
+        <v>暴飛龍</v>
+      </c>
+      <c r="B132" s="14">
         <f>IF([1]屬性克制表!AR132 = "", "", [1]屬性克制表!AR132)</f>
-        <v/>
-      </c>
-      <c r="C132" s="14" t="str">
+        <v>13.57</v>
+      </c>
+      <c r="C132" s="14">
         <f>IF([1]屬性克制表!AS132 = "", "", [1]屬性克制表!AS132)</f>
-        <v/>
+        <v>13.57</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="14" t="str">
         <f>IF([1]屬性克制表!AQ133 = "", "", [1]屬性克制表!AQ133)</f>
-        <v/>
-      </c>
-      <c r="B133" s="14" t="str">
+        <v>伊裴爾塔爾</v>
+      </c>
+      <c r="B133" s="14">
         <f>IF([1]屬性克制表!AR133 = "", "", [1]屬性克制表!AR133)</f>
-        <v/>
-      </c>
-      <c r="C133" s="14" t="str">
+        <v>13.34</v>
+      </c>
+      <c r="C133" s="14">
         <f>IF([1]屬性克制表!AS133 = "", "", [1]屬性克制表!AS133)</f>
-        <v/>
+        <v>13.34</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="14" t="str">
         <f>IF([1]屬性克制表!AQ134 = "", "", [1]屬性克制表!AQ134)</f>
-        <v/>
-      </c>
-      <c r="B134" s="14" t="str">
+        <v>巨牙鯊</v>
+      </c>
+      <c r="B134" s="14">
         <f>IF([1]屬性克制表!AR134 = "", "", [1]屬性克制表!AR134)</f>
-        <v/>
-      </c>
-      <c r="C134" s="14" t="str">
+        <v>14.03</v>
+      </c>
+      <c r="C134" s="14">
         <f>IF([1]屬性克制表!AS134 = "", "", [1]屬性克制表!AS134)</f>
-        <v/>
+        <v>14.03</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="14" t="str">
         <f>IF([1]屬性克制表!AQ135 = "", "", [1]屬性克制表!AQ135)</f>
-        <v/>
-      </c>
-      <c r="B135" s="14" t="str">
+        <v>達克萊伊</v>
+      </c>
+      <c r="B135" s="14">
         <f>IF([1]屬性克制表!AR135 = "", "", [1]屬性克制表!AR135)</f>
-        <v/>
-      </c>
-      <c r="C135" s="14" t="str">
+        <v>14.64</v>
+      </c>
+      <c r="C135" s="14">
         <f>IF([1]屬性克制表!AS135 = "", "", [1]屬性克制表!AS135)</f>
-        <v/>
+        <v>14.64</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="14" t="str">
         <f>IF([1]屬性克制表!AQ136 = "", "", [1]屬性克制表!AQ136)</f>
-        <v/>
-      </c>
-      <c r="B136" s="14" t="str">
+        <v>Mega暴飛龍</v>
+      </c>
+      <c r="B136" s="14">
         <f>IF([1]屬性克制表!AR136 = "", "", [1]屬性克制表!AR136)</f>
-        <v/>
-      </c>
-      <c r="C136" s="14" t="str">
+        <v>14.98</v>
+      </c>
+      <c r="C136" s="14">
         <f>IF([1]屬性克制表!AS136 = "", "", [1]屬性克制表!AS136)</f>
-        <v/>
+        <v>14.98</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="14" t="str">
         <f>IF([1]屬性克制表!AQ137 = "", "", [1]屬性克制表!AQ137)</f>
-        <v/>
-      </c>
-      <c r="B137" s="14" t="str">
+        <v>Mega黑魯加</v>
+      </c>
+      <c r="B137" s="14">
         <f>IF([1]屬性克制表!AR137 = "", "", [1]屬性克制表!AR137)</f>
-        <v/>
-      </c>
-      <c r="C137" s="14" t="str">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="C137" s="14">
         <f>IF([1]屬性克制表!AS137 = "", "", [1]屬性克制表!AS137)</f>
-        <v/>
+        <v>16.079999999999998</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="14" t="str">
         <f>IF([1]屬性克制表!AQ138 = "", "", [1]屬性克制表!AQ138)</f>
-        <v/>
-      </c>
-      <c r="B138" s="14" t="str">
+        <v>Mega暴鯉龍</v>
+      </c>
+      <c r="B138" s="14">
         <f>IF([1]屬性克制表!AR138 = "", "", [1]屬性克制表!AR138)</f>
-        <v/>
-      </c>
-      <c r="C138" s="14" t="str">
+        <v>14.23</v>
+      </c>
+      <c r="C138" s="14">
         <f>IF([1]屬性克制表!AS138 = "", "", [1]屬性克制表!AS138)</f>
-        <v/>
+        <v>14.23</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="14" t="str">
         <f>IF([1]屬性克制表!AQ139 = "", "", [1]屬性克制表!AQ139)</f>
-        <v/>
-      </c>
-      <c r="B139" s="14" t="str">
+        <v>達克萊伊</v>
+      </c>
+      <c r="B139" s="14">
         <f>IF([1]屬性克制表!AR139 = "", "", [1]屬性克制表!AR139)</f>
-        <v/>
-      </c>
-      <c r="C139" s="14" t="str">
+        <v>14.64</v>
+      </c>
+      <c r="C139" s="14">
         <f>IF([1]屬性克制表!AS139 = "", "", [1]屬性克制表!AS139)</f>
-        <v/>
+        <v>14.64</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="14" t="str">
         <f>IF([1]屬性克制表!AQ140 = "", "", [1]屬性克制表!AQ140)</f>
-        <v/>
-      </c>
-      <c r="B140" s="14" t="str">
+        <v>班基拉斯</v>
+      </c>
+      <c r="B140" s="14">
         <f>IF([1]屬性克制表!AR140 = "", "", [1]屬性克制表!AR140)</f>
-        <v/>
-      </c>
-      <c r="C140" s="14" t="str">
+        <v>14.82</v>
+      </c>
+      <c r="C140" s="14">
         <f>IF([1]屬性克制表!AS140 = "", "", [1]屬性克制表!AS140)</f>
-        <v/>
+        <v>14.82</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="14" t="str">
         <f>IF([1]屬性克制表!AQ141 = "", "", [1]屬性克制表!AQ141)</f>
-        <v/>
-      </c>
-      <c r="B141" s="14" t="str">
+        <v>三首惡龍</v>
+      </c>
+      <c r="B141" s="14">
         <f>IF([1]屬性克制表!AR141 = "", "", [1]屬性克制表!AR141)</f>
-        <v/>
-      </c>
-      <c r="C141" s="14" t="str">
+        <v>15.01</v>
+      </c>
+      <c r="C141" s="14">
         <f>IF([1]屬性克制表!AS141 = "", "", [1]屬性克制表!AS141)</f>
-        <v/>
+        <v>15.01</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="14" t="str">
         <f>IF([1]屬性克制表!AQ142 = "", "", [1]屬性克制表!AQ142)</f>
-        <v/>
-      </c>
-      <c r="B142" s="14" t="str">
+        <v>Mega阿勃梭魯</v>
+      </c>
+      <c r="B142" s="14">
         <f>IF([1]屬性克制表!AR142 = "", "", [1]屬性克制表!AR142)</f>
-        <v/>
-      </c>
-      <c r="C142" s="14" t="str">
+        <v>17.95</v>
+      </c>
+      <c r="C142" s="14">
         <f>IF([1]屬性克制表!AS142 = "", "", [1]屬性克制表!AS142)</f>
-        <v/>
+        <v>17.95</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="14" t="str">
         <f>IF([1]屬性克制表!AQ143 = "", "", [1]屬性克制表!AQ143)</f>
-        <v/>
-      </c>
-      <c r="B143" s="14" t="str">
+        <v>盾之王</v>
+      </c>
+      <c r="B143" s="14">
         <f>IF([1]屬性克制表!AR143 = "", "", [1]屬性克制表!AR143)</f>
-        <v/>
-      </c>
-      <c r="C143" s="14" t="str">
+        <v>34.992000000000004</v>
+      </c>
+      <c r="C143" s="14">
         <f>IF([1]屬性克制表!AS143 = "", "", [1]屬性克制表!AS143)</f>
-        <v/>
+        <v>21.87</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="14" t="str">
         <f>IF([1]屬性克制表!AQ144 = "", "", [1]屬性克制表!AQ144)</f>
-        <v/>
-      </c>
-      <c r="B144" s="14" t="str">
+        <v>奈克洛茲瑪</v>
+      </c>
+      <c r="B144" s="14">
         <f>IF([1]屬性克制表!AR144 = "", "", [1]屬性克制表!AR144)</f>
-        <v/>
-      </c>
-      <c r="C144" s="14" t="str">
+        <v>34.160000000000004</v>
+      </c>
+      <c r="C144" s="14">
         <f>IF([1]屬性克制表!AS144 = "", "", [1]屬性克制表!AS144)</f>
-        <v/>
+        <v>21.35</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="14" t="str">
         <f>IF([1]屬性克制表!AQ145 = "", "", [1]屬性克制表!AQ145)</f>
-        <v/>
-      </c>
-      <c r="B145" s="14" t="str">
+        <v>Mega巨金怪</v>
+      </c>
+      <c r="B145" s="14">
         <f>IF([1]屬性克制表!AR145 = "", "", [1]屬性克制表!AR145)</f>
-        <v/>
-      </c>
-      <c r="C145" s="14" t="str">
+        <v>29.183999999999997</v>
+      </c>
+      <c r="C145" s="14">
         <f>IF([1]屬性克制表!AS145 = "", "", [1]屬性克制表!AS145)</f>
-        <v/>
+        <v>18.239999999999998</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="str">
         <f>IF([1]屬性克制表!AQ146 = "", "", [1]屬性克制表!AQ146)</f>
-        <v/>
-      </c>
-      <c r="B146" s="14" t="str">
+        <v>巨金怪</v>
+      </c>
+      <c r="B146" s="14">
         <f>IF([1]屬性克制表!AR146 = "", "", [1]屬性克制表!AR146)</f>
-        <v/>
-      </c>
-      <c r="C146" s="14" t="str">
+        <v>25.248000000000001</v>
+      </c>
+      <c r="C146" s="14">
         <f>IF([1]屬性克制表!AS146 = "", "", [1]屬性克制表!AS146)</f>
-        <v/>
+        <v>15.78</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="14" t="str">
         <f>IF([1]屬性克制表!AQ147 = "", "", [1]屬性克制表!AQ147)</f>
-        <v/>
-      </c>
-      <c r="B147" s="14" t="str">
+        <v>起源帝牙盧卡</v>
+      </c>
+      <c r="B147" s="14">
         <f>IF([1]屬性克制表!AR147 = "", "", [1]屬性克制表!AR147)</f>
-        <v/>
-      </c>
-      <c r="C147" s="14" t="str">
+        <v>22.528000000000002</v>
+      </c>
+      <c r="C147" s="14">
         <f>IF([1]屬性克制表!AS147 = "", "", [1]屬性克制表!AS147)</f>
-        <v/>
+        <v>14.08</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="14" t="str">
         <f>IF([1]屬性克制表!AQ148 = "", "", [1]屬性克制表!AQ148)</f>
-        <v/>
-      </c>
-      <c r="B148" s="14" t="str">
+        <v>帝牙盧卡</v>
+      </c>
+      <c r="B148" s="14">
         <f>IF([1]屬性克制表!AR148 = "", "", [1]屬性克制表!AR148)</f>
-        <v/>
-      </c>
-      <c r="C148" s="14" t="str">
+        <v>22.896000000000001</v>
+      </c>
+      <c r="C148" s="14">
         <f>IF([1]屬性克制表!AS148 = "", "", [1]屬性克制表!AS148)</f>
-        <v/>
+        <v>14.31</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="14" t="str">
         <f>IF([1]屬性克制表!AQ149 = "", "", [1]屬性克制表!AQ149)</f>
-        <v/>
-      </c>
-      <c r="B149" s="14" t="str">
+        <v>Mega波士可多拉</v>
+      </c>
+      <c r="B149" s="14">
         <f>IF([1]屬性克制表!AR149 = "", "", [1]屬性克制表!AR149)</f>
-        <v/>
-      </c>
-      <c r="C149" s="14" t="str">
+        <v>21.263999999999999</v>
+      </c>
+      <c r="C149" s="14">
         <f>IF([1]屬性克制表!AS149 = "", "", [1]屬性克制表!AS149)</f>
-        <v/>
+        <v>13.29</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="14" t="str">
         <f>IF([1]屬性克制表!AQ150 = "", "", [1]屬性克制表!AQ150)</f>
-        <v/>
-      </c>
-      <c r="B150" s="14" t="str">
+        <v>美錄梅塔</v>
+      </c>
+      <c r="B150" s="14">
         <f>IF([1]屬性克制表!AR150 = "", "", [1]屬性克制表!AR150)</f>
-        <v/>
-      </c>
-      <c r="C150" s="14" t="str">
+        <v>21.296000000000003</v>
+      </c>
+      <c r="C150" s="14">
         <f>IF([1]屬性克制表!AS150 = "", "", [1]屬性克制表!AS150)</f>
-        <v/>
+        <v>13.31</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="14" t="str">
         <f>IF([1]屬性克制表!AQ151 = "", "", [1]屬性克制表!AQ151)</f>
-        <v/>
-      </c>
-      <c r="B151" s="14" t="str">
+        <v>蓋諾賽克特</v>
+      </c>
+      <c r="B151" s="14">
         <f>IF([1]屬性克制表!AR151 = "", "", [1]屬性克制表!AR151)</f>
-        <v/>
-      </c>
-      <c r="C151" s="14" t="str">
+        <v>22.144000000000002</v>
+      </c>
+      <c r="C151" s="14">
         <f>IF([1]屬性克制表!AS151 = "", "", [1]屬性克制表!AS151)</f>
-        <v/>
+        <v>13.84</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="14" t="str">
         <f>IF([1]屬性克制表!AQ152 = "", "", [1]屬性克制表!AQ152)</f>
+        <v>Mega巨鉗螳螂</v>
+      </c>
+      <c r="B152" s="14">
+        <f>IF([1]屬性克制表!AR152 = "", "", [1]屬性克制表!AR152)</f>
+        <v>21.103999999999999</v>
+      </c>
+      <c r="C152" s="14">
+        <f>IF([1]屬性克制表!AS152 = "", "", [1]屬性克制表!AS152)</f>
+        <v>13.19</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ153 = "", "", [1]屬性克制表!AQ153)</f>
+        <v>龍頭地鼠</v>
+      </c>
+      <c r="B153" s="14">
+        <f>IF([1]屬性克制表!AR153 = "", "", [1]屬性克制表!AR153)</f>
+        <v>21.488</v>
+      </c>
+      <c r="C153" s="14">
+        <f>IF([1]屬性克制表!AS153 = "", "", [1]屬性克制表!AS153)</f>
+        <v>13.43</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ154 = "", "", [1]屬性克制表!AQ154)</f>
+        <v>布魯皇</v>
+      </c>
+      <c r="B154" s="14">
+        <f>IF([1]屬性克制表!AR154 = "", "", [1]屬性克制表!AR154)</f>
+        <v>11.48</v>
+      </c>
+      <c r="C154" s="14">
+        <f>IF([1]屬性克制表!AS154 = "", "", [1]屬性克制表!AS154)</f>
+        <v>11.48</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ155 = "", "", [1]屬性克制表!AQ155)</f>
+        <v>哲爾尼亞斯</v>
+      </c>
+      <c r="B155" s="14">
+        <f>IF([1]屬性克制表!AR155 = "", "", [1]屬性克制表!AR155)</f>
+        <v>13.19</v>
+      </c>
+      <c r="C155" s="14">
+        <f>IF([1]屬性克制表!AS155 = "", "", [1]屬性克制表!AS155)</f>
+        <v>13.19</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ156 = "", "", [1]屬性克制表!AQ156)</f>
+        <v>仙子伊布</v>
+      </c>
+      <c r="B156" s="14">
+        <f>IF([1]屬性克制表!AR156 = "", "", [1]屬性克制表!AR156)</f>
+        <v>11.35</v>
+      </c>
+      <c r="C156" s="14">
+        <f>IF([1]屬性克制表!AS156 = "", "", [1]屬性克制表!AS156)</f>
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ157 = "", "", [1]屬性克制表!AQ157)</f>
+        <v>波克基斯</v>
+      </c>
+      <c r="B157" s="14">
+        <f>IF([1]屬性克制表!AR157 = "", "", [1]屬性克制表!AR157)</f>
+        <v>12.38</v>
+      </c>
+      <c r="C157" s="14">
+        <f>IF([1]屬性克制表!AS157 = "", "", [1]屬性克制表!AS157)</f>
+        <v>12.38</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ158 = "", "", [1]屬性克制表!AQ158)</f>
+        <v>眷戀雲化身形態</v>
+      </c>
+      <c r="B158" s="14">
+        <f>IF([1]屬性克制表!AR158 = "", "", [1]屬性克制表!AR158)</f>
+        <v>14.74</v>
+      </c>
+      <c r="C158" s="14">
+        <f>IF([1]屬性克制表!AS158 = "", "", [1]屬性克制表!AS158)</f>
+        <v>14.74</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ159 = "", "", [1]屬性克制表!AQ159)</f>
+        <v>沙奈朵</v>
+      </c>
+      <c r="B159" s="14">
+        <f>IF([1]屬性克制表!AR159 = "", "", [1]屬性克制表!AR159)</f>
+        <v>12.73</v>
+      </c>
+      <c r="C159" s="14">
+        <f>IF([1]屬性克制表!AS159 = "", "", [1]屬性克制表!AS159)</f>
+        <v>12.73</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ160 = "", "", [1]屬性克制表!AQ160)</f>
+        <v>布莉姆溫</v>
+      </c>
+      <c r="B160" s="14">
+        <f>IF([1]屬性克制表!AR160 = "", "", [1]屬性克制表!AR160)</f>
+        <v>12.45</v>
+      </c>
+      <c r="C160" s="14">
+        <f>IF([1]屬性克制表!AS160 = "", "", [1]屬性克制表!AS160)</f>
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ161 = "", "", [1]屬性克制表!AQ161)</f>
+        <v>卡璞・蝶蝶</v>
+      </c>
+      <c r="B161" s="14">
+        <f>IF([1]屬性克制表!AR161 = "", "", [1]屬性克制表!AR161)</f>
+        <v>13.54</v>
+      </c>
+      <c r="C161" s="14">
+        <f>IF([1]屬性克制表!AS161 = "", "", [1]屬性克制表!AS161)</f>
+        <v>13.54</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ162 = "", "", [1]屬性克制表!AQ162)</f>
+        <v>卡璞・鳴鳴</v>
+      </c>
+      <c r="B162" s="14">
+        <f>IF([1]屬性克制表!AR162 = "", "", [1]屬性克制表!AR162)</f>
+        <v>13.63</v>
+      </c>
+      <c r="C162" s="14">
+        <f>IF([1]屬性克制表!AS162 = "", "", [1]屬性克制表!AS162)</f>
+        <v>13.63</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ163 = "", "", [1]屬性克制表!AQ163)</f>
+        <v>卡璞・哞哞</v>
+      </c>
+      <c r="B163" s="14">
+        <f>IF([1]屬性克制表!AR163 = "", "", [1]屬性克制表!AR163)</f>
+        <v>13.34</v>
+      </c>
+      <c r="C163" s="14">
+        <f>IF([1]屬性克制表!AS163 = "", "", [1]屬性克制表!AS163)</f>
+        <v>13.34</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ164 = "", "", [1]屬性克制表!AQ164)</f>
         <v/>
       </c>
-      <c r="B152" s="14" t="str">
-        <f>IF([1]屬性克制表!AR152 = "", "", [1]屬性克制表!AR152)</f>
+      <c r="B164" s="14" t="str">
+        <f>IF([1]屬性克制表!AR164 = "", "", [1]屬性克制表!AR164)</f>
         <v/>
       </c>
-      <c r="C152" s="14" t="str">
-        <f>IF([1]屬性克制表!AS152 = "", "", [1]屬性克制表!AS152)</f>
+      <c r="C164" s="14" t="str">
+        <f>IF([1]屬性克制表!AS164 = "", "", [1]屬性克制表!AS164)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ165 = "", "", [1]屬性克制表!AQ165)</f>
+        <v/>
+      </c>
+      <c r="B165" s="14" t="str">
+        <f>IF([1]屬性克制表!AR165 = "", "", [1]屬性克制表!AR165)</f>
+        <v/>
+      </c>
+      <c r="C165" s="14" t="str">
+        <f>IF([1]屬性克制表!AS165 = "", "", [1]屬性克制表!AS165)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ166 = "", "", [1]屬性克制表!AQ166)</f>
+        <v/>
+      </c>
+      <c r="B166" s="14" t="str">
+        <f>IF([1]屬性克制表!AR166 = "", "", [1]屬性克制表!AR166)</f>
+        <v/>
+      </c>
+      <c r="C166" s="14" t="str">
+        <f>IF([1]屬性克制表!AS166 = "", "", [1]屬性克制表!AS166)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ167 = "", "", [1]屬性克制表!AQ167)</f>
+        <v/>
+      </c>
+      <c r="B167" s="14" t="str">
+        <f>IF([1]屬性克制表!AR167 = "", "", [1]屬性克制表!AR167)</f>
+        <v/>
+      </c>
+      <c r="C167" s="14" t="str">
+        <f>IF([1]屬性克制表!AS167 = "", "", [1]屬性克制表!AS167)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="14" t="str">
+        <f>IF([1]屬性克制表!AQ168 = "", "", [1]屬性克制表!AQ168)</f>
+        <v/>
+      </c>
+      <c r="B168" s="14" t="str">
+        <f>IF([1]屬性克制表!AR168 = "", "", [1]屬性克制表!AR168)</f>
+        <v/>
+      </c>
+      <c r="C168" s="14" t="str">
+        <f>IF([1]屬性克制表!AS168 = "", "", [1]屬性克制表!AS168)</f>
         <v/>
       </c>
     </row>

--- a/DPS.xlsx
+++ b/DPS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\寶可夢\Pokemon_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98344DA1-BC74-48B1-9BCC-422E49FAF9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DBA1F1-8C18-4815-9A15-0D063CFC1073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1174,968 +1174,968 @@
           </cell>
         </row>
         <row r="76">
+          <cell r="AO76" t="str">
+            <v>地面</v>
+          </cell>
           <cell r="AQ76" t="str">
             <v>暗影固拉多</v>
           </cell>
-          <cell r="AR76">
-            <v>17.66</v>
-          </cell>
           <cell r="AS76">
             <v>17.66</v>
           </cell>
         </row>
         <row r="77">
+          <cell r="AO77" t="str">
+            <v>地面</v>
+          </cell>
           <cell r="AQ77" t="str">
             <v>Mega巨沼怪</v>
           </cell>
-          <cell r="AR77">
-            <v>14.54</v>
-          </cell>
           <cell r="AS77">
             <v>14.54</v>
           </cell>
         </row>
         <row r="78">
+          <cell r="AO78" t="str">
+            <v>地面</v>
+          </cell>
           <cell r="AQ78" t="str">
             <v>固拉多</v>
           </cell>
-          <cell r="AR78">
-            <v>15.04</v>
-          </cell>
           <cell r="AS78">
             <v>15.04</v>
           </cell>
         </row>
         <row r="79">
+          <cell r="AO79" t="str">
+            <v>地面</v>
+          </cell>
           <cell r="AQ79" t="str">
             <v>土地雲-靈獸形態</v>
           </cell>
-          <cell r="AR79">
-            <v>16.46</v>
-          </cell>
           <cell r="AS79">
             <v>16.46</v>
           </cell>
         </row>
         <row r="80">
+          <cell r="AO80" t="str">
+            <v>地面</v>
+          </cell>
           <cell r="AQ80" t="str">
             <v>超甲狂犀</v>
           </cell>
-          <cell r="AR80">
-            <v>13.15</v>
-          </cell>
           <cell r="AS80">
             <v>13.15</v>
           </cell>
         </row>
         <row r="81">
+          <cell r="AO81" t="str">
+            <v>地面</v>
+          </cell>
           <cell r="AQ81" t="str">
             <v>土地雲-化身形態</v>
           </cell>
-          <cell r="AR81">
-            <v>13.82</v>
-          </cell>
           <cell r="AS81">
             <v>13.82</v>
           </cell>
         </row>
         <row r="82">
+          <cell r="AO82" t="str">
+            <v>地面</v>
+          </cell>
           <cell r="AQ82" t="str">
             <v>龍頭地鼠</v>
           </cell>
-          <cell r="AR82">
-            <v>14.03</v>
-          </cell>
           <cell r="AS82">
             <v>14.03</v>
           </cell>
         </row>
         <row r="83">
+          <cell r="AO83" t="str">
+            <v>地面</v>
+          </cell>
           <cell r="AQ83" t="str">
             <v>烈咬陸鯊</v>
           </cell>
-          <cell r="AR83">
-            <v>14.06</v>
-          </cell>
           <cell r="AS83">
             <v>14.06</v>
           </cell>
         </row>
         <row r="84">
+          <cell r="AO84" t="str">
+            <v>超能力</v>
+          </cell>
           <cell r="AQ84" t="str">
             <v>胡地</v>
           </cell>
-          <cell r="AR84">
-            <v>14.6</v>
-          </cell>
           <cell r="AS84">
             <v>14.6</v>
           </cell>
         </row>
         <row r="85">
+          <cell r="AO85" t="str">
+            <v>超能力</v>
+          </cell>
           <cell r="AQ85" t="str">
             <v>Mega拉帝亞斯</v>
           </cell>
-          <cell r="AR85">
-            <v>15.59</v>
-          </cell>
           <cell r="AS85">
             <v>15.59</v>
           </cell>
         </row>
         <row r="86">
+          <cell r="AO86" t="str">
+            <v>超能力</v>
+          </cell>
           <cell r="AQ86" t="str">
             <v>Mega巨金怪</v>
           </cell>
-          <cell r="AR86">
-            <v>16.14</v>
-          </cell>
           <cell r="AS86">
             <v>16.14</v>
           </cell>
         </row>
         <row r="87">
+          <cell r="AO87" t="str">
+            <v>超能力</v>
+          </cell>
           <cell r="AQ87" t="str">
             <v>胡帕</v>
           </cell>
-          <cell r="AR87">
-            <v>17.23</v>
-          </cell>
           <cell r="AS87">
             <v>17.23</v>
           </cell>
         </row>
         <row r="88">
+          <cell r="AO88" t="str">
+            <v>超能力</v>
+          </cell>
           <cell r="AQ88" t="str">
             <v>超夢</v>
           </cell>
-          <cell r="AR88">
-            <v>18.39</v>
-          </cell>
           <cell r="AS88">
             <v>18.39</v>
           </cell>
         </row>
         <row r="89">
+          <cell r="AO89" t="str">
+            <v>超能力</v>
+          </cell>
           <cell r="AQ89" t="str">
             <v>Mega胡地</v>
           </cell>
-          <cell r="AR89">
-            <v>19.809999999999999</v>
-          </cell>
           <cell r="AS89">
             <v>19.809999999999999</v>
           </cell>
         </row>
         <row r="90">
+          <cell r="AO90" t="str">
+            <v>超能力</v>
+          </cell>
           <cell r="AQ90" t="str">
             <v>Mega沙奈朵</v>
           </cell>
-          <cell r="AR90">
-            <v>18.100000000000001</v>
-          </cell>
           <cell r="AS90">
             <v>18.100000000000001</v>
           </cell>
         </row>
         <row r="91">
+          <cell r="AO91" t="str">
+            <v>超能力</v>
+          </cell>
           <cell r="AQ91" t="str">
             <v>Mega拉帝歐斯</v>
           </cell>
-          <cell r="AR91">
-            <v>17.88</v>
-          </cell>
           <cell r="AS91">
             <v>17.88</v>
           </cell>
         </row>
         <row r="92">
+          <cell r="AO92" t="str">
+            <v>岩石</v>
+          </cell>
           <cell r="AQ92" t="str">
             <v>Mega蒂安希</v>
           </cell>
-          <cell r="AR92">
-            <v>27.616000000000003</v>
-          </cell>
           <cell r="AS92">
             <v>17.260000000000002</v>
           </cell>
         </row>
         <row r="93">
+          <cell r="AO93" t="str">
+            <v>岩石</v>
+          </cell>
           <cell r="AQ93" t="str">
             <v>Mega化石翼龍</v>
           </cell>
-          <cell r="AR93">
-            <v>24.448</v>
-          </cell>
           <cell r="AS93">
             <v>15.28</v>
           </cell>
         </row>
         <row r="94">
+          <cell r="AO94" t="str">
+            <v>冰</v>
+          </cell>
           <cell r="AQ94" t="str">
             <v>龐岩怪</v>
           </cell>
-          <cell r="AR94">
-            <v>8.0875000000000004</v>
-          </cell>
           <cell r="AS94">
             <v>12.94</v>
           </cell>
         </row>
         <row r="95">
+          <cell r="AO95" t="str">
+            <v>冰</v>
+          </cell>
           <cell r="AQ95" t="str">
             <v>代拉基翁</v>
           </cell>
-          <cell r="AR95">
-            <v>8.4562499999999989</v>
-          </cell>
           <cell r="AS95">
             <v>13.53</v>
           </cell>
         </row>
         <row r="96">
+          <cell r="AO96" t="str">
+            <v>冰</v>
+          </cell>
           <cell r="AQ96" t="str">
             <v>超甲狂犀</v>
           </cell>
-          <cell r="AR96">
-            <v>8.8375000000000004</v>
-          </cell>
           <cell r="AS96">
             <v>14.14</v>
           </cell>
         </row>
         <row r="97">
+          <cell r="AO97" t="str">
+            <v>冰</v>
+          </cell>
           <cell r="AQ97" t="str">
             <v>戰槌龍</v>
           </cell>
-          <cell r="AR97">
-            <v>9.25</v>
-          </cell>
           <cell r="AS97">
             <v>14.8</v>
           </cell>
         </row>
         <row r="98">
+          <cell r="AO98" t="str">
+            <v>冰</v>
+          </cell>
           <cell r="AQ98" t="str">
             <v>闇黑酋雷姆</v>
           </cell>
-          <cell r="AR98">
-            <v>10.612500000000001</v>
-          </cell>
           <cell r="AS98">
             <v>16.98</v>
           </cell>
         </row>
         <row r="99">
+          <cell r="AO99" t="str">
+            <v>冰</v>
+          </cell>
           <cell r="AQ99" t="str">
             <v>戟脊龍</v>
           </cell>
-          <cell r="AR99">
-            <v>8.6687499999999993</v>
-          </cell>
           <cell r="AS99">
             <v>13.87</v>
           </cell>
         </row>
         <row r="100">
+          <cell r="AO100" t="str">
+            <v>冰</v>
+          </cell>
           <cell r="AQ100" t="str">
             <v>冰伊布</v>
           </cell>
-          <cell r="AR100">
-            <v>7.9375</v>
-          </cell>
           <cell r="AS100">
             <v>12.7</v>
           </cell>
         </row>
         <row r="101">
+          <cell r="AO101" t="str">
+            <v>冰</v>
+          </cell>
           <cell r="AQ101" t="str">
             <v>達摩狒狒 伽勒爾</v>
           </cell>
-          <cell r="AR101">
-            <v>8.7312500000000011</v>
-          </cell>
           <cell r="AS101">
             <v>13.97</v>
           </cell>
         </row>
         <row r="102">
+          <cell r="AO102" t="str">
+            <v>冰</v>
+          </cell>
           <cell r="AQ102" t="str">
             <v>Mega冰鬼護</v>
           </cell>
-          <cell r="AR102">
-            <v>8.4437499999999996</v>
-          </cell>
           <cell r="AS102">
             <v>13.51</v>
           </cell>
         </row>
         <row r="103">
+          <cell r="AO103" t="str">
+            <v>冰</v>
+          </cell>
           <cell r="AQ103" t="str">
             <v>Mega暴雪王</v>
           </cell>
-          <cell r="AR103">
-            <v>8.4624999999999986</v>
-          </cell>
           <cell r="AS103">
             <v>13.54</v>
           </cell>
         </row>
         <row r="104">
+          <cell r="AO104" t="str">
+            <v>冰</v>
+          </cell>
           <cell r="AQ104" t="str">
             <v>象牙豬</v>
           </cell>
-          <cell r="AR104">
-            <v>8.40625</v>
-          </cell>
           <cell r="AS104">
             <v>13.45</v>
           </cell>
         </row>
         <row r="105">
+          <cell r="AO105" t="str">
+            <v>蟲</v>
+          </cell>
           <cell r="AQ105" t="str">
             <v>費洛美螂</v>
           </cell>
-          <cell r="AR105">
-            <v>14.5</v>
-          </cell>
           <cell r="AS105">
             <v>14.5</v>
           </cell>
         </row>
         <row r="106">
+          <cell r="AO106" t="str">
+            <v>蟲</v>
+          </cell>
           <cell r="AQ106" t="str">
             <v>Mega大針鋒</v>
           </cell>
-          <cell r="AR106">
-            <v>15.25</v>
-          </cell>
           <cell r="AS106">
             <v>15.25</v>
           </cell>
         </row>
         <row r="107">
+          <cell r="AO107" t="str">
+            <v>蟲</v>
+          </cell>
           <cell r="AQ107" t="str">
             <v>Mega赫拉克羅斯</v>
           </cell>
-          <cell r="AR107">
-            <v>15.44</v>
-          </cell>
           <cell r="AS107">
             <v>15.44</v>
           </cell>
         </row>
         <row r="108">
+          <cell r="AO108" t="str">
+            <v>蟲</v>
+          </cell>
           <cell r="AQ108" t="str">
             <v>Mega巨鉗螳螂</v>
           </cell>
-          <cell r="AR108">
-            <v>14.57</v>
-          </cell>
           <cell r="AS108">
             <v>14.57</v>
           </cell>
         </row>
         <row r="109">
+          <cell r="AO109" t="str">
+            <v>蟲</v>
+          </cell>
           <cell r="AQ109" t="str">
             <v>蓋諾賽克特</v>
           </cell>
-          <cell r="AR109">
-            <v>13.27</v>
-          </cell>
           <cell r="AS109">
             <v>13.27</v>
           </cell>
         </row>
         <row r="110">
+          <cell r="AO110" t="str">
+            <v>蟲</v>
+          </cell>
           <cell r="AQ110" t="str">
             <v>火神蛾</v>
           </cell>
-          <cell r="AR110">
-            <v>14.15</v>
-          </cell>
           <cell r="AS110">
             <v>14.15</v>
           </cell>
         </row>
         <row r="111">
+          <cell r="AO111" t="str">
+            <v>龍</v>
+          </cell>
           <cell r="AQ111" t="str">
             <v>烈咬陸鯊</v>
           </cell>
-          <cell r="AR111">
-            <v>16.07</v>
-          </cell>
           <cell r="AS111">
             <v>16.07</v>
           </cell>
         </row>
         <row r="112">
+          <cell r="AO112" t="str">
+            <v>龍</v>
+          </cell>
           <cell r="AQ112" t="str">
             <v>雙斧戰龍</v>
           </cell>
-          <cell r="AR112">
-            <v>16.920000000000002</v>
-          </cell>
           <cell r="AS112">
             <v>16.920000000000002</v>
           </cell>
         </row>
         <row r="113">
+          <cell r="AO113" t="str">
+            <v>龍</v>
+          </cell>
           <cell r="AQ113" t="str">
             <v>起源帝牙盧卡</v>
           </cell>
-          <cell r="AR113">
-            <v>16.97</v>
-          </cell>
           <cell r="AS113">
             <v>16.97</v>
           </cell>
         </row>
         <row r="114">
+          <cell r="AO114" t="str">
+            <v>龍</v>
+          </cell>
           <cell r="AQ114" t="str">
             <v>烈空坐</v>
           </cell>
-          <cell r="AR114">
-            <v>17.190000000000001</v>
-          </cell>
           <cell r="AS114">
             <v>17.190000000000001</v>
           </cell>
         </row>
         <row r="115">
+          <cell r="AO115" t="str">
+            <v>龍</v>
+          </cell>
           <cell r="AQ115" t="str">
             <v>起源帕路奇亞</v>
           </cell>
-          <cell r="AR115">
-            <v>17.79</v>
-          </cell>
           <cell r="AS115">
             <v>17.79</v>
           </cell>
         </row>
         <row r="116">
+          <cell r="AO116" t="str">
+            <v>龍</v>
+          </cell>
           <cell r="AQ116" t="str">
             <v>帕路奇亞</v>
           </cell>
-          <cell r="AR116">
-            <v>15.91</v>
-          </cell>
           <cell r="AS116">
             <v>15.91</v>
           </cell>
         </row>
         <row r="117">
+          <cell r="AO117" t="str">
+            <v>龍</v>
+          </cell>
           <cell r="AQ117" t="str">
             <v>帝牙盧卡</v>
           </cell>
-          <cell r="AR117">
-            <v>15.12</v>
-          </cell>
           <cell r="AS117">
             <v>15.12</v>
           </cell>
         </row>
         <row r="118">
+          <cell r="AO118" t="str">
+            <v>龍</v>
+          </cell>
           <cell r="AQ118" t="str">
             <v>戟脊龍</v>
           </cell>
-          <cell r="AR118">
-            <v>14.14</v>
-          </cell>
           <cell r="AS118">
             <v>14.14</v>
           </cell>
         </row>
         <row r="119">
+          <cell r="AO119" t="str">
+            <v>龍</v>
+          </cell>
           <cell r="AQ119" t="str">
             <v>快龍</v>
           </cell>
-          <cell r="AR119">
-            <v>15.16</v>
-          </cell>
           <cell r="AS119">
             <v>15.16</v>
           </cell>
         </row>
         <row r="120">
+          <cell r="AO120" t="str">
+            <v>龍</v>
+          </cell>
           <cell r="AQ120" t="str">
             <v>Mega拉帝歐斯</v>
           </cell>
-          <cell r="AR120">
-            <v>15.69</v>
-          </cell>
           <cell r="AS120">
             <v>15.69</v>
           </cell>
         </row>
         <row r="121">
+          <cell r="AO121" t="str">
+            <v>龍</v>
+          </cell>
           <cell r="AQ121" t="str">
             <v>暴飛龍</v>
           </cell>
-          <cell r="AR121">
-            <v>17.79</v>
-          </cell>
           <cell r="AS121">
             <v>17.79</v>
           </cell>
         </row>
         <row r="122">
+          <cell r="AO122" t="str">
+            <v>龍</v>
+          </cell>
           <cell r="AQ122" t="str">
             <v>Nega噴火龍X</v>
           </cell>
-          <cell r="AR122">
-            <v>14.15</v>
-          </cell>
           <cell r="AS122">
             <v>14.15</v>
           </cell>
         </row>
         <row r="123">
+          <cell r="AO123" t="str">
+            <v>龍</v>
+          </cell>
           <cell r="AQ123" t="str">
             <v>Mega烈空坐</v>
           </cell>
-          <cell r="AR123">
-            <v>22.51</v>
-          </cell>
           <cell r="AS123">
             <v>22.51</v>
           </cell>
         </row>
         <row r="124">
+          <cell r="AO124" t="str">
+            <v>龍</v>
+          </cell>
           <cell r="AQ124" t="str">
             <v>Mega烈咬陸鯊</v>
           </cell>
-          <cell r="AR124">
-            <v>20.420000000000002</v>
-          </cell>
           <cell r="AS124">
             <v>20.420000000000002</v>
           </cell>
         </row>
         <row r="125">
+          <cell r="AO125" t="str">
+            <v>龍</v>
+          </cell>
           <cell r="AQ125" t="str">
             <v>闇黑酋雷姆</v>
           </cell>
-          <cell r="AR125">
-            <v>17.68</v>
-          </cell>
           <cell r="AS125">
             <v>17.68</v>
           </cell>
         </row>
         <row r="126">
+          <cell r="AO126" t="str">
+            <v>龍</v>
+          </cell>
           <cell r="AQ126" t="str">
             <v>Mega暴飛龍</v>
           </cell>
-          <cell r="AR126">
-            <v>17.87</v>
-          </cell>
           <cell r="AS126">
             <v>17.87</v>
           </cell>
         </row>
         <row r="127">
+          <cell r="AO127" t="str">
+            <v>幽靈</v>
+          </cell>
           <cell r="AQ127" t="str">
             <v>砰頭小丑</v>
           </cell>
-          <cell r="AR127">
-            <v>15.53</v>
-          </cell>
           <cell r="AS127">
             <v>15.53</v>
           </cell>
         </row>
         <row r="128">
+          <cell r="AO128" t="str">
+            <v>幽靈</v>
+          </cell>
           <cell r="AQ128" t="str">
             <v>耿鬼</v>
           </cell>
-          <cell r="AR128">
-            <v>14.77</v>
-          </cell>
           <cell r="AS128">
             <v>14.77</v>
           </cell>
         </row>
         <row r="129">
+          <cell r="AO129" t="str">
+            <v>幽靈</v>
+          </cell>
           <cell r="AQ129" t="str">
             <v>Mega耿鬼</v>
           </cell>
-          <cell r="AR129">
-            <v>19.809999999999999</v>
-          </cell>
           <cell r="AS129">
             <v>19.809999999999999</v>
           </cell>
         </row>
         <row r="130">
+          <cell r="AO130" t="str">
+            <v>幽靈</v>
+          </cell>
           <cell r="AQ130" t="str">
             <v>Mega詛咒娃娃</v>
           </cell>
-          <cell r="AR130">
-            <v>17.059999999999999</v>
-          </cell>
           <cell r="AS130">
             <v>17.059999999999999</v>
           </cell>
         </row>
         <row r="131">
+          <cell r="AO131" t="str">
+            <v>幽靈</v>
+          </cell>
           <cell r="AQ131" t="str">
             <v>水晶燈火靈</v>
           </cell>
-          <cell r="AR131">
-            <v>14.67</v>
-          </cell>
           <cell r="AS131">
             <v>14.67</v>
           </cell>
         </row>
         <row r="132">
+          <cell r="AO132" t="str">
+            <v>惡</v>
+          </cell>
           <cell r="AQ132" t="str">
             <v>暴飛龍</v>
           </cell>
-          <cell r="AR132">
-            <v>13.57</v>
-          </cell>
           <cell r="AS132">
             <v>13.57</v>
           </cell>
         </row>
         <row r="133">
+          <cell r="AO133" t="str">
+            <v>惡</v>
+          </cell>
           <cell r="AQ133" t="str">
             <v>伊裴爾塔爾</v>
           </cell>
-          <cell r="AR133">
-            <v>13.34</v>
-          </cell>
           <cell r="AS133">
             <v>13.34</v>
           </cell>
         </row>
         <row r="134">
+          <cell r="AO134" t="str">
+            <v>惡</v>
+          </cell>
           <cell r="AQ134" t="str">
             <v>巨牙鯊</v>
           </cell>
-          <cell r="AR134">
-            <v>14.03</v>
-          </cell>
           <cell r="AS134">
             <v>14.03</v>
           </cell>
         </row>
         <row r="135">
+          <cell r="AO135" t="str">
+            <v>惡</v>
+          </cell>
           <cell r="AQ135" t="str">
             <v>達克萊伊</v>
           </cell>
-          <cell r="AR135">
-            <v>14.64</v>
-          </cell>
           <cell r="AS135">
             <v>14.64</v>
           </cell>
         </row>
         <row r="136">
+          <cell r="AO136" t="str">
+            <v>惡</v>
+          </cell>
           <cell r="AQ136" t="str">
             <v>Mega暴飛龍</v>
           </cell>
-          <cell r="AR136">
-            <v>14.98</v>
-          </cell>
           <cell r="AS136">
             <v>14.98</v>
           </cell>
         </row>
         <row r="137">
+          <cell r="AO137" t="str">
+            <v>惡</v>
+          </cell>
           <cell r="AQ137" t="str">
             <v>Mega黑魯加</v>
           </cell>
-          <cell r="AR137">
-            <v>16.079999999999998</v>
-          </cell>
           <cell r="AS137">
             <v>16.079999999999998</v>
           </cell>
         </row>
         <row r="138">
+          <cell r="AO138" t="str">
+            <v>惡</v>
+          </cell>
           <cell r="AQ138" t="str">
             <v>Mega暴鯉龍</v>
           </cell>
-          <cell r="AR138">
-            <v>14.23</v>
-          </cell>
           <cell r="AS138">
             <v>14.23</v>
           </cell>
         </row>
         <row r="139">
+          <cell r="AO139" t="str">
+            <v>惡</v>
+          </cell>
           <cell r="AQ139" t="str">
             <v>達克萊伊</v>
           </cell>
-          <cell r="AR139">
-            <v>14.64</v>
-          </cell>
           <cell r="AS139">
             <v>14.64</v>
           </cell>
         </row>
         <row r="140">
+          <cell r="AO140" t="str">
+            <v>惡</v>
+          </cell>
           <cell r="AQ140" t="str">
             <v>班基拉斯</v>
           </cell>
-          <cell r="AR140">
-            <v>14.82</v>
-          </cell>
           <cell r="AS140">
             <v>14.82</v>
           </cell>
         </row>
         <row r="141">
+          <cell r="AO141" t="str">
+            <v>惡</v>
+          </cell>
           <cell r="AQ141" t="str">
             <v>三首惡龍</v>
           </cell>
-          <cell r="AR141">
-            <v>15.01</v>
-          </cell>
           <cell r="AS141">
             <v>15.01</v>
           </cell>
         </row>
         <row r="142">
+          <cell r="AO142" t="str">
+            <v>惡</v>
+          </cell>
           <cell r="AQ142" t="str">
             <v>Mega阿勃梭魯</v>
           </cell>
-          <cell r="AR142">
-            <v>17.95</v>
-          </cell>
           <cell r="AS142">
             <v>17.95</v>
           </cell>
         </row>
         <row r="143">
+          <cell r="AO143" t="str">
+            <v>鋼</v>
+          </cell>
           <cell r="AQ143" t="str">
             <v>盾之王</v>
           </cell>
-          <cell r="AR143">
-            <v>34.992000000000004</v>
-          </cell>
           <cell r="AS143">
             <v>21.87</v>
           </cell>
         </row>
         <row r="144">
+          <cell r="AO144" t="str">
+            <v>鋼</v>
+          </cell>
           <cell r="AQ144" t="str">
             <v>奈克洛茲瑪</v>
           </cell>
-          <cell r="AR144">
-            <v>34.160000000000004</v>
-          </cell>
           <cell r="AS144">
             <v>21.35</v>
           </cell>
         </row>
         <row r="145">
+          <cell r="AO145" t="str">
+            <v>鋼</v>
+          </cell>
           <cell r="AQ145" t="str">
             <v>Mega巨金怪</v>
           </cell>
-          <cell r="AR145">
-            <v>29.183999999999997</v>
-          </cell>
           <cell r="AS145">
             <v>18.239999999999998</v>
           </cell>
         </row>
         <row r="146">
+          <cell r="AO146" t="str">
+            <v>鋼</v>
+          </cell>
           <cell r="AQ146" t="str">
             <v>巨金怪</v>
           </cell>
-          <cell r="AR146">
-            <v>25.248000000000001</v>
-          </cell>
           <cell r="AS146">
             <v>15.78</v>
           </cell>
         </row>
         <row r="147">
+          <cell r="AO147" t="str">
+            <v>鋼</v>
+          </cell>
           <cell r="AQ147" t="str">
             <v>起源帝牙盧卡</v>
           </cell>
-          <cell r="AR147">
-            <v>22.528000000000002</v>
-          </cell>
           <cell r="AS147">
             <v>14.08</v>
           </cell>
         </row>
         <row r="148">
+          <cell r="AO148" t="str">
+            <v>鋼</v>
+          </cell>
           <cell r="AQ148" t="str">
             <v>帝牙盧卡</v>
           </cell>
-          <cell r="AR148">
-            <v>22.896000000000001</v>
-          </cell>
           <cell r="AS148">
             <v>14.31</v>
           </cell>
         </row>
         <row r="149">
+          <cell r="AO149" t="str">
+            <v>鋼</v>
+          </cell>
           <cell r="AQ149" t="str">
             <v>Mega波士可多拉</v>
           </cell>
-          <cell r="AR149">
-            <v>21.263999999999999</v>
-          </cell>
           <cell r="AS149">
             <v>13.29</v>
           </cell>
         </row>
         <row r="150">
+          <cell r="AO150" t="str">
+            <v>鋼</v>
+          </cell>
           <cell r="AQ150" t="str">
             <v>美錄梅塔</v>
           </cell>
-          <cell r="AR150">
-            <v>21.296000000000003</v>
-          </cell>
           <cell r="AS150">
             <v>13.31</v>
           </cell>
         </row>
         <row r="151">
+          <cell r="AO151" t="str">
+            <v>鋼</v>
+          </cell>
           <cell r="AQ151" t="str">
             <v>蓋諾賽克特</v>
           </cell>
-          <cell r="AR151">
-            <v>22.144000000000002</v>
-          </cell>
           <cell r="AS151">
             <v>13.84</v>
           </cell>
         </row>
         <row r="152">
+          <cell r="AO152" t="str">
+            <v>鋼</v>
+          </cell>
           <cell r="AQ152" t="str">
             <v>Mega巨鉗螳螂</v>
           </cell>
-          <cell r="AR152">
-            <v>21.103999999999999</v>
-          </cell>
           <cell r="AS152">
             <v>13.19</v>
           </cell>
         </row>
         <row r="153">
+          <cell r="AO153" t="str">
+            <v>鋼</v>
+          </cell>
           <cell r="AQ153" t="str">
             <v>龍頭地鼠</v>
           </cell>
-          <cell r="AR153">
-            <v>21.488</v>
-          </cell>
           <cell r="AS153">
             <v>13.43</v>
           </cell>
         </row>
         <row r="154">
+          <cell r="AO154" t="str">
+            <v>妖精</v>
+          </cell>
           <cell r="AQ154" t="str">
             <v>布魯皇</v>
           </cell>
-          <cell r="AR154">
-            <v>11.48</v>
-          </cell>
           <cell r="AS154">
             <v>11.48</v>
           </cell>
         </row>
         <row r="155">
+          <cell r="AO155" t="str">
+            <v>妖精</v>
+          </cell>
           <cell r="AQ155" t="str">
             <v>哲爾尼亞斯</v>
           </cell>
-          <cell r="AR155">
-            <v>13.19</v>
-          </cell>
           <cell r="AS155">
             <v>13.19</v>
           </cell>
         </row>
         <row r="156">
+          <cell r="AO156" t="str">
+            <v>妖精</v>
+          </cell>
           <cell r="AQ156" t="str">
             <v>仙子伊布</v>
           </cell>
-          <cell r="AR156">
-            <v>11.35</v>
-          </cell>
           <cell r="AS156">
             <v>11.35</v>
           </cell>
         </row>
         <row r="157">
+          <cell r="AO157" t="str">
+            <v>妖精</v>
+          </cell>
           <cell r="AQ157" t="str">
             <v>波克基斯</v>
           </cell>
-          <cell r="AR157">
-            <v>12.38</v>
-          </cell>
           <cell r="AS157">
             <v>12.38</v>
           </cell>
         </row>
         <row r="158">
+          <cell r="AO158" t="str">
+            <v>妖精</v>
+          </cell>
           <cell r="AQ158" t="str">
             <v>眷戀雲化身形態</v>
           </cell>
-          <cell r="AR158">
-            <v>14.74</v>
-          </cell>
           <cell r="AS158">
             <v>14.74</v>
           </cell>
         </row>
         <row r="159">
+          <cell r="AO159" t="str">
+            <v>妖精</v>
+          </cell>
           <cell r="AQ159" t="str">
             <v>沙奈朵</v>
           </cell>
-          <cell r="AR159">
-            <v>12.73</v>
-          </cell>
           <cell r="AS159">
             <v>12.73</v>
           </cell>
         </row>
         <row r="160">
+          <cell r="AO160" t="str">
+            <v>妖精</v>
+          </cell>
           <cell r="AQ160" t="str">
             <v>布莉姆溫</v>
           </cell>
-          <cell r="AR160">
-            <v>12.45</v>
-          </cell>
           <cell r="AS160">
             <v>12.45</v>
           </cell>
         </row>
         <row r="161">
+          <cell r="AO161" t="str">
+            <v>妖精</v>
+          </cell>
           <cell r="AQ161" t="str">
             <v>卡璞・蝶蝶</v>
           </cell>
-          <cell r="AR161">
-            <v>13.54</v>
-          </cell>
           <cell r="AS161">
             <v>13.54</v>
           </cell>
         </row>
         <row r="162">
+          <cell r="AO162" t="str">
+            <v>妖精</v>
+          </cell>
           <cell r="AQ162" t="str">
             <v>卡璞・鳴鳴</v>
           </cell>
-          <cell r="AR162">
-            <v>13.63</v>
-          </cell>
           <cell r="AS162">
             <v>13.63</v>
           </cell>
         </row>
         <row r="163">
+          <cell r="AO163" t="str">
+            <v>妖精</v>
+          </cell>
           <cell r="AQ163" t="str">
             <v>卡璞・哞哞</v>
-          </cell>
-          <cell r="AR163">
-            <v>13.34</v>
           </cell>
           <cell r="AS163">
             <v>13.34</v>
@@ -2413,10 +2413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X168"/>
+  <dimension ref="A1:X163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C164" sqref="C164"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.3"/>
@@ -4677,9 +4677,9 @@
         <f>IF([1]屬性克制表!AQ76 = "", "", [1]屬性克制表!AQ76)</f>
         <v>暗影固拉多</v>
       </c>
-      <c r="B76" s="14">
-        <f>IF([1]屬性克制表!AR76 = "", "", [1]屬性克制表!AR76)</f>
-        <v>17.66</v>
+      <c r="B76" s="15" t="str">
+        <f>[1]屬性克制表!AO76</f>
+        <v>地面</v>
       </c>
       <c r="C76" s="14">
         <f>IF([1]屬性克制表!AS76 = "", "", [1]屬性克制表!AS76)</f>
@@ -4691,9 +4691,9 @@
         <f>IF([1]屬性克制表!AQ77 = "", "", [1]屬性克制表!AQ77)</f>
         <v>Mega巨沼怪</v>
       </c>
-      <c r="B77" s="14">
-        <f>IF([1]屬性克制表!AR77 = "", "", [1]屬性克制表!AR77)</f>
-        <v>14.54</v>
+      <c r="B77" s="15" t="str">
+        <f>[1]屬性克制表!AO77</f>
+        <v>地面</v>
       </c>
       <c r="C77" s="14">
         <f>IF([1]屬性克制表!AS77 = "", "", [1]屬性克制表!AS77)</f>
@@ -4705,9 +4705,9 @@
         <f>IF([1]屬性克制表!AQ78 = "", "", [1]屬性克制表!AQ78)</f>
         <v>固拉多</v>
       </c>
-      <c r="B78" s="14">
-        <f>IF([1]屬性克制表!AR78 = "", "", [1]屬性克制表!AR78)</f>
-        <v>15.04</v>
+      <c r="B78" s="15" t="str">
+        <f>[1]屬性克制表!AO78</f>
+        <v>地面</v>
       </c>
       <c r="C78" s="14">
         <f>IF([1]屬性克制表!AS78 = "", "", [1]屬性克制表!AS78)</f>
@@ -4719,9 +4719,9 @@
         <f>IF([1]屬性克制表!AQ79 = "", "", [1]屬性克制表!AQ79)</f>
         <v>土地雲-靈獸形態</v>
       </c>
-      <c r="B79" s="14">
-        <f>IF([1]屬性克制表!AR79 = "", "", [1]屬性克制表!AR79)</f>
-        <v>16.46</v>
+      <c r="B79" s="15" t="str">
+        <f>[1]屬性克制表!AO79</f>
+        <v>地面</v>
       </c>
       <c r="C79" s="14">
         <f>IF([1]屬性克制表!AS79 = "", "", [1]屬性克制表!AS79)</f>
@@ -4733,9 +4733,9 @@
         <f>IF([1]屬性克制表!AQ80 = "", "", [1]屬性克制表!AQ80)</f>
         <v>超甲狂犀</v>
       </c>
-      <c r="B80" s="14">
-        <f>IF([1]屬性克制表!AR80 = "", "", [1]屬性克制表!AR80)</f>
-        <v>13.15</v>
+      <c r="B80" s="15" t="str">
+        <f>[1]屬性克制表!AO80</f>
+        <v>地面</v>
       </c>
       <c r="C80" s="14">
         <f>IF([1]屬性克制表!AS80 = "", "", [1]屬性克制表!AS80)</f>
@@ -4747,9 +4747,9 @@
         <f>IF([1]屬性克制表!AQ81 = "", "", [1]屬性克制表!AQ81)</f>
         <v>土地雲-化身形態</v>
       </c>
-      <c r="B81" s="14">
-        <f>IF([1]屬性克制表!AR81 = "", "", [1]屬性克制表!AR81)</f>
-        <v>13.82</v>
+      <c r="B81" s="15" t="str">
+        <f>[1]屬性克制表!AO81</f>
+        <v>地面</v>
       </c>
       <c r="C81" s="14">
         <f>IF([1]屬性克制表!AS81 = "", "", [1]屬性克制表!AS81)</f>
@@ -4761,9 +4761,9 @@
         <f>IF([1]屬性克制表!AQ82 = "", "", [1]屬性克制表!AQ82)</f>
         <v>龍頭地鼠</v>
       </c>
-      <c r="B82" s="14">
-        <f>IF([1]屬性克制表!AR82 = "", "", [1]屬性克制表!AR82)</f>
-        <v>14.03</v>
+      <c r="B82" s="15" t="str">
+        <f>[1]屬性克制表!AO82</f>
+        <v>地面</v>
       </c>
       <c r="C82" s="14">
         <f>IF([1]屬性克制表!AS82 = "", "", [1]屬性克制表!AS82)</f>
@@ -4775,9 +4775,9 @@
         <f>IF([1]屬性克制表!AQ83 = "", "", [1]屬性克制表!AQ83)</f>
         <v>烈咬陸鯊</v>
       </c>
-      <c r="B83" s="14">
-        <f>IF([1]屬性克制表!AR83 = "", "", [1]屬性克制表!AR83)</f>
-        <v>14.06</v>
+      <c r="B83" s="15" t="str">
+        <f>[1]屬性克制表!AO83</f>
+        <v>地面</v>
       </c>
       <c r="C83" s="14">
         <f>IF([1]屬性克制表!AS83 = "", "", [1]屬性克制表!AS83)</f>
@@ -4789,9 +4789,9 @@
         <f>IF([1]屬性克制表!AQ84 = "", "", [1]屬性克制表!AQ84)</f>
         <v>胡地</v>
       </c>
-      <c r="B84" s="14">
-        <f>IF([1]屬性克制表!AR84 = "", "", [1]屬性克制表!AR84)</f>
-        <v>14.6</v>
+      <c r="B84" s="15" t="str">
+        <f>[1]屬性克制表!AO84</f>
+        <v>超能力</v>
       </c>
       <c r="C84" s="14">
         <f>IF([1]屬性克制表!AS84 = "", "", [1]屬性克制表!AS84)</f>
@@ -4803,9 +4803,9 @@
         <f>IF([1]屬性克制表!AQ85 = "", "", [1]屬性克制表!AQ85)</f>
         <v>Mega拉帝亞斯</v>
       </c>
-      <c r="B85" s="14">
-        <f>IF([1]屬性克制表!AR85 = "", "", [1]屬性克制表!AR85)</f>
-        <v>15.59</v>
+      <c r="B85" s="15" t="str">
+        <f>[1]屬性克制表!AO85</f>
+        <v>超能力</v>
       </c>
       <c r="C85" s="14">
         <f>IF([1]屬性克制表!AS85 = "", "", [1]屬性克制表!AS85)</f>
@@ -4817,9 +4817,9 @@
         <f>IF([1]屬性克制表!AQ86 = "", "", [1]屬性克制表!AQ86)</f>
         <v>Mega巨金怪</v>
       </c>
-      <c r="B86" s="14">
-        <f>IF([1]屬性克制表!AR86 = "", "", [1]屬性克制表!AR86)</f>
-        <v>16.14</v>
+      <c r="B86" s="15" t="str">
+        <f>[1]屬性克制表!AO86</f>
+        <v>超能力</v>
       </c>
       <c r="C86" s="14">
         <f>IF([1]屬性克制表!AS86 = "", "", [1]屬性克制表!AS86)</f>
@@ -4831,9 +4831,9 @@
         <f>IF([1]屬性克制表!AQ87 = "", "", [1]屬性克制表!AQ87)</f>
         <v>胡帕</v>
       </c>
-      <c r="B87" s="14">
-        <f>IF([1]屬性克制表!AR87 = "", "", [1]屬性克制表!AR87)</f>
-        <v>17.23</v>
+      <c r="B87" s="15" t="str">
+        <f>[1]屬性克制表!AO87</f>
+        <v>超能力</v>
       </c>
       <c r="C87" s="14">
         <f>IF([1]屬性克制表!AS87 = "", "", [1]屬性克制表!AS87)</f>
@@ -4845,9 +4845,9 @@
         <f>IF([1]屬性克制表!AQ88 = "", "", [1]屬性克制表!AQ88)</f>
         <v>超夢</v>
       </c>
-      <c r="B88" s="14">
-        <f>IF([1]屬性克制表!AR88 = "", "", [1]屬性克制表!AR88)</f>
-        <v>18.39</v>
+      <c r="B88" s="15" t="str">
+        <f>[1]屬性克制表!AO88</f>
+        <v>超能力</v>
       </c>
       <c r="C88" s="14">
         <f>IF([1]屬性克制表!AS88 = "", "", [1]屬性克制表!AS88)</f>
@@ -4859,9 +4859,9 @@
         <f>IF([1]屬性克制表!AQ89 = "", "", [1]屬性克制表!AQ89)</f>
         <v>Mega胡地</v>
       </c>
-      <c r="B89" s="14">
-        <f>IF([1]屬性克制表!AR89 = "", "", [1]屬性克制表!AR89)</f>
-        <v>19.809999999999999</v>
+      <c r="B89" s="15" t="str">
+        <f>[1]屬性克制表!AO89</f>
+        <v>超能力</v>
       </c>
       <c r="C89" s="14">
         <f>IF([1]屬性克制表!AS89 = "", "", [1]屬性克制表!AS89)</f>
@@ -4873,9 +4873,9 @@
         <f>IF([1]屬性克制表!AQ90 = "", "", [1]屬性克制表!AQ90)</f>
         <v>Mega沙奈朵</v>
       </c>
-      <c r="B90" s="14">
-        <f>IF([1]屬性克制表!AR90 = "", "", [1]屬性克制表!AR90)</f>
-        <v>18.100000000000001</v>
+      <c r="B90" s="15" t="str">
+        <f>[1]屬性克制表!AO90</f>
+        <v>超能力</v>
       </c>
       <c r="C90" s="14">
         <f>IF([1]屬性克制表!AS90 = "", "", [1]屬性克制表!AS90)</f>
@@ -4887,9 +4887,9 @@
         <f>IF([1]屬性克制表!AQ91 = "", "", [1]屬性克制表!AQ91)</f>
         <v>Mega拉帝歐斯</v>
       </c>
-      <c r="B91" s="14">
-        <f>IF([1]屬性克制表!AR91 = "", "", [1]屬性克制表!AR91)</f>
-        <v>17.88</v>
+      <c r="B91" s="15" t="str">
+        <f>[1]屬性克制表!AO91</f>
+        <v>超能力</v>
       </c>
       <c r="C91" s="14">
         <f>IF([1]屬性克制表!AS91 = "", "", [1]屬性克制表!AS91)</f>
@@ -4901,9 +4901,9 @@
         <f>IF([1]屬性克制表!AQ92 = "", "", [1]屬性克制表!AQ92)</f>
         <v>Mega蒂安希</v>
       </c>
-      <c r="B92" s="14">
-        <f>IF([1]屬性克制表!AR92 = "", "", [1]屬性克制表!AR92)</f>
-        <v>27.616000000000003</v>
+      <c r="B92" s="15" t="str">
+        <f>[1]屬性克制表!AO92</f>
+        <v>岩石</v>
       </c>
       <c r="C92" s="14">
         <f>IF([1]屬性克制表!AS92 = "", "", [1]屬性克制表!AS92)</f>
@@ -4915,9 +4915,9 @@
         <f>IF([1]屬性克制表!AQ93 = "", "", [1]屬性克制表!AQ93)</f>
         <v>Mega化石翼龍</v>
       </c>
-      <c r="B93" s="14">
-        <f>IF([1]屬性克制表!AR93 = "", "", [1]屬性克制表!AR93)</f>
-        <v>24.448</v>
+      <c r="B93" s="15" t="str">
+        <f>[1]屬性克制表!AO93</f>
+        <v>岩石</v>
       </c>
       <c r="C93" s="14">
         <f>IF([1]屬性克制表!AS93 = "", "", [1]屬性克制表!AS93)</f>
@@ -4929,9 +4929,9 @@
         <f>IF([1]屬性克制表!AQ94 = "", "", [1]屬性克制表!AQ94)</f>
         <v>龐岩怪</v>
       </c>
-      <c r="B94" s="14">
-        <f>IF([1]屬性克制表!AR94 = "", "", [1]屬性克制表!AR94)</f>
-        <v>8.0875000000000004</v>
+      <c r="B94" s="15" t="str">
+        <f>[1]屬性克制表!AO94</f>
+        <v>冰</v>
       </c>
       <c r="C94" s="14">
         <f>IF([1]屬性克制表!AS94 = "", "", [1]屬性克制表!AS94)</f>
@@ -4943,9 +4943,9 @@
         <f>IF([1]屬性克制表!AQ95 = "", "", [1]屬性克制表!AQ95)</f>
         <v>代拉基翁</v>
       </c>
-      <c r="B95" s="14">
-        <f>IF([1]屬性克制表!AR95 = "", "", [1]屬性克制表!AR95)</f>
-        <v>8.4562499999999989</v>
+      <c r="B95" s="15" t="str">
+        <f>[1]屬性克制表!AO95</f>
+        <v>冰</v>
       </c>
       <c r="C95" s="14">
         <f>IF([1]屬性克制表!AS95 = "", "", [1]屬性克制表!AS95)</f>
@@ -4957,9 +4957,9 @@
         <f>IF([1]屬性克制表!AQ96 = "", "", [1]屬性克制表!AQ96)</f>
         <v>超甲狂犀</v>
       </c>
-      <c r="B96" s="14">
-        <f>IF([1]屬性克制表!AR96 = "", "", [1]屬性克制表!AR96)</f>
-        <v>8.8375000000000004</v>
+      <c r="B96" s="15" t="str">
+        <f>[1]屬性克制表!AO96</f>
+        <v>冰</v>
       </c>
       <c r="C96" s="14">
         <f>IF([1]屬性克制表!AS96 = "", "", [1]屬性克制表!AS96)</f>
@@ -4971,9 +4971,9 @@
         <f>IF([1]屬性克制表!AQ97 = "", "", [1]屬性克制表!AQ97)</f>
         <v>戰槌龍</v>
       </c>
-      <c r="B97" s="14">
-        <f>IF([1]屬性克制表!AR97 = "", "", [1]屬性克制表!AR97)</f>
-        <v>9.25</v>
+      <c r="B97" s="15" t="str">
+        <f>[1]屬性克制表!AO97</f>
+        <v>冰</v>
       </c>
       <c r="C97" s="14">
         <f>IF([1]屬性克制表!AS97 = "", "", [1]屬性克制表!AS97)</f>
@@ -4985,9 +4985,9 @@
         <f>IF([1]屬性克制表!AQ98 = "", "", [1]屬性克制表!AQ98)</f>
         <v>闇黑酋雷姆</v>
       </c>
-      <c r="B98" s="14">
-        <f>IF([1]屬性克制表!AR98 = "", "", [1]屬性克制表!AR98)</f>
-        <v>10.612500000000001</v>
+      <c r="B98" s="15" t="str">
+        <f>[1]屬性克制表!AO98</f>
+        <v>冰</v>
       </c>
       <c r="C98" s="14">
         <f>IF([1]屬性克制表!AS98 = "", "", [1]屬性克制表!AS98)</f>
@@ -4999,9 +4999,9 @@
         <f>IF([1]屬性克制表!AQ99 = "", "", [1]屬性克制表!AQ99)</f>
         <v>戟脊龍</v>
       </c>
-      <c r="B99" s="14">
-        <f>IF([1]屬性克制表!AR99 = "", "", [1]屬性克制表!AR99)</f>
-        <v>8.6687499999999993</v>
+      <c r="B99" s="15" t="str">
+        <f>[1]屬性克制表!AO99</f>
+        <v>冰</v>
       </c>
       <c r="C99" s="14">
         <f>IF([1]屬性克制表!AS99 = "", "", [1]屬性克制表!AS99)</f>
@@ -5013,9 +5013,9 @@
         <f>IF([1]屬性克制表!AQ100 = "", "", [1]屬性克制表!AQ100)</f>
         <v>冰伊布</v>
       </c>
-      <c r="B100" s="14">
-        <f>IF([1]屬性克制表!AR100 = "", "", [1]屬性克制表!AR100)</f>
-        <v>7.9375</v>
+      <c r="B100" s="15" t="str">
+        <f>[1]屬性克制表!AO100</f>
+        <v>冰</v>
       </c>
       <c r="C100" s="14">
         <f>IF([1]屬性克制表!AS100 = "", "", [1]屬性克制表!AS100)</f>
@@ -5027,9 +5027,9 @@
         <f>IF([1]屬性克制表!AQ101 = "", "", [1]屬性克制表!AQ101)</f>
         <v>達摩狒狒 伽勒爾</v>
       </c>
-      <c r="B101" s="14">
-        <f>IF([1]屬性克制表!AR101 = "", "", [1]屬性克制表!AR101)</f>
-        <v>8.7312500000000011</v>
+      <c r="B101" s="15" t="str">
+        <f>[1]屬性克制表!AO101</f>
+        <v>冰</v>
       </c>
       <c r="C101" s="14">
         <f>IF([1]屬性克制表!AS101 = "", "", [1]屬性克制表!AS101)</f>
@@ -5041,9 +5041,9 @@
         <f>IF([1]屬性克制表!AQ102 = "", "", [1]屬性克制表!AQ102)</f>
         <v>Mega冰鬼護</v>
       </c>
-      <c r="B102" s="14">
-        <f>IF([1]屬性克制表!AR102 = "", "", [1]屬性克制表!AR102)</f>
-        <v>8.4437499999999996</v>
+      <c r="B102" s="15" t="str">
+        <f>[1]屬性克制表!AO102</f>
+        <v>冰</v>
       </c>
       <c r="C102" s="14">
         <f>IF([1]屬性克制表!AS102 = "", "", [1]屬性克制表!AS102)</f>
@@ -5055,9 +5055,9 @@
         <f>IF([1]屬性克制表!AQ103 = "", "", [1]屬性克制表!AQ103)</f>
         <v>Mega暴雪王</v>
       </c>
-      <c r="B103" s="14">
-        <f>IF([1]屬性克制表!AR103 = "", "", [1]屬性克制表!AR103)</f>
-        <v>8.4624999999999986</v>
+      <c r="B103" s="15" t="str">
+        <f>[1]屬性克制表!AO103</f>
+        <v>冰</v>
       </c>
       <c r="C103" s="14">
         <f>IF([1]屬性克制表!AS103 = "", "", [1]屬性克制表!AS103)</f>
@@ -5069,9 +5069,9 @@
         <f>IF([1]屬性克制表!AQ104 = "", "", [1]屬性克制表!AQ104)</f>
         <v>象牙豬</v>
       </c>
-      <c r="B104" s="14">
-        <f>IF([1]屬性克制表!AR104 = "", "", [1]屬性克制表!AR104)</f>
-        <v>8.40625</v>
+      <c r="B104" s="15" t="str">
+        <f>[1]屬性克制表!AO104</f>
+        <v>冰</v>
       </c>
       <c r="C104" s="14">
         <f>IF([1]屬性克制表!AS104 = "", "", [1]屬性克制表!AS104)</f>
@@ -5083,9 +5083,9 @@
         <f>IF([1]屬性克制表!AQ105 = "", "", [1]屬性克制表!AQ105)</f>
         <v>費洛美螂</v>
       </c>
-      <c r="B105" s="14">
-        <f>IF([1]屬性克制表!AR105 = "", "", [1]屬性克制表!AR105)</f>
-        <v>14.5</v>
+      <c r="B105" s="15" t="str">
+        <f>[1]屬性克制表!AO105</f>
+        <v>蟲</v>
       </c>
       <c r="C105" s="14">
         <f>IF([1]屬性克制表!AS105 = "", "", [1]屬性克制表!AS105)</f>
@@ -5097,9 +5097,9 @@
         <f>IF([1]屬性克制表!AQ106 = "", "", [1]屬性克制表!AQ106)</f>
         <v>Mega大針鋒</v>
       </c>
-      <c r="B106" s="14">
-        <f>IF([1]屬性克制表!AR106 = "", "", [1]屬性克制表!AR106)</f>
-        <v>15.25</v>
+      <c r="B106" s="15" t="str">
+        <f>[1]屬性克制表!AO106</f>
+        <v>蟲</v>
       </c>
       <c r="C106" s="14">
         <f>IF([1]屬性克制表!AS106 = "", "", [1]屬性克制表!AS106)</f>
@@ -5111,9 +5111,9 @@
         <f>IF([1]屬性克制表!AQ107 = "", "", [1]屬性克制表!AQ107)</f>
         <v>Mega赫拉克羅斯</v>
       </c>
-      <c r="B107" s="14">
-        <f>IF([1]屬性克制表!AR107 = "", "", [1]屬性克制表!AR107)</f>
-        <v>15.44</v>
+      <c r="B107" s="15" t="str">
+        <f>[1]屬性克制表!AO107</f>
+        <v>蟲</v>
       </c>
       <c r="C107" s="14">
         <f>IF([1]屬性克制表!AS107 = "", "", [1]屬性克制表!AS107)</f>
@@ -5125,9 +5125,9 @@
         <f>IF([1]屬性克制表!AQ108 = "", "", [1]屬性克制表!AQ108)</f>
         <v>Mega巨鉗螳螂</v>
       </c>
-      <c r="B108" s="14">
-        <f>IF([1]屬性克制表!AR108 = "", "", [1]屬性克制表!AR108)</f>
-        <v>14.57</v>
+      <c r="B108" s="15" t="str">
+        <f>[1]屬性克制表!AO108</f>
+        <v>蟲</v>
       </c>
       <c r="C108" s="14">
         <f>IF([1]屬性克制表!AS108 = "", "", [1]屬性克制表!AS108)</f>
@@ -5139,9 +5139,9 @@
         <f>IF([1]屬性克制表!AQ109 = "", "", [1]屬性克制表!AQ109)</f>
         <v>蓋諾賽克特</v>
       </c>
-      <c r="B109" s="14">
-        <f>IF([1]屬性克制表!AR109 = "", "", [1]屬性克制表!AR109)</f>
-        <v>13.27</v>
+      <c r="B109" s="15" t="str">
+        <f>[1]屬性克制表!AO109</f>
+        <v>蟲</v>
       </c>
       <c r="C109" s="14">
         <f>IF([1]屬性克制表!AS109 = "", "", [1]屬性克制表!AS109)</f>
@@ -5153,9 +5153,9 @@
         <f>IF([1]屬性克制表!AQ110 = "", "", [1]屬性克制表!AQ110)</f>
         <v>火神蛾</v>
       </c>
-      <c r="B110" s="14">
-        <f>IF([1]屬性克制表!AR110 = "", "", [1]屬性克制表!AR110)</f>
-        <v>14.15</v>
+      <c r="B110" s="15" t="str">
+        <f>[1]屬性克制表!AO110</f>
+        <v>蟲</v>
       </c>
       <c r="C110" s="14">
         <f>IF([1]屬性克制表!AS110 = "", "", [1]屬性克制表!AS110)</f>
@@ -5167,9 +5167,9 @@
         <f>IF([1]屬性克制表!AQ111 = "", "", [1]屬性克制表!AQ111)</f>
         <v>烈咬陸鯊</v>
       </c>
-      <c r="B111" s="14">
-        <f>IF([1]屬性克制表!AR111 = "", "", [1]屬性克制表!AR111)</f>
-        <v>16.07</v>
+      <c r="B111" s="15" t="str">
+        <f>[1]屬性克制表!AO111</f>
+        <v>龍</v>
       </c>
       <c r="C111" s="14">
         <f>IF([1]屬性克制表!AS111 = "", "", [1]屬性克制表!AS111)</f>
@@ -5181,9 +5181,9 @@
         <f>IF([1]屬性克制表!AQ112 = "", "", [1]屬性克制表!AQ112)</f>
         <v>雙斧戰龍</v>
       </c>
-      <c r="B112" s="14">
-        <f>IF([1]屬性克制表!AR112 = "", "", [1]屬性克制表!AR112)</f>
-        <v>16.920000000000002</v>
+      <c r="B112" s="15" t="str">
+        <f>[1]屬性克制表!AO112</f>
+        <v>龍</v>
       </c>
       <c r="C112" s="14">
         <f>IF([1]屬性克制表!AS112 = "", "", [1]屬性克制表!AS112)</f>
@@ -5195,9 +5195,9 @@
         <f>IF([1]屬性克制表!AQ113 = "", "", [1]屬性克制表!AQ113)</f>
         <v>起源帝牙盧卡</v>
       </c>
-      <c r="B113" s="14">
-        <f>IF([1]屬性克制表!AR113 = "", "", [1]屬性克制表!AR113)</f>
-        <v>16.97</v>
+      <c r="B113" s="15" t="str">
+        <f>[1]屬性克制表!AO113</f>
+        <v>龍</v>
       </c>
       <c r="C113" s="14">
         <f>IF([1]屬性克制表!AS113 = "", "", [1]屬性克制表!AS113)</f>
@@ -5209,9 +5209,9 @@
         <f>IF([1]屬性克制表!AQ114 = "", "", [1]屬性克制表!AQ114)</f>
         <v>烈空坐</v>
       </c>
-      <c r="B114" s="14">
-        <f>IF([1]屬性克制表!AR114 = "", "", [1]屬性克制表!AR114)</f>
-        <v>17.190000000000001</v>
+      <c r="B114" s="15" t="str">
+        <f>[1]屬性克制表!AO114</f>
+        <v>龍</v>
       </c>
       <c r="C114" s="14">
         <f>IF([1]屬性克制表!AS114 = "", "", [1]屬性克制表!AS114)</f>
@@ -5223,9 +5223,9 @@
         <f>IF([1]屬性克制表!AQ115 = "", "", [1]屬性克制表!AQ115)</f>
         <v>起源帕路奇亞</v>
       </c>
-      <c r="B115" s="14">
-        <f>IF([1]屬性克制表!AR115 = "", "", [1]屬性克制表!AR115)</f>
-        <v>17.79</v>
+      <c r="B115" s="15" t="str">
+        <f>[1]屬性克制表!AO115</f>
+        <v>龍</v>
       </c>
       <c r="C115" s="14">
         <f>IF([1]屬性克制表!AS115 = "", "", [1]屬性克制表!AS115)</f>
@@ -5237,9 +5237,9 @@
         <f>IF([1]屬性克制表!AQ116 = "", "", [1]屬性克制表!AQ116)</f>
         <v>帕路奇亞</v>
       </c>
-      <c r="B116" s="14">
-        <f>IF([1]屬性克制表!AR116 = "", "", [1]屬性克制表!AR116)</f>
-        <v>15.91</v>
+      <c r="B116" s="15" t="str">
+        <f>[1]屬性克制表!AO116</f>
+        <v>龍</v>
       </c>
       <c r="C116" s="14">
         <f>IF([1]屬性克制表!AS116 = "", "", [1]屬性克制表!AS116)</f>
@@ -5251,9 +5251,9 @@
         <f>IF([1]屬性克制表!AQ117 = "", "", [1]屬性克制表!AQ117)</f>
         <v>帝牙盧卡</v>
       </c>
-      <c r="B117" s="14">
-        <f>IF([1]屬性克制表!AR117 = "", "", [1]屬性克制表!AR117)</f>
-        <v>15.12</v>
+      <c r="B117" s="15" t="str">
+        <f>[1]屬性克制表!AO117</f>
+        <v>龍</v>
       </c>
       <c r="C117" s="14">
         <f>IF([1]屬性克制表!AS117 = "", "", [1]屬性克制表!AS117)</f>
@@ -5265,9 +5265,9 @@
         <f>IF([1]屬性克制表!AQ118 = "", "", [1]屬性克制表!AQ118)</f>
         <v>戟脊龍</v>
       </c>
-      <c r="B118" s="14">
-        <f>IF([1]屬性克制表!AR118 = "", "", [1]屬性克制表!AR118)</f>
-        <v>14.14</v>
+      <c r="B118" s="15" t="str">
+        <f>[1]屬性克制表!AO118</f>
+        <v>龍</v>
       </c>
       <c r="C118" s="14">
         <f>IF([1]屬性克制表!AS118 = "", "", [1]屬性克制表!AS118)</f>
@@ -5279,9 +5279,9 @@
         <f>IF([1]屬性克制表!AQ119 = "", "", [1]屬性克制表!AQ119)</f>
         <v>快龍</v>
       </c>
-      <c r="B119" s="14">
-        <f>IF([1]屬性克制表!AR119 = "", "", [1]屬性克制表!AR119)</f>
-        <v>15.16</v>
+      <c r="B119" s="15" t="str">
+        <f>[1]屬性克制表!AO119</f>
+        <v>龍</v>
       </c>
       <c r="C119" s="14">
         <f>IF([1]屬性克制表!AS119 = "", "", [1]屬性克制表!AS119)</f>
@@ -5293,9 +5293,9 @@
         <f>IF([1]屬性克制表!AQ120 = "", "", [1]屬性克制表!AQ120)</f>
         <v>Mega拉帝歐斯</v>
       </c>
-      <c r="B120" s="14">
-        <f>IF([1]屬性克制表!AR120 = "", "", [1]屬性克制表!AR120)</f>
-        <v>15.69</v>
+      <c r="B120" s="15" t="str">
+        <f>[1]屬性克制表!AO120</f>
+        <v>龍</v>
       </c>
       <c r="C120" s="14">
         <f>IF([1]屬性克制表!AS120 = "", "", [1]屬性克制表!AS120)</f>
@@ -5307,9 +5307,9 @@
         <f>IF([1]屬性克制表!AQ121 = "", "", [1]屬性克制表!AQ121)</f>
         <v>暴飛龍</v>
       </c>
-      <c r="B121" s="14">
-        <f>IF([1]屬性克制表!AR121 = "", "", [1]屬性克制表!AR121)</f>
-        <v>17.79</v>
+      <c r="B121" s="15" t="str">
+        <f>[1]屬性克制表!AO121</f>
+        <v>龍</v>
       </c>
       <c r="C121" s="14">
         <f>IF([1]屬性克制表!AS121 = "", "", [1]屬性克制表!AS121)</f>
@@ -5321,9 +5321,9 @@
         <f>IF([1]屬性克制表!AQ122 = "", "", [1]屬性克制表!AQ122)</f>
         <v>Nega噴火龍X</v>
       </c>
-      <c r="B122" s="14">
-        <f>IF([1]屬性克制表!AR122 = "", "", [1]屬性克制表!AR122)</f>
-        <v>14.15</v>
+      <c r="B122" s="15" t="str">
+        <f>[1]屬性克制表!AO122</f>
+        <v>龍</v>
       </c>
       <c r="C122" s="14">
         <f>IF([1]屬性克制表!AS122 = "", "", [1]屬性克制表!AS122)</f>
@@ -5335,9 +5335,9 @@
         <f>IF([1]屬性克制表!AQ123 = "", "", [1]屬性克制表!AQ123)</f>
         <v>Mega烈空坐</v>
       </c>
-      <c r="B123" s="14">
-        <f>IF([1]屬性克制表!AR123 = "", "", [1]屬性克制表!AR123)</f>
-        <v>22.51</v>
+      <c r="B123" s="15" t="str">
+        <f>[1]屬性克制表!AO123</f>
+        <v>龍</v>
       </c>
       <c r="C123" s="14">
         <f>IF([1]屬性克制表!AS123 = "", "", [1]屬性克制表!AS123)</f>
@@ -5349,9 +5349,9 @@
         <f>IF([1]屬性克制表!AQ124 = "", "", [1]屬性克制表!AQ124)</f>
         <v>Mega烈咬陸鯊</v>
       </c>
-      <c r="B124" s="14">
-        <f>IF([1]屬性克制表!AR124 = "", "", [1]屬性克制表!AR124)</f>
-        <v>20.420000000000002</v>
+      <c r="B124" s="15" t="str">
+        <f>[1]屬性克制表!AO124</f>
+        <v>龍</v>
       </c>
       <c r="C124" s="14">
         <f>IF([1]屬性克制表!AS124 = "", "", [1]屬性克制表!AS124)</f>
@@ -5363,9 +5363,9 @@
         <f>IF([1]屬性克制表!AQ125 = "", "", [1]屬性克制表!AQ125)</f>
         <v>闇黑酋雷姆</v>
       </c>
-      <c r="B125" s="14">
-        <f>IF([1]屬性克制表!AR125 = "", "", [1]屬性克制表!AR125)</f>
-        <v>17.68</v>
+      <c r="B125" s="15" t="str">
+        <f>[1]屬性克制表!AO125</f>
+        <v>龍</v>
       </c>
       <c r="C125" s="14">
         <f>IF([1]屬性克制表!AS125 = "", "", [1]屬性克制表!AS125)</f>
@@ -5377,9 +5377,9 @@
         <f>IF([1]屬性克制表!AQ126 = "", "", [1]屬性克制表!AQ126)</f>
         <v>Mega暴飛龍</v>
       </c>
-      <c r="B126" s="14">
-        <f>IF([1]屬性克制表!AR126 = "", "", [1]屬性克制表!AR126)</f>
-        <v>17.87</v>
+      <c r="B126" s="15" t="str">
+        <f>[1]屬性克制表!AO126</f>
+        <v>龍</v>
       </c>
       <c r="C126" s="14">
         <f>IF([1]屬性克制表!AS126 = "", "", [1]屬性克制表!AS126)</f>
@@ -5391,9 +5391,9 @@
         <f>IF([1]屬性克制表!AQ127 = "", "", [1]屬性克制表!AQ127)</f>
         <v>砰頭小丑</v>
       </c>
-      <c r="B127" s="14">
-        <f>IF([1]屬性克制表!AR127 = "", "", [1]屬性克制表!AR127)</f>
-        <v>15.53</v>
+      <c r="B127" s="15" t="str">
+        <f>[1]屬性克制表!AO127</f>
+        <v>幽靈</v>
       </c>
       <c r="C127" s="14">
         <f>IF([1]屬性克制表!AS127 = "", "", [1]屬性克制表!AS127)</f>
@@ -5405,9 +5405,9 @@
         <f>IF([1]屬性克制表!AQ128 = "", "", [1]屬性克制表!AQ128)</f>
         <v>耿鬼</v>
       </c>
-      <c r="B128" s="14">
-        <f>IF([1]屬性克制表!AR128 = "", "", [1]屬性克制表!AR128)</f>
-        <v>14.77</v>
+      <c r="B128" s="15" t="str">
+        <f>[1]屬性克制表!AO128</f>
+        <v>幽靈</v>
       </c>
       <c r="C128" s="14">
         <f>IF([1]屬性克制表!AS128 = "", "", [1]屬性克制表!AS128)</f>
@@ -5419,9 +5419,9 @@
         <f>IF([1]屬性克制表!AQ129 = "", "", [1]屬性克制表!AQ129)</f>
         <v>Mega耿鬼</v>
       </c>
-      <c r="B129" s="14">
-        <f>IF([1]屬性克制表!AR129 = "", "", [1]屬性克制表!AR129)</f>
-        <v>19.809999999999999</v>
+      <c r="B129" s="15" t="str">
+        <f>[1]屬性克制表!AO129</f>
+        <v>幽靈</v>
       </c>
       <c r="C129" s="14">
         <f>IF([1]屬性克制表!AS129 = "", "", [1]屬性克制表!AS129)</f>
@@ -5433,9 +5433,9 @@
         <f>IF([1]屬性克制表!AQ130 = "", "", [1]屬性克制表!AQ130)</f>
         <v>Mega詛咒娃娃</v>
       </c>
-      <c r="B130" s="14">
-        <f>IF([1]屬性克制表!AR130 = "", "", [1]屬性克制表!AR130)</f>
-        <v>17.059999999999999</v>
+      <c r="B130" s="15" t="str">
+        <f>[1]屬性克制表!AO130</f>
+        <v>幽靈</v>
       </c>
       <c r="C130" s="14">
         <f>IF([1]屬性克制表!AS130 = "", "", [1]屬性克制表!AS130)</f>
@@ -5447,9 +5447,9 @@
         <f>IF([1]屬性克制表!AQ131 = "", "", [1]屬性克制表!AQ131)</f>
         <v>水晶燈火靈</v>
       </c>
-      <c r="B131" s="14">
-        <f>IF([1]屬性克制表!AR131 = "", "", [1]屬性克制表!AR131)</f>
-        <v>14.67</v>
+      <c r="B131" s="15" t="str">
+        <f>[1]屬性克制表!AO131</f>
+        <v>幽靈</v>
       </c>
       <c r="C131" s="14">
         <f>IF([1]屬性克制表!AS131 = "", "", [1]屬性克制表!AS131)</f>
@@ -5461,9 +5461,9 @@
         <f>IF([1]屬性克制表!AQ132 = "", "", [1]屬性克制表!AQ132)</f>
         <v>暴飛龍</v>
       </c>
-      <c r="B132" s="14">
-        <f>IF([1]屬性克制表!AR132 = "", "", [1]屬性克制表!AR132)</f>
-        <v>13.57</v>
+      <c r="B132" s="15" t="str">
+        <f>[1]屬性克制表!AO132</f>
+        <v>惡</v>
       </c>
       <c r="C132" s="14">
         <f>IF([1]屬性克制表!AS132 = "", "", [1]屬性克制表!AS132)</f>
@@ -5475,9 +5475,9 @@
         <f>IF([1]屬性克制表!AQ133 = "", "", [1]屬性克制表!AQ133)</f>
         <v>伊裴爾塔爾</v>
       </c>
-      <c r="B133" s="14">
-        <f>IF([1]屬性克制表!AR133 = "", "", [1]屬性克制表!AR133)</f>
-        <v>13.34</v>
+      <c r="B133" s="15" t="str">
+        <f>[1]屬性克制表!AO133</f>
+        <v>惡</v>
       </c>
       <c r="C133" s="14">
         <f>IF([1]屬性克制表!AS133 = "", "", [1]屬性克制表!AS133)</f>
@@ -5489,9 +5489,9 @@
         <f>IF([1]屬性克制表!AQ134 = "", "", [1]屬性克制表!AQ134)</f>
         <v>巨牙鯊</v>
       </c>
-      <c r="B134" s="14">
-        <f>IF([1]屬性克制表!AR134 = "", "", [1]屬性克制表!AR134)</f>
-        <v>14.03</v>
+      <c r="B134" s="15" t="str">
+        <f>[1]屬性克制表!AO134</f>
+        <v>惡</v>
       </c>
       <c r="C134" s="14">
         <f>IF([1]屬性克制表!AS134 = "", "", [1]屬性克制表!AS134)</f>
@@ -5503,9 +5503,9 @@
         <f>IF([1]屬性克制表!AQ135 = "", "", [1]屬性克制表!AQ135)</f>
         <v>達克萊伊</v>
       </c>
-      <c r="B135" s="14">
-        <f>IF([1]屬性克制表!AR135 = "", "", [1]屬性克制表!AR135)</f>
-        <v>14.64</v>
+      <c r="B135" s="15" t="str">
+        <f>[1]屬性克制表!AO135</f>
+        <v>惡</v>
       </c>
       <c r="C135" s="14">
         <f>IF([1]屬性克制表!AS135 = "", "", [1]屬性克制表!AS135)</f>
@@ -5517,9 +5517,9 @@
         <f>IF([1]屬性克制表!AQ136 = "", "", [1]屬性克制表!AQ136)</f>
         <v>Mega暴飛龍</v>
       </c>
-      <c r="B136" s="14">
-        <f>IF([1]屬性克制表!AR136 = "", "", [1]屬性克制表!AR136)</f>
-        <v>14.98</v>
+      <c r="B136" s="15" t="str">
+        <f>[1]屬性克制表!AO136</f>
+        <v>惡</v>
       </c>
       <c r="C136" s="14">
         <f>IF([1]屬性克制表!AS136 = "", "", [1]屬性克制表!AS136)</f>
@@ -5531,9 +5531,9 @@
         <f>IF([1]屬性克制表!AQ137 = "", "", [1]屬性克制表!AQ137)</f>
         <v>Mega黑魯加</v>
       </c>
-      <c r="B137" s="14">
-        <f>IF([1]屬性克制表!AR137 = "", "", [1]屬性克制表!AR137)</f>
-        <v>16.079999999999998</v>
+      <c r="B137" s="15" t="str">
+        <f>[1]屬性克制表!AO137</f>
+        <v>惡</v>
       </c>
       <c r="C137" s="14">
         <f>IF([1]屬性克制表!AS137 = "", "", [1]屬性克制表!AS137)</f>
@@ -5545,9 +5545,9 @@
         <f>IF([1]屬性克制表!AQ138 = "", "", [1]屬性克制表!AQ138)</f>
         <v>Mega暴鯉龍</v>
       </c>
-      <c r="B138" s="14">
-        <f>IF([1]屬性克制表!AR138 = "", "", [1]屬性克制表!AR138)</f>
-        <v>14.23</v>
+      <c r="B138" s="15" t="str">
+        <f>[1]屬性克制表!AO138</f>
+        <v>惡</v>
       </c>
       <c r="C138" s="14">
         <f>IF([1]屬性克制表!AS138 = "", "", [1]屬性克制表!AS138)</f>
@@ -5559,9 +5559,9 @@
         <f>IF([1]屬性克制表!AQ139 = "", "", [1]屬性克制表!AQ139)</f>
         <v>達克萊伊</v>
       </c>
-      <c r="B139" s="14">
-        <f>IF([1]屬性克制表!AR139 = "", "", [1]屬性克制表!AR139)</f>
-        <v>14.64</v>
+      <c r="B139" s="15" t="str">
+        <f>[1]屬性克制表!AO139</f>
+        <v>惡</v>
       </c>
       <c r="C139" s="14">
         <f>IF([1]屬性克制表!AS139 = "", "", [1]屬性克制表!AS139)</f>
@@ -5573,9 +5573,9 @@
         <f>IF([1]屬性克制表!AQ140 = "", "", [1]屬性克制表!AQ140)</f>
         <v>班基拉斯</v>
       </c>
-      <c r="B140" s="14">
-        <f>IF([1]屬性克制表!AR140 = "", "", [1]屬性克制表!AR140)</f>
-        <v>14.82</v>
+      <c r="B140" s="15" t="str">
+        <f>[1]屬性克制表!AO140</f>
+        <v>惡</v>
       </c>
       <c r="C140" s="14">
         <f>IF([1]屬性克制表!AS140 = "", "", [1]屬性克制表!AS140)</f>
@@ -5587,9 +5587,9 @@
         <f>IF([1]屬性克制表!AQ141 = "", "", [1]屬性克制表!AQ141)</f>
         <v>三首惡龍</v>
       </c>
-      <c r="B141" s="14">
-        <f>IF([1]屬性克制表!AR141 = "", "", [1]屬性克制表!AR141)</f>
-        <v>15.01</v>
+      <c r="B141" s="15" t="str">
+        <f>[1]屬性克制表!AO141</f>
+        <v>惡</v>
       </c>
       <c r="C141" s="14">
         <f>IF([1]屬性克制表!AS141 = "", "", [1]屬性克制表!AS141)</f>
@@ -5601,9 +5601,9 @@
         <f>IF([1]屬性克制表!AQ142 = "", "", [1]屬性克制表!AQ142)</f>
         <v>Mega阿勃梭魯</v>
       </c>
-      <c r="B142" s="14">
-        <f>IF([1]屬性克制表!AR142 = "", "", [1]屬性克制表!AR142)</f>
-        <v>17.95</v>
+      <c r="B142" s="15" t="str">
+        <f>[1]屬性克制表!AO142</f>
+        <v>惡</v>
       </c>
       <c r="C142" s="14">
         <f>IF([1]屬性克制表!AS142 = "", "", [1]屬性克制表!AS142)</f>
@@ -5615,9 +5615,9 @@
         <f>IF([1]屬性克制表!AQ143 = "", "", [1]屬性克制表!AQ143)</f>
         <v>盾之王</v>
       </c>
-      <c r="B143" s="14">
-        <f>IF([1]屬性克制表!AR143 = "", "", [1]屬性克制表!AR143)</f>
-        <v>34.992000000000004</v>
+      <c r="B143" s="15" t="str">
+        <f>[1]屬性克制表!AO143</f>
+        <v>鋼</v>
       </c>
       <c r="C143" s="14">
         <f>IF([1]屬性克制表!AS143 = "", "", [1]屬性克制表!AS143)</f>
@@ -5629,9 +5629,9 @@
         <f>IF([1]屬性克制表!AQ144 = "", "", [1]屬性克制表!AQ144)</f>
         <v>奈克洛茲瑪</v>
       </c>
-      <c r="B144" s="14">
-        <f>IF([1]屬性克制表!AR144 = "", "", [1]屬性克制表!AR144)</f>
-        <v>34.160000000000004</v>
+      <c r="B144" s="15" t="str">
+        <f>[1]屬性克制表!AO144</f>
+        <v>鋼</v>
       </c>
       <c r="C144" s="14">
         <f>IF([1]屬性克制表!AS144 = "", "", [1]屬性克制表!AS144)</f>
@@ -5643,9 +5643,9 @@
         <f>IF([1]屬性克制表!AQ145 = "", "", [1]屬性克制表!AQ145)</f>
         <v>Mega巨金怪</v>
       </c>
-      <c r="B145" s="14">
-        <f>IF([1]屬性克制表!AR145 = "", "", [1]屬性克制表!AR145)</f>
-        <v>29.183999999999997</v>
+      <c r="B145" s="15" t="str">
+        <f>[1]屬性克制表!AO145</f>
+        <v>鋼</v>
       </c>
       <c r="C145" s="14">
         <f>IF([1]屬性克制表!AS145 = "", "", [1]屬性克制表!AS145)</f>
@@ -5657,9 +5657,9 @@
         <f>IF([1]屬性克制表!AQ146 = "", "", [1]屬性克制表!AQ146)</f>
         <v>巨金怪</v>
       </c>
-      <c r="B146" s="14">
-        <f>IF([1]屬性克制表!AR146 = "", "", [1]屬性克制表!AR146)</f>
-        <v>25.248000000000001</v>
+      <c r="B146" s="15" t="str">
+        <f>[1]屬性克制表!AO146</f>
+        <v>鋼</v>
       </c>
       <c r="C146" s="14">
         <f>IF([1]屬性克制表!AS146 = "", "", [1]屬性克制表!AS146)</f>
@@ -5671,9 +5671,9 @@
         <f>IF([1]屬性克制表!AQ147 = "", "", [1]屬性克制表!AQ147)</f>
         <v>起源帝牙盧卡</v>
       </c>
-      <c r="B147" s="14">
-        <f>IF([1]屬性克制表!AR147 = "", "", [1]屬性克制表!AR147)</f>
-        <v>22.528000000000002</v>
+      <c r="B147" s="15" t="str">
+        <f>[1]屬性克制表!AO147</f>
+        <v>鋼</v>
       </c>
       <c r="C147" s="14">
         <f>IF([1]屬性克制表!AS147 = "", "", [1]屬性克制表!AS147)</f>
@@ -5685,9 +5685,9 @@
         <f>IF([1]屬性克制表!AQ148 = "", "", [1]屬性克制表!AQ148)</f>
         <v>帝牙盧卡</v>
       </c>
-      <c r="B148" s="14">
-        <f>IF([1]屬性克制表!AR148 = "", "", [1]屬性克制表!AR148)</f>
-        <v>22.896000000000001</v>
+      <c r="B148" s="15" t="str">
+        <f>[1]屬性克制表!AO148</f>
+        <v>鋼</v>
       </c>
       <c r="C148" s="14">
         <f>IF([1]屬性克制表!AS148 = "", "", [1]屬性克制表!AS148)</f>
@@ -5699,9 +5699,9 @@
         <f>IF([1]屬性克制表!AQ149 = "", "", [1]屬性克制表!AQ149)</f>
         <v>Mega波士可多拉</v>
       </c>
-      <c r="B149" s="14">
-        <f>IF([1]屬性克制表!AR149 = "", "", [1]屬性克制表!AR149)</f>
-        <v>21.263999999999999</v>
+      <c r="B149" s="15" t="str">
+        <f>[1]屬性克制表!AO149</f>
+        <v>鋼</v>
       </c>
       <c r="C149" s="14">
         <f>IF([1]屬性克制表!AS149 = "", "", [1]屬性克制表!AS149)</f>
@@ -5713,9 +5713,9 @@
         <f>IF([1]屬性克制表!AQ150 = "", "", [1]屬性克制表!AQ150)</f>
         <v>美錄梅塔</v>
       </c>
-      <c r="B150" s="14">
-        <f>IF([1]屬性克制表!AR150 = "", "", [1]屬性克制表!AR150)</f>
-        <v>21.296000000000003</v>
+      <c r="B150" s="15" t="str">
+        <f>[1]屬性克制表!AO150</f>
+        <v>鋼</v>
       </c>
       <c r="C150" s="14">
         <f>IF([1]屬性克制表!AS150 = "", "", [1]屬性克制表!AS150)</f>
@@ -5727,9 +5727,9 @@
         <f>IF([1]屬性克制表!AQ151 = "", "", [1]屬性克制表!AQ151)</f>
         <v>蓋諾賽克特</v>
       </c>
-      <c r="B151" s="14">
-        <f>IF([1]屬性克制表!AR151 = "", "", [1]屬性克制表!AR151)</f>
-        <v>22.144000000000002</v>
+      <c r="B151" s="15" t="str">
+        <f>[1]屬性克制表!AO151</f>
+        <v>鋼</v>
       </c>
       <c r="C151" s="14">
         <f>IF([1]屬性克制表!AS151 = "", "", [1]屬性克制表!AS151)</f>
@@ -5741,9 +5741,9 @@
         <f>IF([1]屬性克制表!AQ152 = "", "", [1]屬性克制表!AQ152)</f>
         <v>Mega巨鉗螳螂</v>
       </c>
-      <c r="B152" s="14">
-        <f>IF([1]屬性克制表!AR152 = "", "", [1]屬性克制表!AR152)</f>
-        <v>21.103999999999999</v>
+      <c r="B152" s="15" t="str">
+        <f>[1]屬性克制表!AO152</f>
+        <v>鋼</v>
       </c>
       <c r="C152" s="14">
         <f>IF([1]屬性克制表!AS152 = "", "", [1]屬性克制表!AS152)</f>
@@ -5755,9 +5755,9 @@
         <f>IF([1]屬性克制表!AQ153 = "", "", [1]屬性克制表!AQ153)</f>
         <v>龍頭地鼠</v>
       </c>
-      <c r="B153" s="14">
-        <f>IF([1]屬性克制表!AR153 = "", "", [1]屬性克制表!AR153)</f>
-        <v>21.488</v>
+      <c r="B153" s="15" t="str">
+        <f>[1]屬性克制表!AO153</f>
+        <v>鋼</v>
       </c>
       <c r="C153" s="14">
         <f>IF([1]屬性克制表!AS153 = "", "", [1]屬性克制表!AS153)</f>
@@ -5769,9 +5769,9 @@
         <f>IF([1]屬性克制表!AQ154 = "", "", [1]屬性克制表!AQ154)</f>
         <v>布魯皇</v>
       </c>
-      <c r="B154" s="14">
-        <f>IF([1]屬性克制表!AR154 = "", "", [1]屬性克制表!AR154)</f>
-        <v>11.48</v>
+      <c r="B154" s="15" t="str">
+        <f>[1]屬性克制表!AO154</f>
+        <v>妖精</v>
       </c>
       <c r="C154" s="14">
         <f>IF([1]屬性克制表!AS154 = "", "", [1]屬性克制表!AS154)</f>
@@ -5783,9 +5783,9 @@
         <f>IF([1]屬性克制表!AQ155 = "", "", [1]屬性克制表!AQ155)</f>
         <v>哲爾尼亞斯</v>
       </c>
-      <c r="B155" s="14">
-        <f>IF([1]屬性克制表!AR155 = "", "", [1]屬性克制表!AR155)</f>
-        <v>13.19</v>
+      <c r="B155" s="15" t="str">
+        <f>[1]屬性克制表!AO155</f>
+        <v>妖精</v>
       </c>
       <c r="C155" s="14">
         <f>IF([1]屬性克制表!AS155 = "", "", [1]屬性克制表!AS155)</f>
@@ -5797,9 +5797,9 @@
         <f>IF([1]屬性克制表!AQ156 = "", "", [1]屬性克制表!AQ156)</f>
         <v>仙子伊布</v>
       </c>
-      <c r="B156" s="14">
-        <f>IF([1]屬性克制表!AR156 = "", "", [1]屬性克制表!AR156)</f>
-        <v>11.35</v>
+      <c r="B156" s="15" t="str">
+        <f>[1]屬性克制表!AO156</f>
+        <v>妖精</v>
       </c>
       <c r="C156" s="14">
         <f>IF([1]屬性克制表!AS156 = "", "", [1]屬性克制表!AS156)</f>
@@ -5811,9 +5811,9 @@
         <f>IF([1]屬性克制表!AQ157 = "", "", [1]屬性克制表!AQ157)</f>
         <v>波克基斯</v>
       </c>
-      <c r="B157" s="14">
-        <f>IF([1]屬性克制表!AR157 = "", "", [1]屬性克制表!AR157)</f>
-        <v>12.38</v>
+      <c r="B157" s="15" t="str">
+        <f>[1]屬性克制表!AO157</f>
+        <v>妖精</v>
       </c>
       <c r="C157" s="14">
         <f>IF([1]屬性克制表!AS157 = "", "", [1]屬性克制表!AS157)</f>
@@ -5825,9 +5825,9 @@
         <f>IF([1]屬性克制表!AQ158 = "", "", [1]屬性克制表!AQ158)</f>
         <v>眷戀雲化身形態</v>
       </c>
-      <c r="B158" s="14">
-        <f>IF([1]屬性克制表!AR158 = "", "", [1]屬性克制表!AR158)</f>
-        <v>14.74</v>
+      <c r="B158" s="15" t="str">
+        <f>[1]屬性克制表!AO158</f>
+        <v>妖精</v>
       </c>
       <c r="C158" s="14">
         <f>IF([1]屬性克制表!AS158 = "", "", [1]屬性克制表!AS158)</f>
@@ -5839,9 +5839,9 @@
         <f>IF([1]屬性克制表!AQ159 = "", "", [1]屬性克制表!AQ159)</f>
         <v>沙奈朵</v>
       </c>
-      <c r="B159" s="14">
-        <f>IF([1]屬性克制表!AR159 = "", "", [1]屬性克制表!AR159)</f>
-        <v>12.73</v>
+      <c r="B159" s="15" t="str">
+        <f>[1]屬性克制表!AO159</f>
+        <v>妖精</v>
       </c>
       <c r="C159" s="14">
         <f>IF([1]屬性克制表!AS159 = "", "", [1]屬性克制表!AS159)</f>
@@ -5853,9 +5853,9 @@
         <f>IF([1]屬性克制表!AQ160 = "", "", [1]屬性克制表!AQ160)</f>
         <v>布莉姆溫</v>
       </c>
-      <c r="B160" s="14">
-        <f>IF([1]屬性克制表!AR160 = "", "", [1]屬性克制表!AR160)</f>
-        <v>12.45</v>
+      <c r="B160" s="15" t="str">
+        <f>[1]屬性克制表!AO160</f>
+        <v>妖精</v>
       </c>
       <c r="C160" s="14">
         <f>IF([1]屬性克制表!AS160 = "", "", [1]屬性克制表!AS160)</f>
@@ -5867,9 +5867,9 @@
         <f>IF([1]屬性克制表!AQ161 = "", "", [1]屬性克制表!AQ161)</f>
         <v>卡璞・蝶蝶</v>
       </c>
-      <c r="B161" s="14">
-        <f>IF([1]屬性克制表!AR161 = "", "", [1]屬性克制表!AR161)</f>
-        <v>13.54</v>
+      <c r="B161" s="15" t="str">
+        <f>[1]屬性克制表!AO161</f>
+        <v>妖精</v>
       </c>
       <c r="C161" s="14">
         <f>IF([1]屬性克制表!AS161 = "", "", [1]屬性克制表!AS161)</f>
@@ -5881,9 +5881,9 @@
         <f>IF([1]屬性克制表!AQ162 = "", "", [1]屬性克制表!AQ162)</f>
         <v>卡璞・鳴鳴</v>
       </c>
-      <c r="B162" s="14">
-        <f>IF([1]屬性克制表!AR162 = "", "", [1]屬性克制表!AR162)</f>
-        <v>13.63</v>
+      <c r="B162" s="15" t="str">
+        <f>[1]屬性克制表!AO162</f>
+        <v>妖精</v>
       </c>
       <c r="C162" s="14">
         <f>IF([1]屬性克制表!AS162 = "", "", [1]屬性克制表!AS162)</f>
@@ -5895,83 +5895,13 @@
         <f>IF([1]屬性克制表!AQ163 = "", "", [1]屬性克制表!AQ163)</f>
         <v>卡璞・哞哞</v>
       </c>
-      <c r="B163" s="14">
-        <f>IF([1]屬性克制表!AR163 = "", "", [1]屬性克制表!AR163)</f>
-        <v>13.34</v>
+      <c r="B163" s="15" t="str">
+        <f>[1]屬性克制表!AO163</f>
+        <v>妖精</v>
       </c>
       <c r="C163" s="14">
         <f>IF([1]屬性克制表!AS163 = "", "", [1]屬性克制表!AS163)</f>
         <v>13.34</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="14" t="str">
-        <f>IF([1]屬性克制表!AQ164 = "", "", [1]屬性克制表!AQ164)</f>
-        <v/>
-      </c>
-      <c r="B164" s="14" t="str">
-        <f>IF([1]屬性克制表!AR164 = "", "", [1]屬性克制表!AR164)</f>
-        <v/>
-      </c>
-      <c r="C164" s="14" t="str">
-        <f>IF([1]屬性克制表!AS164 = "", "", [1]屬性克制表!AS164)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="14" t="str">
-        <f>IF([1]屬性克制表!AQ165 = "", "", [1]屬性克制表!AQ165)</f>
-        <v/>
-      </c>
-      <c r="B165" s="14" t="str">
-        <f>IF([1]屬性克制表!AR165 = "", "", [1]屬性克制表!AR165)</f>
-        <v/>
-      </c>
-      <c r="C165" s="14" t="str">
-        <f>IF([1]屬性克制表!AS165 = "", "", [1]屬性克制表!AS165)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="14" t="str">
-        <f>IF([1]屬性克制表!AQ166 = "", "", [1]屬性克制表!AQ166)</f>
-        <v/>
-      </c>
-      <c r="B166" s="14" t="str">
-        <f>IF([1]屬性克制表!AR166 = "", "", [1]屬性克制表!AR166)</f>
-        <v/>
-      </c>
-      <c r="C166" s="14" t="str">
-        <f>IF([1]屬性克制表!AS166 = "", "", [1]屬性克制表!AS166)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="14" t="str">
-        <f>IF([1]屬性克制表!AQ167 = "", "", [1]屬性克制表!AQ167)</f>
-        <v/>
-      </c>
-      <c r="B167" s="14" t="str">
-        <f>IF([1]屬性克制表!AR167 = "", "", [1]屬性克制表!AR167)</f>
-        <v/>
-      </c>
-      <c r="C167" s="14" t="str">
-        <f>IF([1]屬性克制表!AS167 = "", "", [1]屬性克制表!AS167)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="14" t="str">
-        <f>IF([1]屬性克制表!AQ168 = "", "", [1]屬性克制表!AQ168)</f>
-        <v/>
-      </c>
-      <c r="B168" s="14" t="str">
-        <f>IF([1]屬性克制表!AR168 = "", "", [1]屬性克制表!AR168)</f>
-        <v/>
-      </c>
-      <c r="C168" s="14" t="str">
-        <f>IF([1]屬性克制表!AS168 = "", "", [1]屬性克制表!AS168)</f>
-        <v/>
       </c>
     </row>
   </sheetData>

--- a/DPS.xlsx
+++ b/DPS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\寶可夢\Pokemon_App\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\寶可夢\Pokemon_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DBA1F1-8C18-4815-9A15-0D063CFC1073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D031B4B8-CD79-4B14-9A24-4397FCCFA964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="19200" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -386,7 +386,7 @@
             <v>格鬥</v>
           </cell>
           <cell r="AQ4" t="str">
-            <v>Mega路卡</v>
+            <v>Mega路卡利歐</v>
           </cell>
           <cell r="AS4">
             <v>22.43</v>
@@ -2415,11 +2415,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="14"/>
@@ -2647,7 +2647,7 @@
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="str">
         <f>[1]屬性克制表!AQ4</f>
-        <v>Mega路卡</v>
+        <v>Mega路卡利歐</v>
       </c>
       <c r="B4" s="15" t="str">
         <f>[1]屬性克制表!AO4</f>
